--- a/hardcore_comparison.xlsx
+++ b/hardcore_comparison.xlsx
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -144,9 +144,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +540,7 @@
     <col width="25" customWidth="1" min="18" max="18"/>
     <col width="20" customWidth="1" min="19" max="19"/>
     <col width="23" customWidth="1" min="20" max="20"/>
-    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
     <col width="23" customWidth="1" min="22" max="22"/>
     <col width="20" customWidth="1" min="23" max="23"/>
     <col width="20" customWidth="1" min="24" max="24"/>
@@ -809,34 +806,34 @@
         <v>3437.68836658141</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>1012.035119763723</v>
+        <v>893.4336896047727</v>
       </c>
       <c r="L2" s="6" t="n">
-        <v>-0.2895973114108801</v>
+        <v>-0.3728501286402897</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>5394.735817002738</v>
+        <v>5504.431458172403</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>4382.700697239015</v>
+        <v>4610.997768567631</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>1.619157075881958</v>
+        <v>1.639321327209473</v>
       </c>
       <c r="P2" s="8" t="n">
-        <v>0.001339912414550781</v>
+        <v>0.001411199569702148</v>
       </c>
       <c r="Q2" s="9" t="n">
-        <v>0.009921789169311523</v>
+        <v>0.009387493133544922</v>
       </c>
       <c r="R2" s="9" t="n">
-        <v>4.911422729492188e-05</v>
+        <v>6.985664367675781e-05</v>
       </c>
       <c r="S2" s="10" t="n">
-        <v>1.62907886505127</v>
+        <v>1.648708820343018</v>
       </c>
       <c r="T2" s="11" t="n">
-        <v>0.001389026641845703</v>
+        <v>0.001481056213378906</v>
       </c>
       <c r="U2" s="5" t="n">
         <v>406.1532221942886</v>
@@ -851,55 +848,55 @@
         <v>5554.585849930966</v>
       </c>
       <c r="Y2" s="8" t="n">
-        <v>7.987022399902344e-05</v>
+        <v>7.724761962890625e-05</v>
       </c>
       <c r="Z2" s="9" t="n">
-        <v>0.0004317760467529297</v>
+        <v>0.0004518032073974609</v>
       </c>
       <c r="AA2" s="11" t="n">
-        <v>0.0005116462707519531</v>
+        <v>0.0005290508270263672</v>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>433.7138706061309</v>
+        <v>434.5752518747327</v>
       </c>
       <c r="AC2" s="6" t="n">
-        <v>-0.6955525616256054</v>
+        <v>-0.6949479110980052</v>
       </c>
       <c r="AD2" s="5" t="n">
-        <v>5704.274542449039</v>
+        <v>5653.260302959038</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>5270.560671842907</v>
+        <v>5218.685051084306</v>
       </c>
       <c r="AF2" s="8" t="n">
-        <v>0.001924514770507812</v>
+        <v>0.001904010772705078</v>
       </c>
       <c r="AG2" s="9" t="n">
-        <v>5.483627319335938e-05</v>
+        <v>5.435943603515625e-05</v>
       </c>
       <c r="AH2" s="11" t="n">
-        <v>0.001979351043701172</v>
+        <v>0.001958370208740234</v>
       </c>
       <c r="AI2" s="5" t="n">
-        <v>389.4753338377014</v>
+        <v>922.6028926553131</v>
       </c>
       <c r="AJ2" s="6" t="n">
-        <v>-0.7266060051729778</v>
+        <v>-0.3523746729308636</v>
       </c>
       <c r="AK2" s="5" t="n">
-        <v>5850.318605706167</v>
+        <v>5506.580037525201</v>
       </c>
       <c r="AL2" s="5" t="n">
-        <v>5460.843271868466</v>
+        <v>4583.977144869889</v>
       </c>
       <c r="AM2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN2" s="9" t="n">
-        <v>8.106231689453125e-06</v>
+        <v>8.344650268554688e-06</v>
       </c>
       <c r="AO2" s="11" t="n">
-        <v>8.106231689453125e-06</v>
+        <v>8.344650268554688e-06</v>
       </c>
     </row>
     <row r="3">
@@ -938,34 +935,34 @@
         <v>3437.68836658141</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>698.9593015973834</v>
+        <v>646.7546599448768</v>
       </c>
       <c r="L3" s="6" t="n">
-        <v>-0.5093623162157839</v>
+        <v>-0.5460076035803476</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>5396.373866380401</v>
+        <v>5532.803819460412</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>4697.414564783017</v>
+        <v>4886.049159515534</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>1.619157075881958</v>
+        <v>1.639321327209473</v>
       </c>
       <c r="P3" s="8" t="n">
-        <v>0.00131678581237793</v>
+        <v>0.001775979995727539</v>
       </c>
       <c r="Q3" s="13" t="n">
-        <v>0.01096653938293457</v>
+        <v>0.01477813720703125</v>
       </c>
       <c r="R3" s="9" t="n">
-        <v>4.9591064453125e-05</v>
+        <v>5.435943603515625e-05</v>
       </c>
       <c r="S3" s="10" t="n">
-        <v>1.630123615264893</v>
+        <v>1.654099464416504</v>
       </c>
       <c r="T3" s="11" t="n">
-        <v>0.001366376876831055</v>
+        <v>0.001830339431762695</v>
       </c>
       <c r="U3" s="5" t="n">
         <v>698.0918671942388</v>
@@ -980,55 +977,55 @@
         <v>5056.286972626996</v>
       </c>
       <c r="Y3" s="8" t="n">
-        <v>0.0001521110534667969</v>
+        <v>0.0001480579376220703</v>
       </c>
       <c r="Z3" s="9" t="n">
-        <v>0.0005016326904296875</v>
+        <v>0.0004823207855224609</v>
       </c>
       <c r="AA3" s="11" t="n">
-        <v>0.0006537437438964844</v>
+        <v>0.0006303787231445312</v>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>323.2680821430519</v>
+        <v>426.4363701988913</v>
       </c>
       <c r="AC3" s="6" t="n">
-        <v>-0.7730804888044908</v>
+        <v>-0.7006610363756897</v>
       </c>
       <c r="AD3" s="5" t="n">
-        <v>5798.648112695027</v>
+        <v>5683.052987800085</v>
       </c>
       <c r="AE3" s="5" t="n">
-        <v>5475.380030551974</v>
+        <v>5256.616617601196</v>
       </c>
       <c r="AF3" s="8" t="n">
-        <v>0.002007961273193359</v>
+        <v>0.002085208892822266</v>
       </c>
       <c r="AG3" s="9" t="n">
-        <v>5.030632019042969e-05</v>
+        <v>6.461143493652344e-05</v>
       </c>
       <c r="AH3" s="11" t="n">
-        <v>0.002058267593383789</v>
+        <v>0.002149820327758789</v>
       </c>
       <c r="AI3" s="5" t="n">
-        <v>759.0468021178865</v>
+        <v>967.1599274863613</v>
       </c>
       <c r="AJ3" s="6" t="n">
-        <v>-0.467183619956378</v>
+        <v>-0.321097658209353</v>
       </c>
       <c r="AK3" s="5" t="n">
-        <v>5521.576217605349</v>
+        <v>5402.777369622761</v>
       </c>
       <c r="AL3" s="5" t="n">
-        <v>4762.529415487463</v>
+        <v>4435.617442136399</v>
       </c>
       <c r="AM3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN3" s="9" t="n">
-        <v>8.106231689453125e-06</v>
+        <v>9.775161743164062e-06</v>
       </c>
       <c r="AO3" s="11" t="n">
-        <v>8.106231689453125e-06</v>
+        <v>9.775161743164062e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1067,34 +1064,34 @@
         <v>3629.248188320659</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>876.0523726670173</v>
+        <v>823.9643800281983</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>-0.4277634660831364</v>
+        <v>-0.4617872907953311</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6206.330986498115</v>
+        <v>6151.035233548029</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>5330.278613831098</v>
+        <v>5327.070853519832</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>1.642437696456909</v>
+        <v>1.615466833114624</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.001465559005737305</v>
+        <v>0.001381635665893555</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.00928807258605957</v>
+        <v>0.009440422058105469</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>3.790855407714844e-05</v>
+        <v>3.528594970703125e-05</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>1.651725769042969</v>
+        <v>1.624907255172729</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.001503467559814453</v>
+        <v>0.001416921615600586</v>
       </c>
       <c r="U4" s="5" t="n">
         <v>925.2822150513346</v>
@@ -1109,55 +1106,55 @@
         <v>4897.157454478503</v>
       </c>
       <c r="Y4" s="8" t="n">
-        <v>7.700920104980469e-05</v>
+        <v>8.082389831542969e-05</v>
       </c>
       <c r="Z4" s="9" t="n">
-        <v>0.0005469322204589844</v>
+        <v>0.0004472732543945312</v>
       </c>
       <c r="AA4" s="11" t="n">
-        <v>0.0006239414215087891</v>
+        <v>0.0005280971527099609</v>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>760.2448431664088</v>
+        <v>806.1084250953825</v>
       </c>
       <c r="AC4" s="6" t="n">
-        <v>-0.5034088285643264</v>
+        <v>-0.473450782704409</v>
       </c>
       <c r="AD4" s="5" t="n">
-        <v>6173.199800317951</v>
+        <v>6037.806829777815</v>
       </c>
       <c r="AE4" s="5" t="n">
-        <v>5412.954957151543</v>
+        <v>5231.698404682433</v>
       </c>
       <c r="AF4" s="8" t="n">
-        <v>0.002142667770385742</v>
+        <v>0.002167463302612305</v>
       </c>
       <c r="AG4" s="9" t="n">
-        <v>6.628036499023438e-05</v>
+        <v>6.723403930664062e-05</v>
       </c>
       <c r="AH4" s="11" t="n">
-        <v>0.002208948135375977</v>
+        <v>0.002234697341918945</v>
       </c>
       <c r="AI4" s="5" t="n">
-        <v>837.9814209025269</v>
+        <v>187.4362791957178</v>
       </c>
       <c r="AJ4" s="6" t="n">
-        <v>-0.4526313737109703</v>
+        <v>-0.8775668098350106</v>
       </c>
       <c r="AK4" s="5" t="n">
-        <v>6210.317217105886</v>
+        <v>6468.616969236205</v>
       </c>
       <c r="AL4" s="5" t="n">
-        <v>5372.335796203359</v>
+        <v>6281.180690040488</v>
       </c>
       <c r="AM4" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN4" s="9" t="n">
-        <v>7.62939453125e-06</v>
+        <v>8.344650268554688e-06</v>
       </c>
       <c r="AO4" s="11" t="n">
-        <v>7.62939453125e-06</v>
+        <v>8.344650268554688e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1196,34 +1193,34 @@
         <v>3629.248188320659</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>881.9464628261321</v>
+        <v>931.244142023822</v>
       </c>
       <c r="L5" s="6" t="n">
-        <v>-0.4239134522843297</v>
+        <v>-0.391712257522023</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6072.40697586544</v>
+        <v>6120.698683464814</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5190.460513039308</v>
+        <v>5189.454541440992</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>1.642437696456909</v>
+        <v>1.615466833114624</v>
       </c>
       <c r="P5" s="8" t="n">
-        <v>0.001351833343505859</v>
-      </c>
-      <c r="Q5" s="9" t="n">
-        <v>0.009686470031738281</v>
+        <v>0.00138545036315918</v>
+      </c>
+      <c r="Q5" s="13" t="n">
+        <v>0.01018643379211426</v>
       </c>
       <c r="R5" s="9" t="n">
-        <v>3.886222839355469e-05</v>
+        <v>3.814697265625e-05</v>
       </c>
       <c r="S5" s="10" t="n">
-        <v>1.652124166488647</v>
+        <v>1.625653266906738</v>
       </c>
       <c r="T5" s="11" t="n">
-        <v>0.001390695571899414</v>
+        <v>0.00142359733581543</v>
       </c>
       <c r="U5" s="5" t="n">
         <v>1107.582028562488</v>
@@ -1238,55 +1235,55 @@
         <v>4711.292535889501</v>
       </c>
       <c r="Y5" s="8" t="n">
-        <v>0.0001757144927978516</v>
+        <v>0.0001652240753173828</v>
       </c>
       <c r="Z5" s="9" t="n">
-        <v>0.0005404949188232422</v>
+        <v>0.00054168701171875</v>
       </c>
       <c r="AA5" s="11" t="n">
-        <v>0.0007162094116210938</v>
+        <v>0.0007069110870361328</v>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>780.8883519608507</v>
+        <v>725.2097642293236</v>
       </c>
       <c r="AC5" s="6" t="n">
-        <v>-0.4899245092599328</v>
+        <v>-0.5262937070966761</v>
       </c>
       <c r="AD5" s="5" t="n">
-        <v>6158.780745133763</v>
+        <v>6180.64824155032</v>
       </c>
       <c r="AE5" s="5" t="n">
-        <v>5377.892393172912</v>
+        <v>5455.438477320998</v>
       </c>
       <c r="AF5" s="8" t="n">
-        <v>0.00211024284362793</v>
+        <v>0.002196311950683594</v>
       </c>
       <c r="AG5" s="9" t="n">
-        <v>5.817413330078125e-05</v>
+        <v>6.341934204101562e-05</v>
       </c>
       <c r="AH5" s="11" t="n">
-        <v>0.002168416976928711</v>
+        <v>0.002259731292724609</v>
       </c>
       <c r="AI5" s="5" t="n">
-        <v>644.8637929241548</v>
+        <v>837.8034597034793</v>
       </c>
       <c r="AJ5" s="6" t="n">
-        <v>-0.5787756152203689</v>
+        <v>-0.452747617788256</v>
       </c>
       <c r="AK5" s="5" t="n">
-        <v>6275.622291741405</v>
+        <v>6166.834499789634</v>
       </c>
       <c r="AL5" s="5" t="n">
-        <v>5630.758498817248</v>
+        <v>5329.031040086154</v>
       </c>
       <c r="AM5" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN5" s="9" t="n">
-        <v>7.152557373046875e-06</v>
+        <v>8.106231689453125e-06</v>
       </c>
       <c r="AO5" s="11" t="n">
-        <v>7.152557373046875e-06</v>
+        <v>8.106231689453125e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1325,34 +1322,34 @@
         <v>3548.231221123002</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>850.4224414830301</v>
+        <v>563.4015866679852</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>-0.4789448970485612</v>
+        <v>-0.6548030044546408</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6426.39056893266</v>
+        <v>6643.395056443555</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>5575.968127449631</v>
+        <v>6079.993469775571</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>1.811345338821411</v>
+        <v>1.652112722396851</v>
       </c>
       <c r="P6" s="8" t="n">
-        <v>0.001403331756591797</v>
-      </c>
-      <c r="Q6" s="13" t="n">
-        <v>0.01059293746948242</v>
+        <v>0.001416683197021484</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>0.009379386901855469</v>
       </c>
       <c r="R6" s="9" t="n">
-        <v>3.528594970703125e-05</v>
+        <v>3.838539123535156e-05</v>
       </c>
       <c r="S6" s="10" t="n">
-        <v>1.821938276290894</v>
+        <v>1.661492109298706</v>
       </c>
       <c r="T6" s="11" t="n">
-        <v>0.001438617706298828</v>
+        <v>0.001455068588256836</v>
       </c>
       <c r="U6" s="5" t="n">
         <v>897.8443486543877</v>
@@ -1367,55 +1364,55 @@
         <v>5125.991976093119</v>
       </c>
       <c r="Y6" s="8" t="n">
-        <v>8.606910705566406e-05</v>
+        <v>7.987022399902344e-05</v>
       </c>
       <c r="Z6" s="9" t="n">
-        <v>0.0004703998565673828</v>
+        <v>0.0004594326019287109</v>
       </c>
       <c r="AA6" s="11" t="n">
-        <v>0.0005564689636230469</v>
+        <v>0.0005393028259277344</v>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>1177.560902599992</v>
+        <v>1089.413822484842</v>
       </c>
       <c r="AC6" s="6" t="n">
-        <v>-0.2785066722065427</v>
+        <v>-0.3325145201464125</v>
       </c>
       <c r="AD6" s="5" t="n">
-        <v>6049.160117589813</v>
+        <v>6144.744441623699</v>
       </c>
       <c r="AE6" s="5" t="n">
-        <v>4871.599214989822</v>
+        <v>5055.330619138856</v>
       </c>
       <c r="AF6" s="8" t="n">
-        <v>0.001990556716918945</v>
+        <v>0.00195002555847168</v>
       </c>
       <c r="AG6" s="9" t="n">
-        <v>4.696846008300781e-05</v>
+        <v>5.006790161132812e-05</v>
       </c>
       <c r="AH6" s="11" t="n">
-        <v>0.002037525177001953</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="AI6" s="5" t="n">
-        <v>848.0528410788634</v>
+        <v>634.4063883040859</v>
       </c>
       <c r="AJ6" s="6" t="n">
-        <v>-0.480396754763409</v>
+        <v>-0.611298256200319</v>
       </c>
       <c r="AK6" s="5" t="n">
-        <v>6361.605295104616</v>
+        <v>6645.886306710648</v>
       </c>
       <c r="AL6" s="5" t="n">
-        <v>5513.552454025752</v>
+        <v>6011.479918406561</v>
       </c>
       <c r="AM6" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN6" s="9" t="n">
-        <v>7.390975952148438e-06</v>
+        <v>7.62939453125e-06</v>
       </c>
       <c r="AO6" s="11" t="n">
-        <v>7.390975952148438e-06</v>
+        <v>7.62939453125e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1454,34 +1451,34 @@
         <v>3548.231221123002</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>692.444310934102</v>
+        <v>745.9817192488354</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>-0.5757383341240222</v>
+        <v>-0.5429358839058228</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6525.866301363912</v>
+        <v>6557.48983327669</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>5833.42199042981</v>
+        <v>5811.508114027853</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>1.811345338821411</v>
+        <v>1.652112722396851</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.001358270645141602</v>
+        <v>0.001327037811279297</v>
       </c>
       <c r="Q7" s="9" t="n">
-        <v>0.009431123733520508</v>
+        <v>0.009546279907226562</v>
       </c>
       <c r="R7" s="9" t="n">
-        <v>3.480911254882812e-05</v>
+        <v>3.361701965332031e-05</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>1.820776462554932</v>
+        <v>1.661659002304077</v>
       </c>
       <c r="T7" s="11" t="n">
-        <v>0.00139307975769043</v>
+        <v>0.001360654830932617</v>
       </c>
       <c r="U7" s="5" t="n">
         <v>670.4269066951161</v>
@@ -1496,55 +1493,55 @@
         <v>5916.883516853703</v>
       </c>
       <c r="Y7" s="8" t="n">
-        <v>8.654594421386719e-05</v>
+        <v>8.344650268554688e-05</v>
       </c>
       <c r="Z7" s="9" t="n">
-        <v>0.0005316734313964844</v>
+        <v>0.0005002021789550781</v>
       </c>
       <c r="AA7" s="11" t="n">
-        <v>0.0006182193756103516</v>
+        <v>0.000583648681640625</v>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>1092.431647103464</v>
+        <v>1083.238983582004</v>
       </c>
       <c r="AC7" s="6" t="n">
-        <v>-0.3306654944849975</v>
+        <v>-0.3362978531857144</v>
       </c>
       <c r="AD7" s="5" t="n">
-        <v>6141.811102080504</v>
+        <v>6202.83660992466</v>
       </c>
       <c r="AE7" s="5" t="n">
-        <v>5049.379454977041</v>
+        <v>5119.597626342656</v>
       </c>
       <c r="AF7" s="8" t="n">
-        <v>0.00196385383605957</v>
+        <v>0.001939773559570312</v>
       </c>
       <c r="AG7" s="9" t="n">
-        <v>4.363059997558594e-05</v>
+        <v>4.625320434570312e-05</v>
       </c>
       <c r="AH7" s="11" t="n">
-        <v>0.002007484436035156</v>
+        <v>0.001986026763916016</v>
       </c>
       <c r="AI7" s="5" t="n">
-        <v>1006.387594756498</v>
+        <v>907.7154857974211</v>
       </c>
       <c r="AJ7" s="6" t="n">
-        <v>-0.3833848141631365</v>
+        <v>-0.4438413630313064</v>
       </c>
       <c r="AK7" s="5" t="n">
-        <v>6232.795012513279</v>
+        <v>6372.853471743286</v>
       </c>
       <c r="AL7" s="5" t="n">
-        <v>5226.407417756783</v>
+        <v>5465.137985945865</v>
       </c>
       <c r="AM7" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN7" s="9" t="n">
-        <v>7.390975952148438e-06</v>
+        <v>7.62939453125e-06</v>
       </c>
       <c r="AO7" s="11" t="n">
-        <v>7.390975952148438e-06</v>
+        <v>7.62939453125e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1583,34 +1580,34 @@
         <v>3027.638891979208</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>705.002572461672</v>
+        <v>465.5202018762546</v>
       </c>
       <c r="L8" s="6" t="n">
-        <v>-0.5370143385090913</v>
+        <v>-0.694285968559673</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5495.120509701575</v>
+        <v>5741.343239047083</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>4790.117937239903</v>
+        <v>5275.82303717083</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>1.613102674484253</v>
+        <v>1.619421005249023</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>0.001399755477905273</v>
-      </c>
-      <c r="Q8" s="9" t="n">
-        <v>0.009617805480957031</v>
+        <v>0.001348018646240234</v>
+      </c>
+      <c r="Q8" s="13" t="n">
+        <v>0.01024603843688965</v>
       </c>
       <c r="R8" s="9" t="n">
-        <v>3.576278686523438e-05</v>
+        <v>3.600120544433594e-05</v>
       </c>
       <c r="S8" s="10" t="n">
-        <v>1.62272047996521</v>
+        <v>1.629667043685913</v>
       </c>
       <c r="T8" s="11" t="n">
-        <v>0.001435518264770508</v>
+        <v>0.00138401985168457</v>
       </c>
       <c r="U8" s="5" t="n">
         <v>1102.304744147901</v>
@@ -1625,46 +1622,46 @@
         <v>3950.91209108149</v>
       </c>
       <c r="Y8" s="8" t="n">
-        <v>7.82012939453125e-05</v>
+        <v>7.62939453125e-05</v>
       </c>
       <c r="Z8" s="9" t="n">
-        <v>0.0004825592041015625</v>
+        <v>0.0004801750183105469</v>
       </c>
       <c r="AA8" s="11" t="n">
-        <v>0.000560760498046875</v>
+        <v>0.0005564689636230469</v>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>740.8068357214331</v>
+        <v>659.0840951829366</v>
       </c>
       <c r="AC8" s="6" t="n">
-        <v>-0.5135011469874868</v>
+        <v>-0.5671696846141672</v>
       </c>
       <c r="AD8" s="5" t="n">
-        <v>5487.158511352683</v>
+        <v>5575.892805911998</v>
       </c>
       <c r="AE8" s="5" t="n">
-        <v>4746.351675631249</v>
+        <v>4916.808710729062</v>
       </c>
       <c r="AF8" s="8" t="n">
-        <v>0.001841306686401367</v>
+        <v>0.00179743766784668</v>
       </c>
       <c r="AG8" s="9" t="n">
-        <v>4.673004150390625e-05</v>
+        <v>4.458427429199219e-05</v>
       </c>
       <c r="AH8" s="11" t="n">
-        <v>0.001888036727905273</v>
+        <v>0.001842021942138672</v>
       </c>
       <c r="AI8" s="5" t="n">
-        <v>114.8455387320071</v>
+        <v>861.6172089349185</v>
       </c>
       <c r="AJ8" s="6" t="n">
-        <v>-0.9245792287913832</v>
+        <v>-0.4341631803728331</v>
       </c>
       <c r="AK8" s="5" t="n">
-        <v>5481.760152686459</v>
+        <v>5357.885947285004</v>
       </c>
       <c r="AL8" s="5" t="n">
-        <v>5366.914613954454</v>
+        <v>4496.268738350085</v>
       </c>
       <c r="AM8" s="12" t="n">
         <v>0</v>
@@ -1712,34 +1709,34 @@
         <v>3027.638891979208</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>344.1279589042024</v>
+        <v>539.6572960434758</v>
       </c>
       <c r="L9" s="6" t="n">
-        <v>-0.7740060576879096</v>
+        <v>-0.6455990375827072</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5804.725939135829</v>
+        <v>5662.441091133282</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>5460.597980231627</v>
+        <v>5122.783795089806</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>1.613102674484253</v>
+        <v>1.619421005249023</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>0.001372575759887695</v>
-      </c>
-      <c r="Q9" s="13" t="n">
-        <v>0.01029276847839355</v>
+        <v>0.001408576965332031</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <v>0.009739160537719727</v>
       </c>
       <c r="R9" s="9" t="n">
-        <v>3.576278686523438e-05</v>
+        <v>4.053115844726562e-05</v>
       </c>
       <c r="S9" s="10" t="n">
-        <v>1.623395442962646</v>
+        <v>1.629160165786743</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>0.00140833854675293</v>
+        <v>0.001449108123779297</v>
       </c>
       <c r="U9" s="5" t="n">
         <v>1079.799814673422</v>
@@ -1754,55 +1751,55 @@
         <v>4026.651538429137</v>
       </c>
       <c r="Y9" s="8" t="n">
-        <v>0.0003347396850585938</v>
+        <v>0.0001890659332275391</v>
       </c>
       <c r="Z9" s="9" t="n">
-        <v>0.0005371570587158203</v>
+        <v>0.0005564689636230469</v>
       </c>
       <c r="AA9" s="11" t="n">
-        <v>0.0008718967437744141</v>
+        <v>0.0007455348968505859</v>
       </c>
       <c r="AB9" s="5" t="n">
-        <v>746.9156811755727</v>
+        <v>847.3048461920614</v>
       </c>
       <c r="AC9" s="6" t="n">
-        <v>-0.5094893774365548</v>
+        <v>-0.4435623215828601</v>
       </c>
       <c r="AD9" s="5" t="n">
-        <v>5430.364272935548</v>
+        <v>5424.509747295616</v>
       </c>
       <c r="AE9" s="5" t="n">
-        <v>4683.448591759974</v>
+        <v>4577.204901103553</v>
       </c>
       <c r="AF9" s="8" t="n">
-        <v>0.001950979232788086</v>
+        <v>0.001859903335571289</v>
       </c>
       <c r="AG9" s="9" t="n">
-        <v>4.506111145019531e-05</v>
+        <v>6.961822509765625e-05</v>
       </c>
       <c r="AH9" s="11" t="n">
-        <v>0.001996040344238281</v>
+        <v>0.001929521560668945</v>
       </c>
       <c r="AI9" s="5" t="n">
-        <v>785.5961894709292</v>
+        <v>977.5972311228309</v>
       </c>
       <c r="AJ9" s="6" t="n">
-        <v>-0.4840873130761388</v>
+        <v>-0.3579973770270302</v>
       </c>
       <c r="AK9" s="5" t="n">
-        <v>5434.294287545073</v>
+        <v>5220.130166994114</v>
       </c>
       <c r="AL9" s="5" t="n">
-        <v>4648.698098074143</v>
+        <v>4242.532935871283</v>
       </c>
       <c r="AM9" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN9" s="9" t="n">
-        <v>7.390975952148438e-06</v>
+        <v>7.62939453125e-06</v>
       </c>
       <c r="AO9" s="11" t="n">
-        <v>7.390975952148438e-06</v>
+        <v>7.62939453125e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1841,34 +1838,34 @@
         <v>3967.436357179112</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>688.3093259981169</v>
+        <v>733.065954285942</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>-0.5437778108239326</v>
+        <v>-0.5141124174224971</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6501.789760565031</v>
+        <v>6478.03611211583</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>5813.480434566914</v>
+        <v>5744.970157829888</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>2.15623927116394</v>
+        <v>1.612317800521851</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>0.001413345336914062</v>
-      </c>
-      <c r="Q10" s="13" t="n">
-        <v>0.01076078414916992</v>
+        <v>0.001357316970825195</v>
+      </c>
+      <c r="Q10" s="9" t="n">
+        <v>0.009552478790283203</v>
       </c>
       <c r="R10" s="9" t="n">
-        <v>3.409385681152344e-05</v>
+        <v>3.194808959960938e-05</v>
       </c>
       <c r="S10" s="10" t="n">
-        <v>2.16700005531311</v>
+        <v>1.621870279312134</v>
       </c>
       <c r="T10" s="11" t="n">
-        <v>0.001447439193725586</v>
+        <v>0.001389265060424805</v>
       </c>
       <c r="U10" s="5" t="n">
         <v>418.9902507216863</v>
@@ -1883,55 +1880,55 @@
         <v>5583.883375516482</v>
       </c>
       <c r="Y10" s="8" t="n">
-        <v>5.006790161132812e-05</v>
+        <v>4.839897155761719e-05</v>
       </c>
       <c r="Z10" s="9" t="n">
-        <v>0.0004382133483886719</v>
+        <v>0.0004236698150634766</v>
       </c>
       <c r="AA10" s="11" t="n">
-        <v>0.00048828125</v>
+        <v>0.0004720687866210938</v>
       </c>
       <c r="AB10" s="5" t="n">
-        <v>952.9009656290086</v>
+        <v>912.0458853038826</v>
       </c>
       <c r="AC10" s="6" t="n">
-        <v>-0.3684023328074968</v>
+        <v>-0.3954817191834763</v>
       </c>
       <c r="AD10" s="5" t="n">
-        <v>6229.071808950584</v>
+        <v>6237.319191418575</v>
       </c>
       <c r="AE10" s="5" t="n">
-        <v>5276.170843321575</v>
+        <v>5325.273306114691</v>
       </c>
       <c r="AF10" s="8" t="n">
-        <v>0.002180576324462891</v>
+        <v>0.002140998840332031</v>
       </c>
       <c r="AG10" s="9" t="n">
-        <v>6.318092346191406e-05</v>
+        <v>9.417533874511719e-05</v>
       </c>
       <c r="AH10" s="11" t="n">
-        <v>0.002243757247924805</v>
+        <v>0.002235174179077148</v>
       </c>
       <c r="AI10" s="5" t="n">
-        <v>271.154118462603</v>
+        <v>846.4529105632778</v>
       </c>
       <c r="AJ10" s="6" t="n">
-        <v>-0.8202748083505498</v>
+        <v>-0.4389577689774189</v>
       </c>
       <c r="AK10" s="5" t="n">
-        <v>6351.415935235497</v>
+        <v>6238.051367039838</v>
       </c>
       <c r="AL10" s="5" t="n">
-        <v>6080.261816772894</v>
+        <v>5391.598456476559</v>
       </c>
       <c r="AM10" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN10" s="9" t="n">
-        <v>8.821487426757812e-06</v>
+        <v>6.914138793945312e-06</v>
       </c>
       <c r="AO10" s="11" t="n">
-        <v>8.821487426757812e-06</v>
+        <v>6.914138793945312e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1970,34 +1967,34 @@
         <v>3967.436357179112</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>822.6434281144947</v>
+        <v>896.4840751239724</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>-0.4547390664197882</v>
+        <v>-0.4057963304195305</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6415.84620301549</v>
+        <v>6389.121736382296</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>5593.202774900993</v>
+        <v>5492.637661258323</v>
       </c>
       <c r="O11" s="7" t="n">
-        <v>2.15623927116394</v>
+        <v>1.612317800521851</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>0.001471519470214844</v>
+        <v>0.001443147659301758</v>
       </c>
       <c r="Q11" s="9" t="n">
-        <v>0.009948492050170898</v>
+        <v>0.009728908538818359</v>
       </c>
       <c r="R11" s="9" t="n">
-        <v>3.719329833984375e-05</v>
+        <v>3.838539123535156e-05</v>
       </c>
       <c r="S11" s="10" t="n">
-        <v>2.166187763214111</v>
+        <v>1.622046709060669</v>
       </c>
       <c r="T11" s="11" t="n">
-        <v>0.001508712768554688</v>
+        <v>0.001481533050537109</v>
       </c>
       <c r="U11" s="5" t="n">
         <v>1052.442394220478</v>
@@ -2012,55 +2009,55 @@
         <v>5058.574273528178</v>
       </c>
       <c r="Y11" s="8" t="n">
-        <v>0.0001285076141357422</v>
+        <v>0.000133514404296875</v>
       </c>
       <c r="Z11" s="9" t="n">
-        <v>0.0005319118499755859</v>
+        <v>0.0005567073822021484</v>
       </c>
       <c r="AA11" s="11" t="n">
-        <v>0.0006604194641113281</v>
+        <v>0.0006902217864990234</v>
       </c>
       <c r="AB11" s="5" t="n">
-        <v>905.8998582415948</v>
+        <v>910.2886339511401</v>
       </c>
       <c r="AC11" s="6" t="n">
-        <v>-0.3995554020687493</v>
+        <v>-0.3966464528704974</v>
       </c>
       <c r="AD11" s="5" t="n">
-        <v>6280.96010403481</v>
+        <v>6227.018725479467</v>
       </c>
       <c r="AE11" s="5" t="n">
-        <v>5375.060245793215</v>
+        <v>5316.730091528327</v>
       </c>
       <c r="AF11" s="8" t="n">
-        <v>0.002168655395507812</v>
+        <v>0.002155303955078125</v>
       </c>
       <c r="AG11" s="9" t="n">
-        <v>5.626678466796875e-05</v>
+        <v>5.435943603515625e-05</v>
       </c>
       <c r="AH11" s="11" t="n">
-        <v>0.002224922180175781</v>
+        <v>0.002209663391113281</v>
       </c>
       <c r="AI11" s="5" t="n">
-        <v>967.9989482403829</v>
+        <v>28.8073181306421</v>
       </c>
       <c r="AJ11" s="6" t="n">
-        <v>-0.3583951537399823</v>
+        <v>-0.9809060588816011</v>
       </c>
       <c r="AK11" s="5" t="n">
-        <v>6155.675644280602</v>
+        <v>6535.460904553267</v>
       </c>
       <c r="AL11" s="5" t="n">
-        <v>5187.676696040217</v>
+        <v>6506.653586422626</v>
       </c>
       <c r="AM11" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN11" s="9" t="n">
-        <v>7.390975952148438e-06</v>
+        <v>7.152557373046875e-06</v>
       </c>
       <c r="AO11" s="11" t="n">
-        <v>7.390975952148438e-06</v>
+        <v>7.152557373046875e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2099,97 +2096,97 @@
         <v>7747.870451104626</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>835.0345890731203</v>
+        <v>840.0113904376768</v>
       </c>
       <c r="L12" s="6" t="n">
-        <v>-0.5666360953982338</v>
+        <v>-0.5640532490107977</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11232.70245328179</v>
+        <v>11219.66139814534</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>10397.66786420867</v>
+        <v>10379.65000770767</v>
       </c>
       <c r="O12" s="7" t="n">
-        <v>1.626949787139893</v>
+        <v>1.611107349395752</v>
       </c>
       <c r="P12" s="8" t="n">
-        <v>0.001546144485473633</v>
+        <v>0.001364707946777344</v>
       </c>
       <c r="Q12" s="13" t="n">
-        <v>0.02050638198852539</v>
+        <v>0.01961612701416016</v>
       </c>
       <c r="R12" s="9" t="n">
-        <v>4.315376281738281e-05</v>
+        <v>4.148483276367188e-05</v>
       </c>
       <c r="S12" s="10" t="n">
-        <v>1.647456169128418</v>
+        <v>1.630723476409912</v>
       </c>
       <c r="T12" s="11" t="n">
-        <v>0.001589298248291016</v>
+        <v>0.001406192779541016</v>
       </c>
       <c r="U12" s="5" t="n">
-        <v>-7528.851386874272</v>
+        <v>2747.401346041485</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>-4.907302136793946</v>
+        <v>0.4258386304096304</v>
       </c>
       <c r="W12" s="5" t="n">
-        <v>11960.16110172281</v>
+        <v>8117.228500413401</v>
       </c>
       <c r="X12" s="5" t="n">
-        <v>19489.01248859708</v>
+        <v>5369.827154371917</v>
       </c>
       <c r="Y12" s="8" t="n">
-        <v>7.653236389160156e-05</v>
+        <v>7.510185241699219e-05</v>
       </c>
       <c r="Z12" s="9" t="n">
-        <v>0.0007679462432861328</v>
+        <v>0.0005915164947509766</v>
       </c>
       <c r="AA12" s="11" t="n">
-        <v>0.0008444786071777344</v>
+        <v>0.0006666183471679688</v>
       </c>
       <c r="AB12" s="5" t="n">
-        <v>438.7682935374119</v>
+        <v>441.8395138127365</v>
       </c>
       <c r="AC12" s="6" t="n">
-        <v>-0.772289263952662</v>
+        <v>-0.7706953706842595</v>
       </c>
       <c r="AD12" s="5" t="n">
-        <v>11564.11037789474</v>
+        <v>11568.82689263243</v>
       </c>
       <c r="AE12" s="5" t="n">
-        <v>11125.34208435732</v>
+        <v>11126.98737881969</v>
       </c>
       <c r="AF12" s="8" t="n">
-        <v>0.001991748809814453</v>
+        <v>0.001946449279785156</v>
       </c>
       <c r="AG12" s="9" t="n">
-        <v>7.033348083496094e-05</v>
+        <v>7.081031799316406e-05</v>
       </c>
       <c r="AH12" s="11" t="n">
-        <v>0.002062082290649414</v>
+        <v>0.00201725959777832</v>
       </c>
       <c r="AI12" s="5" t="n">
-        <v>664.04488248486</v>
+        <v>969.123660411592</v>
       </c>
       <c r="AJ12" s="6" t="n">
-        <v>-0.6553758528447485</v>
+        <v>-0.4970469259433903</v>
       </c>
       <c r="AK12" s="5" t="n">
-        <v>11217.17979862566</v>
+        <v>10891.27699073183</v>
       </c>
       <c r="AL12" s="5" t="n">
-        <v>10553.1349161408</v>
+        <v>9922.153330320236</v>
       </c>
       <c r="AM12" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" s="9" t="n">
-        <v>1.120567321777344e-05</v>
+        <v>1.072883605957031e-05</v>
       </c>
       <c r="AO12" s="11" t="n">
-        <v>1.120567321777344e-05</v>
+        <v>1.072883605957031e-05</v>
       </c>
     </row>
     <row r="13">
@@ -2228,97 +2225,97 @@
         <v>7747.870451104626</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>1014.681404544315</v>
+        <v>911.597640656805</v>
       </c>
       <c r="L13" s="6" t="n">
-        <v>-0.4734034959100076</v>
+        <v>-0.5269016180284267</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11022.00860057027</v>
+        <v>11096.68366325896</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>10007.32719602596</v>
+        <v>10185.08602260216</v>
       </c>
       <c r="O13" s="7" t="n">
-        <v>1.626949787139893</v>
+        <v>1.611107349395752</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>0.001631021499633789</v>
+        <v>0.001422643661499023</v>
       </c>
       <c r="Q13" s="13" t="n">
-        <v>0.06051421165466309</v>
+        <v>0.0191502571105957</v>
       </c>
       <c r="R13" s="9" t="n">
-        <v>6.771087646484375e-05</v>
+        <v>4.625320434570312e-05</v>
       </c>
       <c r="S13" s="10" t="n">
-        <v>1.687463998794556</v>
+        <v>1.630257606506348</v>
       </c>
       <c r="T13" s="11" t="n">
-        <v>0.001698732376098633</v>
+        <v>0.001468896865844727</v>
       </c>
       <c r="U13" s="5" t="n">
-        <v>-29896.2436308308</v>
+        <v>3226.235353507738</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>-16.5154685115062</v>
+        <v>0.674342558087668</v>
       </c>
       <c r="W13" s="5" t="n">
-        <v>12464.95248255578</v>
+        <v>5754.378839821236</v>
       </c>
       <c r="X13" s="5" t="n">
-        <v>42361.19611338656</v>
+        <v>2528.143486313499</v>
       </c>
       <c r="Y13" s="8" t="n">
-        <v>0.0001499652862548828</v>
+        <v>0.0001516342163085938</v>
       </c>
       <c r="Z13" s="9" t="n">
-        <v>0.0009560585021972656</v>
+        <v>0.0005745887756347656</v>
       </c>
       <c r="AA13" s="11" t="n">
-        <v>0.001106023788452148</v>
+        <v>0.0007262229919433594</v>
       </c>
       <c r="AB13" s="5" t="n">
-        <v>408.7496407576444</v>
+        <v>618.7555284918914</v>
       </c>
       <c r="AC13" s="6" t="n">
-        <v>-0.7878682600203153</v>
+        <v>-0.6788799945175743</v>
       </c>
       <c r="AD13" s="5" t="n">
-        <v>11579.44155363068</v>
+        <v>11405.73389960886</v>
       </c>
       <c r="AE13" s="5" t="n">
-        <v>11170.69191287304</v>
+        <v>10786.97837111697</v>
       </c>
       <c r="AF13" s="8" t="n">
-        <v>0.003219366073608398</v>
+        <v>0.001949787139892578</v>
       </c>
       <c r="AG13" s="9" t="n">
-        <v>9.489059448242188e-05</v>
+        <v>6.437301635742188e-05</v>
       </c>
       <c r="AH13" s="11" t="n">
-        <v>0.00331425666809082</v>
+        <v>0.00201416015625</v>
       </c>
       <c r="AI13" s="5" t="n">
-        <v>-66.33211875007459</v>
+        <v>1087.93499608454</v>
       </c>
       <c r="AJ13" s="6" t="n">
-        <v>-1.034424856596597</v>
+        <v>-0.4353865528140189</v>
       </c>
       <c r="AK13" s="5" t="n">
-        <v>11226.05266908253</v>
+        <v>10786.27996389787</v>
       </c>
       <c r="AL13" s="5" t="n">
-        <v>11292.38478783261</v>
+        <v>9698.344967813329</v>
       </c>
       <c r="AM13" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN13" s="9" t="n">
-        <v>2.002716064453125e-05</v>
+        <v>1.072883605957031e-05</v>
       </c>
       <c r="AO13" s="11" t="n">
-        <v>2.002716064453125e-05</v>
+        <v>1.072883605957031e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2357,97 +2354,97 @@
         <v>8324.188063057762</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1239.246308411895</v>
+        <v>1014.275409457501</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>-0.4053652473727971</v>
+        <v>-0.513314340252888</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11960.87525314664</v>
+        <v>12213.68899091242</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>10721.62894473474</v>
+        <v>11199.41358145492</v>
       </c>
       <c r="O14" s="7" t="n">
-        <v>1.646853446960449</v>
+        <v>1.594547510147095</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>0.001342058181762695</v>
+        <v>0.001390695571899414</v>
       </c>
       <c r="Q14" s="13" t="n">
-        <v>0.02051711082458496</v>
+        <v>0.02085256576538086</v>
       </c>
       <c r="R14" s="9" t="n">
-        <v>4.267692565917969e-05</v>
+        <v>4.148483276367188e-05</v>
       </c>
       <c r="S14" s="10" t="n">
-        <v>1.667370557785034</v>
+        <v>1.615400075912476</v>
       </c>
       <c r="T14" s="11" t="n">
-        <v>0.001384735107421875</v>
+        <v>0.001432180404663086</v>
       </c>
       <c r="U14" s="5" t="n">
-        <v>-4726.705696179742</v>
+        <v>2499.077695051665</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>-3.268042642782871</v>
+        <v>0.199146962880671</v>
       </c>
       <c r="W14" s="5" t="n">
-        <v>12204.10698380772</v>
+        <v>10058.59002077988</v>
       </c>
       <c r="X14" s="5" t="n">
-        <v>16930.81267998746</v>
+        <v>7559.512325728216</v>
       </c>
       <c r="Y14" s="8" t="n">
         <v>7.510185241699219e-05</v>
       </c>
       <c r="Z14" s="9" t="n">
-        <v>0.0007083415985107422</v>
+        <v>0.0006575584411621094</v>
       </c>
       <c r="AA14" s="11" t="n">
-        <v>0.0007834434509277344</v>
+        <v>0.0007326602935791016</v>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>671.0853758026963</v>
+        <v>580.7664759007263</v>
       </c>
       <c r="AC14" s="6" t="n">
-        <v>-0.6779892070499232</v>
+        <v>-0.7213274492832971</v>
       </c>
       <c r="AD14" s="5" t="n">
-        <v>12455.06805076007</v>
+        <v>12545.81221316391</v>
       </c>
       <c r="AE14" s="5" t="n">
-        <v>11783.98267495737</v>
+        <v>11965.04573726318</v>
       </c>
       <c r="AF14" s="8" t="n">
-        <v>0.00218510627746582</v>
+        <v>0.002192020416259766</v>
       </c>
       <c r="AG14" s="9" t="n">
-        <v>8.606910705566406e-05</v>
+        <v>7.987022399902344e-05</v>
       </c>
       <c r="AH14" s="11" t="n">
-        <v>0.002271175384521484</v>
+        <v>0.002271890640258789</v>
       </c>
       <c r="AI14" s="5" t="n">
-        <v>426.4584284465417</v>
+        <v>1305.354151430597</v>
       </c>
       <c r="AJ14" s="6" t="n">
-        <v>-0.7953699757798197</v>
+        <v>-0.3736443371604277</v>
       </c>
       <c r="AK14" s="5" t="n">
-        <v>12583.82697014751</v>
+        <v>11840.1349764824</v>
       </c>
       <c r="AL14" s="5" t="n">
-        <v>12157.36854170096</v>
+        <v>10534.78082505181</v>
       </c>
       <c r="AM14" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN14" s="9" t="n">
-        <v>1.406669616699219e-05</v>
+        <v>1.168251037597656e-05</v>
       </c>
       <c r="AO14" s="11" t="n">
-        <v>1.406669616699219e-05</v>
+        <v>1.168251037597656e-05</v>
       </c>
     </row>
     <row r="15">
@@ -2486,97 +2483,97 @@
         <v>8324.188063057762</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>839.8272865034274</v>
+        <v>1009.165072123416</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>-0.5970207961325187</v>
+        <v>-0.5157664630922849</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12340.9169202103</v>
+        <v>12206.35227821742</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>11501.08963370687</v>
+        <v>11197.18720609401</v>
       </c>
       <c r="O15" s="7" t="n">
-        <v>1.646853446960449</v>
+        <v>1.594547510147095</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>0.001433372497558594</v>
+        <v>0.001547098159790039</v>
       </c>
       <c r="Q15" s="13" t="n">
-        <v>0.0202782154083252</v>
+        <v>0.01994109153747559</v>
       </c>
       <c r="R15" s="9" t="n">
-        <v>4.220008850097656e-05</v>
+        <v>6.604194641113281e-05</v>
       </c>
       <c r="S15" s="10" t="n">
-        <v>1.667131662368774</v>
+        <v>1.61448860168457</v>
       </c>
       <c r="T15" s="11" t="n">
-        <v>0.00147557258605957</v>
-      </c>
-      <c r="U15" s="14" t="n">
-        <v>0</v>
+        <v>0.001613140106201172</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>3529.243473695525</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="16" t="n">
-        <v>0</v>
+        <v>0.6934573907518814</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>6431.071111410311</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>2901.827637714788</v>
+      </c>
+      <c r="Y15" s="8" t="n">
+        <v>0.0001738071441650391</v>
+      </c>
+      <c r="Z15" s="9" t="n">
+        <v>0.0006003379821777344</v>
+      </c>
+      <c r="AA15" s="11" t="n">
+        <v>0.0007741451263427734</v>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>645.0977799672246</v>
+        <v>637.38308988096</v>
       </c>
       <c r="AC15" s="6" t="n">
-        <v>-0.6904589860729526</v>
+        <v>-0.6941607706172377</v>
       </c>
       <c r="AD15" s="5" t="n">
-        <v>12497.88472788181</v>
+        <v>12469.00231825298</v>
       </c>
       <c r="AE15" s="5" t="n">
-        <v>11852.78694791458</v>
+        <v>11831.61922837202</v>
       </c>
       <c r="AF15" s="8" t="n">
-        <v>0.002181529998779297</v>
+        <v>0.002121686935424805</v>
       </c>
       <c r="AG15" s="9" t="n">
-        <v>7.534027099609375e-05</v>
+        <v>7.343292236328125e-05</v>
       </c>
       <c r="AH15" s="11" t="n">
-        <v>0.002256870269775391</v>
+        <v>0.002195119857788086</v>
       </c>
       <c r="AI15" s="5" t="n">
-        <v>738.1338030929327</v>
+        <v>703.7501195492198</v>
       </c>
       <c r="AJ15" s="6" t="n">
-        <v>-0.6458169708244502</v>
+        <v>-0.6623154933696811</v>
       </c>
       <c r="AK15" s="5" t="n">
-        <v>12350.23683440173</v>
+        <v>12398.92687669559</v>
       </c>
       <c r="AL15" s="5" t="n">
-        <v>11612.1030313088</v>
+        <v>11695.17675714637</v>
       </c>
       <c r="AM15" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN15" s="9" t="n">
-        <v>2.217292785644531e-05</v>
+        <v>1.263618469238281e-05</v>
       </c>
       <c r="AO15" s="11" t="n">
-        <v>2.217292785644531e-05</v>
+        <v>1.263618469238281e-05</v>
       </c>
     </row>
     <row r="16">
@@ -2615,97 +2612,97 @@
         <v>7918.364085844306</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>850.0478858910808</v>
+        <v>764.2917977794234</v>
       </c>
       <c r="L16" s="6" t="n">
-        <v>-0.6413388486930395</v>
+        <v>-0.6775219600261922</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12985.38739078392</v>
+        <v>13023.5829513986</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>12135.33950489283</v>
+        <v>12259.29115361918</v>
       </c>
       <c r="O16" s="7" t="n">
-        <v>1.59741735458374</v>
+        <v>1.616833925247192</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>0.001357555389404297</v>
+        <v>0.00147557258605957</v>
       </c>
       <c r="Q16" s="13" t="n">
-        <v>0.02062201499938965</v>
+        <v>0.0198822021484375</v>
       </c>
       <c r="R16" s="9" t="n">
-        <v>3.981590270996094e-05</v>
+        <v>4.124641418457031e-05</v>
       </c>
       <c r="S16" s="10" t="n">
-        <v>1.61803936958313</v>
+        <v>1.63671612739563</v>
       </c>
       <c r="T16" s="11" t="n">
-        <v>0.001397371292114258</v>
+        <v>0.001516819000244141</v>
       </c>
       <c r="U16" s="5" t="n">
-        <v>207.8212794437947</v>
+        <v>2826.988636085567</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>-0.9123138583266265</v>
+        <v>0.1927928011811581</v>
       </c>
       <c r="W16" s="5" t="n">
-        <v>12394.44690059846</v>
+        <v>10012.7076384704</v>
       </c>
       <c r="X16" s="5" t="n">
-        <v>12186.62562115467</v>
+        <v>7185.719002384839</v>
       </c>
       <c r="Y16" s="8" t="n">
-        <v>7.724761962890625e-05</v>
+        <v>7.390975952148438e-05</v>
       </c>
       <c r="Z16" s="9" t="n">
-        <v>0.0007195472717285156</v>
+        <v>0.0006406307220458984</v>
       </c>
       <c r="AA16" s="11" t="n">
-        <v>0.0007967948913574219</v>
+        <v>0.0007145404815673828</v>
       </c>
       <c r="AB16" s="5" t="n">
-        <v>707.3010730881795</v>
+        <v>752.3160026590079</v>
       </c>
       <c r="AC16" s="6" t="n">
-        <v>-0.7015680864513554</v>
+        <v>-0.6825749135562182</v>
       </c>
       <c r="AD16" s="5" t="n">
-        <v>13071.02698529311</v>
+        <v>12981.10251484341</v>
       </c>
       <c r="AE16" s="5" t="n">
-        <v>12363.72591220493</v>
+        <v>12228.7865121844</v>
       </c>
       <c r="AF16" s="8" t="n">
-        <v>0.002232074737548828</v>
+        <v>0.001955986022949219</v>
       </c>
       <c r="AG16" s="9" t="n">
-        <v>8.869171142578125e-05</v>
+        <v>6.079673767089844e-05</v>
       </c>
       <c r="AH16" s="11" t="n">
-        <v>0.002320766448974609</v>
+        <v>0.002016782760620117</v>
       </c>
       <c r="AI16" s="5" t="n">
-        <v>1543.387352913118</v>
+        <v>1159.483844332115</v>
       </c>
       <c r="AJ16" s="6" t="n">
-        <v>-0.3487977629305586</v>
+        <v>-0.510778372098366</v>
       </c>
       <c r="AK16" s="5" t="n">
-        <v>11902.74952402159</v>
+        <v>12447.32246512488</v>
       </c>
       <c r="AL16" s="5" t="n">
-        <v>10359.36217110847</v>
+        <v>11287.83862079276</v>
       </c>
       <c r="AM16" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN16" s="9" t="n">
-        <v>1.311302185058594e-05</v>
+        <v>1.049041748046875e-05</v>
       </c>
       <c r="AO16" s="11" t="n">
-        <v>1.311302185058594e-05</v>
+        <v>1.049041748046875e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2744,97 +2741,97 @@
         <v>7918.364085844306</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>796.2882200141727</v>
+        <v>806.5482074789049</v>
       </c>
       <c r="L17" s="6" t="n">
-        <v>-0.6640216927743199</v>
+        <v>-0.6596926908703408</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13059.05376263174</v>
+        <v>12954.37148663378</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>12262.76554261757</v>
+        <v>12147.82327915487</v>
       </c>
       <c r="O17" s="7" t="n">
-        <v>1.59741735458374</v>
+        <v>1.616833925247192</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>0.001344919204711914</v>
+        <v>0.001374721527099609</v>
       </c>
       <c r="Q17" s="13" t="n">
-        <v>0.01946067810058594</v>
+        <v>0.0201103687286377</v>
       </c>
       <c r="R17" s="9" t="n">
-        <v>6.914138793945312e-05</v>
+        <v>4.053115844726562e-05</v>
       </c>
       <c r="S17" s="10" t="n">
-        <v>1.616878032684326</v>
+        <v>1.63694429397583</v>
       </c>
       <c r="T17" s="11" t="n">
-        <v>0.001414060592651367</v>
+        <v>0.001415252685546875</v>
       </c>
       <c r="U17" s="5" t="n">
-        <v>-16194.43577644131</v>
+        <v>3348.493879768893</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>-7.832926799478341</v>
+        <v>0.4128317827686555</v>
       </c>
       <c r="W17" s="5" t="n">
-        <v>12956.81207245064</v>
+        <v>8802.792267699673</v>
       </c>
       <c r="X17" s="5" t="n">
-        <v>29151.24784889195</v>
+        <v>5454.29838793078</v>
       </c>
       <c r="Y17" s="8" t="n">
-        <v>8.535385131835938e-05</v>
+        <v>8.559226989746094e-05</v>
       </c>
       <c r="Z17" s="9" t="n">
-        <v>0.0007271766662597656</v>
+        <v>0.0005807876586914062</v>
       </c>
       <c r="AA17" s="11" t="n">
-        <v>0.000812530517578125</v>
+        <v>0.0006663799285888672</v>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>650.8516084716898</v>
+        <v>602.2919753441377</v>
       </c>
       <c r="AC17" s="6" t="n">
-        <v>-0.7253858387286735</v>
+        <v>-0.745874630258711</v>
       </c>
       <c r="AD17" s="5" t="n">
-        <v>13106.37695588069</v>
+        <v>13167.45390443387</v>
       </c>
       <c r="AE17" s="5" t="n">
-        <v>12455.525347409</v>
+        <v>12565.16192908973</v>
       </c>
       <c r="AF17" s="8" t="n">
-        <v>0.001957178115844727</v>
+        <v>0.00191950798034668</v>
       </c>
       <c r="AG17" s="9" t="n">
-        <v>6.103515625e-05</v>
+        <v>5.769729614257812e-05</v>
       </c>
       <c r="AH17" s="11" t="n">
-        <v>0.002018213272094727</v>
+        <v>0.001977205276489258</v>
       </c>
       <c r="AI17" s="5" t="n">
-        <v>-290.1906744804229</v>
+        <v>346.6182726097946</v>
       </c>
       <c r="AJ17" s="6" t="n">
-        <v>-1.122440303817223</v>
+        <v>-0.8537511700438626</v>
       </c>
       <c r="AK17" s="5" t="n">
-        <v>13840.66036351913</v>
+        <v>13375.99158349773</v>
       </c>
       <c r="AL17" s="5" t="n">
-        <v>14130.85103799955</v>
+        <v>13029.37331088794</v>
       </c>
       <c r="AM17" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN17" s="9" t="n">
-        <v>1.072883605957031e-05</v>
+        <v>1.192092895507812e-05</v>
       </c>
       <c r="AO17" s="11" t="n">
-        <v>1.072883605957031e-05</v>
+        <v>1.192092895507812e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2873,88 +2870,88 @@
         <v>6782.90440543974</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>787.879702861875</v>
+        <v>735.783007106013</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>-0.6389943372758251</v>
+        <v>-0.6628649892405476</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10906.71627565953</v>
+        <v>10927.87817555103</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>10118.83657279766</v>
+        <v>10192.09516844502</v>
       </c>
       <c r="O18" s="7" t="n">
-        <v>1.603611469268799</v>
+        <v>1.621637582778931</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>0.001390218734741211</v>
+        <v>0.001435279846191406</v>
       </c>
       <c r="Q18" s="13" t="n">
-        <v>0.02019357681274414</v>
+        <v>0.02064728736877441</v>
       </c>
       <c r="R18" s="9" t="n">
-        <v>4.243850708007812e-05</v>
+        <v>4.506111145019531e-05</v>
       </c>
       <c r="S18" s="10" t="n">
-        <v>1.623805046081543</v>
+        <v>1.642284870147705</v>
       </c>
       <c r="T18" s="11" t="n">
-        <v>0.001432657241821289</v>
+        <v>0.001480340957641602</v>
       </c>
       <c r="U18" s="5" t="n">
-        <v>-2972.184077707092</v>
+        <v>2815.371329048493</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>-2.361851661888788</v>
+        <v>0.2900002230873225</v>
       </c>
       <c r="W18" s="5" t="n">
-        <v>9756.765000991683</v>
+        <v>7480.302677188167</v>
       </c>
       <c r="X18" s="5" t="n">
-        <v>12728.94907869877</v>
+        <v>4664.931348139671</v>
       </c>
       <c r="Y18" s="8" t="n">
-        <v>8.177757263183594e-05</v>
+        <v>7.677078247070312e-05</v>
       </c>
       <c r="Z18" s="9" t="n">
-        <v>0.0007269382476806641</v>
+        <v>0.0006136894226074219</v>
       </c>
       <c r="AA18" s="11" t="n">
-        <v>0.0008087158203125</v>
+        <v>0.000690460205078125</v>
       </c>
       <c r="AB18" s="5" t="n">
-        <v>846.5845318768363</v>
+        <v>721.4285530408029</v>
       </c>
       <c r="AC18" s="6" t="n">
-        <v>-0.612095845505222</v>
+        <v>-0.669442185205911</v>
       </c>
       <c r="AD18" s="5" t="n">
-        <v>10905.91150477057</v>
+        <v>11024.77289243502</v>
       </c>
       <c r="AE18" s="5" t="n">
-        <v>10059.32697289374</v>
+        <v>10303.34433939422</v>
       </c>
       <c r="AF18" s="8" t="n">
-        <v>0.001823902130126953</v>
+        <v>0.001776695251464844</v>
       </c>
       <c r="AG18" s="9" t="n">
-        <v>5.865097045898438e-05</v>
+        <v>5.936622619628906e-05</v>
       </c>
       <c r="AH18" s="11" t="n">
-        <v>0.001882553100585938</v>
+        <v>0.001836061477661133</v>
       </c>
       <c r="AI18" s="5" t="n">
-        <v>465.6626600897758</v>
+        <v>752.0000951816795</v>
       </c>
       <c r="AJ18" s="6" t="n">
-        <v>-0.7866338520957141</v>
+        <v>-0.655434336303371</v>
       </c>
       <c r="AK18" s="5" t="n">
-        <v>11241.91457184059</v>
+        <v>10775.24731409452</v>
       </c>
       <c r="AL18" s="5" t="n">
-        <v>10776.25191175081</v>
+        <v>10023.24721891284</v>
       </c>
       <c r="AM18" s="12" t="n">
         <v>0</v>
@@ -3002,97 +2999,97 @@
         <v>6782.90440543974</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>594.3274084018572</v>
+        <v>713.2032428082564</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>-0.7276797978601208</v>
+        <v>-0.6732110138238161</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11154.02584685041</v>
+        <v>11034.70807616525</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>10559.69843844855</v>
+        <v>10321.50483335699</v>
       </c>
       <c r="O19" s="7" t="n">
-        <v>1.603611469268799</v>
+        <v>1.621637582778931</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>0.001367807388305664</v>
+        <v>0.001555681228637695</v>
       </c>
       <c r="Q19" s="13" t="n">
-        <v>0.02021408081054688</v>
+        <v>0.01995420455932617</v>
       </c>
       <c r="R19" s="9" t="n">
-        <v>4.744529724121094e-05</v>
+        <v>5.221366882324219e-05</v>
       </c>
       <c r="S19" s="10" t="n">
-        <v>1.623825550079346</v>
+        <v>1.641591787338257</v>
       </c>
       <c r="T19" s="11" t="n">
-        <v>0.001415252685546875</v>
+        <v>0.001607894897460938</v>
       </c>
       <c r="U19" s="5" t="n">
-        <v>1019.601519312122</v>
+        <v>2237.325067448868</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>-0.5328196413020463</v>
+        <v>0.02514002552669517</v>
       </c>
       <c r="W19" s="5" t="n">
-        <v>9877.421973274055</v>
+        <v>8972.364814762426</v>
       </c>
       <c r="X19" s="5" t="n">
-        <v>8857.820453961931</v>
+        <v>6735.039747313556</v>
       </c>
       <c r="Y19" s="8" t="n">
-        <v>0.0001766681671142578</v>
+        <v>0.0001757144927978516</v>
       </c>
       <c r="Z19" s="9" t="n">
-        <v>0.0008857250213623047</v>
+        <v>0.0009632110595703125</v>
       </c>
       <c r="AA19" s="11" t="n">
-        <v>0.001062393188476562</v>
+        <v>0.001138925552368164</v>
       </c>
       <c r="AB19" s="5" t="n">
-        <v>734.1992198120954</v>
+        <v>652.0422158367792</v>
       </c>
       <c r="AC19" s="6" t="n">
-        <v>-0.6635906789360404</v>
+        <v>-0.7012349329507187</v>
       </c>
       <c r="AD19" s="5" t="n">
-        <v>11030.24237425026</v>
+        <v>11093.53087547721</v>
       </c>
       <c r="AE19" s="5" t="n">
-        <v>10296.04315443816</v>
+        <v>10441.48865964043</v>
       </c>
       <c r="AF19" s="8" t="n">
-        <v>0.001802444458007812</v>
+        <v>0.001768589019775391</v>
       </c>
       <c r="AG19" s="9" t="n">
-        <v>5.435943603515625e-05</v>
+        <v>5.459785461425781e-05</v>
       </c>
       <c r="AH19" s="11" t="n">
-        <v>0.001856803894042969</v>
+        <v>0.001823186874389648</v>
       </c>
       <c r="AI19" s="5" t="n">
-        <v>151.1089546498133</v>
+        <v>169.9204082039626</v>
       </c>
       <c r="AJ19" s="6" t="n">
-        <v>-0.9307620336978314</v>
+        <v>-0.9221426451890868</v>
       </c>
       <c r="AK19" s="5" t="n">
-        <v>11404.48393920065</v>
+        <v>11186.08080563334</v>
       </c>
       <c r="AL19" s="5" t="n">
-        <v>11253.37498455084</v>
+        <v>11016.16039742938</v>
       </c>
       <c r="AM19" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN19" s="9" t="n">
-        <v>1.120567321777344e-05</v>
+        <v>1.1444091796875e-05</v>
       </c>
       <c r="AO19" s="11" t="n">
-        <v>1.120567321777344e-05</v>
+        <v>1.1444091796875e-05</v>
       </c>
     </row>
     <row r="20">
@@ -3131,97 +3128,97 @@
         <v>8883.987894831815</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1032.66192701815</v>
+        <v>1034.969750756135</v>
       </c>
       <c r="L20" s="6" t="n">
-        <v>-0.4940453773712014</v>
+        <v>-0.492914654858929</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12600.66326710442</v>
+        <v>12564.12258435704</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>11568.00134008626</v>
+        <v>11529.1528336009</v>
       </c>
       <c r="O20" s="7" t="n">
-        <v>1.618867874145508</v>
+        <v>1.617028713226318</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>0.001463413238525391</v>
+        <v>0.001418590545654297</v>
       </c>
       <c r="Q20" s="13" t="n">
-        <v>0.02067995071411133</v>
+        <v>0.02064132690429688</v>
       </c>
       <c r="R20" s="9" t="n">
-        <v>3.933906555175781e-05</v>
+        <v>3.862380981445312e-05</v>
       </c>
       <c r="S20" s="10" t="n">
-        <v>1.639547824859619</v>
+        <v>1.637670040130615</v>
       </c>
       <c r="T20" s="11" t="n">
-        <v>0.001502752304077148</v>
+        <v>0.00145721435546875</v>
       </c>
       <c r="U20" s="5" t="n">
-        <v>-31519.72613290424</v>
+        <v>2713.123433184582</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>-16.44314816271556</v>
+        <v>0.3292998481565292</v>
       </c>
       <c r="W20" s="5" t="n">
-        <v>12419.23050295507</v>
+        <v>3565.121147350303</v>
       </c>
       <c r="X20" s="5" t="n">
-        <v>43938.95663585932</v>
+        <v>851.9977141657209</v>
       </c>
       <c r="Y20" s="8" t="n">
-        <v>4.649162292480469e-05</v>
+        <v>4.863739013671875e-05</v>
       </c>
       <c r="Z20" s="9" t="n">
-        <v>0.0006642341613769531</v>
+        <v>0.0004014968872070312</v>
       </c>
       <c r="AA20" s="11" t="n">
-        <v>0.0007107257843017578</v>
+        <v>0.00045013427734375</v>
       </c>
       <c r="AB20" s="5" t="n">
-        <v>1108.457545187467</v>
+        <v>1001.252889527854</v>
       </c>
       <c r="AC20" s="6" t="n">
-        <v>-0.4569091739493245</v>
+        <v>-0.5094342934285829</v>
       </c>
       <c r="AD20" s="5" t="n">
-        <v>12407.21090082079</v>
+        <v>12543.70990710938</v>
       </c>
       <c r="AE20" s="5" t="n">
-        <v>11298.75335563332</v>
+        <v>11542.45701758152</v>
       </c>
       <c r="AF20" s="8" t="n">
-        <v>0.0021820068359375</v>
+        <v>0.00216984748840332</v>
       </c>
       <c r="AG20" s="9" t="n">
         <v>7.700920104980469e-05</v>
       </c>
       <c r="AH20" s="11" t="n">
-        <v>0.002259016036987305</v>
+        <v>0.002246856689453125</v>
       </c>
       <c r="AI20" s="5" t="n">
-        <v>592.6203137973121</v>
+        <v>160.0854466667089</v>
       </c>
       <c r="AJ20" s="6" t="n">
-        <v>-0.7096445802981469</v>
+        <v>-0.9215658390829841</v>
       </c>
       <c r="AK20" s="5" t="n">
-        <v>12818.22124284275</v>
+        <v>13081.60525964436</v>
       </c>
       <c r="AL20" s="5" t="n">
-        <v>12225.60092904543</v>
+        <v>12921.51981297765</v>
       </c>
       <c r="AM20" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN20" s="9" t="n">
-        <v>1.049041748046875e-05</v>
+        <v>1.120567321777344e-05</v>
       </c>
       <c r="AO20" s="11" t="n">
-        <v>1.049041748046875e-05</v>
+        <v>1.120567321777344e-05</v>
       </c>
     </row>
     <row r="21">
@@ -3260,97 +3257,97 @@
         <v>8883.987894831815</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>1084.877240739378</v>
+        <v>868.8742310601946</v>
       </c>
       <c r="L21" s="6" t="n">
-        <v>-0.4684623877614721</v>
+        <v>-0.574293462181431</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12554.79060958385</v>
+        <v>12802.32111324311</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>11469.91336884447</v>
+        <v>11933.44688218291</v>
       </c>
       <c r="O21" s="7" t="n">
-        <v>1.618867874145508</v>
+        <v>1.617028713226318</v>
       </c>
       <c r="P21" s="8" t="n">
-        <v>0.001422882080078125</v>
+        <v>0.001434803009033203</v>
       </c>
       <c r="Q21" s="13" t="n">
-        <v>0.01938700675964355</v>
+        <v>0.01988768577575684</v>
       </c>
       <c r="R21" s="9" t="n">
-        <v>4.291534423828125e-05</v>
+        <v>4.243850708007812e-05</v>
       </c>
       <c r="S21" s="10" t="n">
-        <v>1.638254880905151</v>
+        <v>1.636916399002075</v>
       </c>
       <c r="T21" s="11" t="n">
-        <v>0.001465797424316406</v>
+        <v>0.001477241516113281</v>
       </c>
       <c r="U21" s="5" t="n">
-        <v>-1104.620704264737</v>
+        <v>3093.338768105104</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>-1.541210958738483</v>
+        <v>0.5155870552901121</v>
       </c>
       <c r="W21" s="5" t="n">
-        <v>12442.66713988149</v>
+        <v>9267.88307081924</v>
       </c>
       <c r="X21" s="5" t="n">
-        <v>13547.28784414622</v>
+        <v>6174.544302714135</v>
       </c>
       <c r="Y21" s="8" t="n">
-        <v>0.0001285076141357422</v>
+        <v>0.0001478195190429688</v>
       </c>
       <c r="Z21" s="9" t="n">
-        <v>0.0008604526519775391</v>
+        <v>0.0007140636444091797</v>
       </c>
       <c r="AA21" s="11" t="n">
-        <v>0.0009889602661132812</v>
+        <v>0.0008618831634521484</v>
       </c>
       <c r="AB21" s="5" t="n">
-        <v>1063.379682545025</v>
+        <v>1122.507190620175</v>
       </c>
       <c r="AC21" s="6" t="n">
-        <v>-0.4789951561913801</v>
+        <v>-0.4500255241632805</v>
       </c>
       <c r="AD21" s="5" t="n">
-        <v>12435.47919350621</v>
+        <v>12382.01335776086</v>
       </c>
       <c r="AE21" s="5" t="n">
-        <v>11372.09951096119</v>
+        <v>11259.50616714069</v>
       </c>
       <c r="AF21" s="8" t="n">
-        <v>0.002160310745239258</v>
+        <v>0.002198457717895508</v>
       </c>
       <c r="AG21" s="9" t="n">
-        <v>7.128715515136719e-05</v>
+        <v>7.462501525878906e-05</v>
       </c>
       <c r="AH21" s="11" t="n">
-        <v>0.002231597900390625</v>
+        <v>0.002273082733154297</v>
       </c>
       <c r="AI21" s="5" t="n">
-        <v>341.8823562414987</v>
+        <v>670.6188211751955</v>
       </c>
       <c r="AJ21" s="6" t="n">
-        <v>-0.8324941067256256</v>
+        <v>-0.6714290672309232</v>
       </c>
       <c r="AK21" s="5" t="n">
-        <v>12330.95401186799</v>
+        <v>12745.85377065487</v>
       </c>
       <c r="AL21" s="5" t="n">
-        <v>11989.07165562649</v>
+        <v>12075.23494947968</v>
       </c>
       <c r="AM21" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN21" s="9" t="n">
-        <v>1.120567321777344e-05</v>
+        <v>1.1444091796875e-05</v>
       </c>
       <c r="AO21" s="11" t="n">
-        <v>1.120567321777344e-05</v>
+        <v>1.1444091796875e-05</v>
       </c>
     </row>
     <row r="22">
@@ -3389,97 +3386,97 @@
         <v>21229.01022693959</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>804.5331841536535</v>
+        <v>975.3868838363984</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>-0.7508938572453072</v>
+        <v>-0.6979927377618269</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28001.98351207075</v>
+        <v>27832.20079651686</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>27197.4503279171</v>
+        <v>26856.81391268046</v>
       </c>
       <c r="O22" s="7" t="n">
-        <v>1.604074478149414</v>
+        <v>1.60486626625061</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>0.001440048217773438</v>
+        <v>0.001463413238525391</v>
       </c>
       <c r="Q22" s="13" t="n">
-        <v>0.05068325996398926</v>
+        <v>0.05225324630737305</v>
       </c>
       <c r="R22" s="9" t="n">
-        <v>5.388259887695312e-05</v>
+        <v>5.030632019042969e-05</v>
       </c>
       <c r="S22" s="10" t="n">
-        <v>1.654757738113403</v>
+        <v>1.657119512557983</v>
       </c>
       <c r="T22" s="11" t="n">
-        <v>0.001493930816650391</v>
+        <v>0.00151371955871582</v>
       </c>
       <c r="U22" s="5" t="n">
-        <v>-123658.9170303232</v>
+        <v>3564.644424866228</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>-39.28828498982494</v>
+        <v>0.10371435319299</v>
       </c>
       <c r="W22" s="5" t="n">
-        <v>33075.41863186203</v>
+        <v>4056.666930198745</v>
       </c>
       <c r="X22" s="5" t="n">
-        <v>156734.3356621853</v>
+        <v>492.0225053325177</v>
       </c>
       <c r="Y22" s="8" t="n">
-        <v>7.748603820800781e-05</v>
+        <v>8.416175842285156e-05</v>
       </c>
       <c r="Z22" s="9" t="n">
-        <v>0.001667976379394531</v>
+        <v>0.0005202293395996094</v>
       </c>
       <c r="AA22" s="11" t="n">
-        <v>0.001745462417602539</v>
+        <v>0.0006043910980224609</v>
       </c>
       <c r="AB22" s="5" t="n">
-        <v>1239.515511340125</v>
+        <v>1153.692061862337</v>
       </c>
       <c r="AC22" s="6" t="n">
-        <v>-0.6162110724626384</v>
+        <v>-0.6427844306266082</v>
       </c>
       <c r="AD22" s="5" t="n">
-        <v>27590.5811359681</v>
+        <v>27643.36625958855</v>
       </c>
       <c r="AE22" s="5" t="n">
-        <v>26351.06562462797</v>
+        <v>26489.67419772621</v>
       </c>
       <c r="AF22" s="8" t="n">
-        <v>0.00204777717590332</v>
+        <v>0.00205230712890625</v>
       </c>
       <c r="AG22" s="9" t="n">
-        <v>0.0001049041748046875</v>
+        <v>0.0001065731048583984</v>
       </c>
       <c r="AH22" s="11" t="n">
-        <v>0.002152681350708008</v>
+        <v>0.002158880233764648</v>
       </c>
       <c r="AI22" s="5" t="n">
-        <v>447.5045702086217</v>
+        <v>180.0186440855045</v>
       </c>
       <c r="AJ22" s="6" t="n">
-        <v>-0.8614399759445147</v>
+        <v>-0.9442611554932389</v>
       </c>
       <c r="AK22" s="5" t="n">
-        <v>28153.90865170023</v>
+        <v>27749.155554252</v>
       </c>
       <c r="AL22" s="5" t="n">
-        <v>27706.4040814916</v>
+        <v>27569.1369101665</v>
       </c>
       <c r="AM22" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN22" s="9" t="n">
-        <v>3.24249267578125e-05</v>
+        <v>2.551078796386719e-05</v>
       </c>
       <c r="AO22" s="11" t="n">
-        <v>3.24249267578125e-05</v>
+        <v>2.551078796386719e-05</v>
       </c>
     </row>
     <row r="23">
@@ -3518,97 +3515,97 @@
         <v>21229.01022693959</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1232.938857976879</v>
+        <v>896.0511784321723</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>-0.6182473896510665</v>
+        <v>-0.7225573075586085</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27569.75826261693</v>
+        <v>27890.48827482841</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>26336.81940464006</v>
+        <v>26994.43709639624</v>
       </c>
       <c r="O23" s="7" t="n">
-        <v>1.604074478149414</v>
+        <v>1.60486626625061</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>0.001509428024291992</v>
+        <v>0.001445770263671875</v>
       </c>
       <c r="Q23" s="13" t="n">
-        <v>0.05093193054199219</v>
+        <v>0.04926657676696777</v>
       </c>
       <c r="R23" s="9" t="n">
-        <v>5.793571472167969e-05</v>
+        <v>5.602836608886719e-05</v>
       </c>
       <c r="S23" s="10" t="n">
-        <v>1.655006408691406</v>
+        <v>1.654132843017578</v>
       </c>
       <c r="T23" s="11" t="n">
-        <v>0.001567363739013672</v>
+        <v>0.001501798629760742</v>
       </c>
       <c r="U23" s="5" t="n">
-        <v>-155389.8401518789</v>
+        <v>4317.190558727447</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>-49.11307285506584</v>
+        <v>0.3367238403632821</v>
       </c>
       <c r="W23" s="5" t="n">
-        <v>32752.36379573835</v>
+        <v>5083.321475547782</v>
       </c>
       <c r="X23" s="5" t="n">
-        <v>188142.2039476171</v>
+        <v>766.1309168203344</v>
       </c>
       <c r="Y23" s="8" t="n">
-        <v>0.0001502037048339844</v>
+        <v>0.0001528263092041016</v>
       </c>
       <c r="Z23" s="9" t="n">
-        <v>0.002025365829467773</v>
+        <v>0.0006191730499267578</v>
       </c>
       <c r="AA23" s="11" t="n">
-        <v>0.002175569534301758</v>
+        <v>0.0007719993591308594</v>
       </c>
       <c r="AB23" s="5" t="n">
-        <v>1067.504863005063</v>
+        <v>1274.819511549142</v>
       </c>
       <c r="AC23" s="6" t="n">
-        <v>-0.6694704158476562</v>
+        <v>-0.605279959254262</v>
       </c>
       <c r="AD23" s="5" t="n">
-        <v>27746.95610089177</v>
+        <v>27519.93899113803</v>
       </c>
       <c r="AE23" s="5" t="n">
-        <v>26679.4512378867</v>
+        <v>26245.11947958888</v>
       </c>
       <c r="AF23" s="8" t="n">
-        <v>0.002067804336547852</v>
+        <v>0.002029657363891602</v>
       </c>
       <c r="AG23" s="9" t="n">
         <v>9.846687316894531e-05</v>
       </c>
       <c r="AH23" s="11" t="n">
-        <v>0.002166271209716797</v>
+        <v>0.002128124237060547</v>
       </c>
       <c r="AI23" s="5" t="n">
-        <v>577.0231436917888</v>
+        <v>667.3251102356886</v>
       </c>
       <c r="AJ23" s="6" t="n">
-        <v>-0.8213373762121958</v>
+        <v>-0.7933773429755581</v>
       </c>
       <c r="AK23" s="5" t="n">
-        <v>27624.90157454496</v>
+        <v>28070.31214952013</v>
       </c>
       <c r="AL23" s="5" t="n">
-        <v>27047.87843085316</v>
+        <v>27402.98703928444</v>
       </c>
       <c r="AM23" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN23" s="9" t="n">
-        <v>2.050399780273438e-05</v>
+        <v>2.145767211914062e-05</v>
       </c>
       <c r="AO23" s="11" t="n">
-        <v>2.050399780273438e-05</v>
+        <v>2.145767211914062e-05</v>
       </c>
     </row>
     <row r="24">
@@ -3647,97 +3644,97 @@
         <v>23548.40607922095</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1073.428749391331</v>
+        <v>589.5237889955466</v>
       </c>
       <c r="L24" s="6" t="n">
-        <v>-0.6802875050240743</v>
+        <v>-0.8244148747326726</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>30601.54768770223</v>
+        <v>31082.83047442959</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>29528.11893831089</v>
+        <v>30493.30668543406</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>1.599530696868896</v>
+        <v>1.595189332962036</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>0.001648187637329102</v>
+        <v>0.001444339752197266</v>
       </c>
       <c r="Q24" s="13" t="n">
-        <v>0.04981327056884766</v>
+        <v>0.05123233795166016</v>
       </c>
       <c r="R24" s="9" t="n">
-        <v>5.14984130859375e-05</v>
+        <v>5.91278076171875e-05</v>
       </c>
       <c r="S24" s="10" t="n">
-        <v>1.649343967437744</v>
+        <v>1.646421670913696</v>
       </c>
       <c r="T24" s="11" t="n">
-        <v>0.001699686050415039</v>
+        <v>0.001503467559814453</v>
       </c>
       <c r="U24" s="5" t="n">
-        <v>-137275.6487379813</v>
+        <v>6494.397642827252</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>-41.88649589676553</v>
+        <v>0.9343063756503861</v>
       </c>
       <c r="W24" s="5" t="n">
-        <v>29457.6532496169</v>
+        <v>8771.930588154955</v>
       </c>
       <c r="X24" s="5" t="n">
-        <v>166733.3019875984</v>
+        <v>2277.532945327702</v>
       </c>
       <c r="Y24" s="8" t="n">
-        <v>7.700920104980469e-05</v>
+        <v>7.677078247070312e-05</v>
       </c>
       <c r="Z24" s="9" t="n">
-        <v>0.001845836639404297</v>
+        <v>0.0006456375122070312</v>
       </c>
       <c r="AA24" s="11" t="n">
-        <v>0.001922845840454102</v>
+        <v>0.0007224082946777344</v>
       </c>
       <c r="AB24" s="5" t="n">
-        <v>1003.990045181132</v>
+        <v>900.717227634763</v>
       </c>
       <c r="AC24" s="6" t="n">
-        <v>-0.7009692888718857</v>
+        <v>-0.7317283030865369</v>
       </c>
       <c r="AD24" s="5" t="n">
-        <v>30693.23303425132</v>
+        <v>30791.89185304249</v>
       </c>
       <c r="AE24" s="5" t="n">
-        <v>29689.24298907019</v>
+        <v>29891.17462540772</v>
       </c>
       <c r="AF24" s="8" t="n">
-        <v>0.002178430557250977</v>
+        <v>0.002220630645751953</v>
       </c>
       <c r="AG24" s="9" t="n">
-        <v>0.0001149177551269531</v>
+        <v>0.0001125335693359375</v>
       </c>
       <c r="AH24" s="11" t="n">
-        <v>0.00229334831237793</v>
+        <v>0.002333164215087891</v>
       </c>
       <c r="AI24" s="5" t="n">
-        <v>25.46633346365616</v>
+        <v>6.28957998801809</v>
       </c>
       <c r="AJ24" s="6" t="n">
-        <v>-0.9924150484937438</v>
+        <v>-0.9981266969871451</v>
       </c>
       <c r="AK24" s="5" t="n">
-        <v>30852.65708100517</v>
+        <v>31190.91454258714</v>
       </c>
       <c r="AL24" s="5" t="n">
-        <v>30827.19074754152</v>
+        <v>31184.62496259913</v>
       </c>
       <c r="AM24" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN24" s="9" t="n">
-        <v>1.978874206542969e-05</v>
+        <v>1.931190490722656e-05</v>
       </c>
       <c r="AO24" s="11" t="n">
-        <v>1.978874206542969e-05</v>
+        <v>1.931190490722656e-05</v>
       </c>
     </row>
     <row r="25">
@@ -3776,97 +3773,97 @@
         <v>23548.40607922095</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>890.47248269094</v>
+        <v>894.9823121553383</v>
       </c>
       <c r="L25" s="6" t="n">
-        <v>-0.7347796215538677</v>
+        <v>-0.7334364035426152</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30795.52897123037</v>
+        <v>30789.635786254</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>29905.05648853943</v>
+        <v>29894.65347409866</v>
       </c>
       <c r="O25" s="7" t="n">
-        <v>1.599530696868896</v>
+        <v>1.595189332962036</v>
       </c>
       <c r="P25" s="8" t="n">
-        <v>0.001443862915039062</v>
+        <v>0.001448392868041992</v>
       </c>
       <c r="Q25" s="13" t="n">
-        <v>0.05107235908508301</v>
+        <v>0.05092453956604004</v>
       </c>
       <c r="R25" s="9" t="n">
-        <v>6.079673767089844e-05</v>
+        <v>6.031990051269531e-05</v>
       </c>
       <c r="S25" s="10" t="n">
-        <v>1.650603055953979</v>
+        <v>1.646113872528076</v>
       </c>
       <c r="T25" s="11" t="n">
-        <v>0.001504659652709961</v>
-      </c>
-      <c r="U25" s="14" t="n">
-        <v>0</v>
+        <v>0.001508712768554688</v>
+      </c>
+      <c r="U25" s="5" t="n">
+        <v>4551.267747116733</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="16" t="n">
-        <v>0</v>
+        <v>0.3555600849699981</v>
+      </c>
+      <c r="W25" s="5" t="n">
+        <v>5326.063866183009</v>
+      </c>
+      <c r="X25" s="5" t="n">
+        <v>774.796119066277</v>
+      </c>
+      <c r="Y25" s="8" t="n">
+        <v>0.0002052783966064453</v>
+      </c>
+      <c r="Z25" s="9" t="n">
+        <v>0.0005753040313720703</v>
+      </c>
+      <c r="AA25" s="11" t="n">
+        <v>0.0007805824279785156</v>
       </c>
       <c r="AB25" s="5" t="n">
-        <v>659.7231491673366</v>
+        <v>827.2799692819758</v>
       </c>
       <c r="AC25" s="6" t="n">
-        <v>-0.8035065353585289</v>
+        <v>-0.7536010255243087</v>
       </c>
       <c r="AD25" s="5" t="n">
-        <v>31021.91547966684</v>
+        <v>30867.07645906488</v>
       </c>
       <c r="AE25" s="5" t="n">
-        <v>30362.19233049949</v>
+        <v>30039.79648978289</v>
       </c>
       <c r="AF25" s="8" t="n">
-        <v>0.002227067947387695</v>
+        <v>0.002333402633666992</v>
       </c>
       <c r="AG25" s="9" t="n">
-        <v>0.0001094341278076172</v>
+        <v>0.0001199245452880859</v>
       </c>
       <c r="AH25" s="11" t="n">
-        <v>0.002336502075195312</v>
+        <v>0.002453327178955078</v>
       </c>
       <c r="AI25" s="5" t="n">
-        <v>900.1547547083018</v>
+        <v>989.1183216751378</v>
       </c>
       <c r="AJ25" s="6" t="n">
-        <v>-0.7318958313205042</v>
+        <v>-0.7053987173079971</v>
       </c>
       <c r="AK25" s="5" t="n">
-        <v>30595.96259003345</v>
+        <v>30593.54103612863</v>
       </c>
       <c r="AL25" s="5" t="n">
-        <v>29695.80783532513</v>
+        <v>29604.4227144535</v>
       </c>
       <c r="AM25" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN25" s="9" t="n">
-        <v>2.551078796386719e-05</v>
+        <v>2.717971801757812e-05</v>
       </c>
       <c r="AO25" s="11" t="n">
-        <v>2.551078796386719e-05</v>
+        <v>2.717971801757812e-05</v>
       </c>
     </row>
     <row r="26">
@@ -3905,97 +3902,97 @@
         <v>22090.46845578296</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>1245.701350711974</v>
+        <v>1007.34043688669</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>-0.7073913366816815</v>
+        <v>-0.7633810555190946</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31956.18829905809</v>
+        <v>32234.3314697637</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>30710.48694834611</v>
+        <v>31226.991032877</v>
       </c>
       <c r="O26" s="7" t="n">
-        <v>1.598303556442261</v>
+        <v>1.61205792427063</v>
       </c>
       <c r="P26" s="8" t="n">
-        <v>0.001713037490844727</v>
+        <v>0.001615524291992188</v>
       </c>
       <c r="Q26" s="13" t="n">
-        <v>0.05027079582214355</v>
+        <v>0.04979777336120605</v>
       </c>
       <c r="R26" s="9" t="n">
-        <v>5.769729614257812e-05</v>
+        <v>8.177757263183594e-05</v>
       </c>
       <c r="S26" s="10" t="n">
-        <v>1.648574352264404</v>
+        <v>1.661855697631836</v>
       </c>
       <c r="T26" s="11" t="n">
-        <v>0.001770734786987305</v>
+        <v>0.001697301864624023</v>
       </c>
       <c r="U26" s="5" t="n">
-        <v>-110724.6416943985</v>
+        <v>7138.420037516471</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>-27.00863311585897</v>
+        <v>0.6767771377855331</v>
       </c>
       <c r="W26" s="5" t="n">
-        <v>31235.43797491529</v>
+        <v>10012.7076384704</v>
       </c>
       <c r="X26" s="5" t="n">
-        <v>141960.0796693138</v>
+        <v>2874.287600953935</v>
       </c>
       <c r="Y26" s="8" t="n">
-        <v>7.319450378417969e-05</v>
+        <v>7.534027099609375e-05</v>
       </c>
       <c r="Z26" s="9" t="n">
-        <v>0.002278804779052734</v>
+        <v>0.0006909370422363281</v>
       </c>
       <c r="AA26" s="11" t="n">
-        <v>0.002351999282836914</v>
+        <v>0.0007662773132324219</v>
       </c>
       <c r="AB26" s="5" t="n">
-        <v>642.4042896874887</v>
+        <v>857.5204651145471</v>
       </c>
       <c r="AC26" s="6" t="n">
-        <v>-0.8491026276820082</v>
+        <v>-0.7985729750378294</v>
       </c>
       <c r="AD26" s="5" t="n">
-        <v>32598.64662876293</v>
+        <v>32400.6221919443</v>
       </c>
       <c r="AE26" s="5" t="n">
-        <v>31956.24233907544</v>
+        <v>31543.10172682976</v>
       </c>
       <c r="AF26" s="8" t="n">
-        <v>0.00194096565246582</v>
+        <v>0.001934528350830078</v>
       </c>
       <c r="AG26" s="9" t="n">
-        <v>9.465217590332031e-05</v>
+        <v>9.226799011230469e-05</v>
       </c>
       <c r="AH26" s="11" t="n">
-        <v>0.002035617828369141</v>
+        <v>0.002026796340942383</v>
       </c>
       <c r="AI26" s="5" t="n">
-        <v>650.4410623720504</v>
+        <v>575.5203195751366</v>
       </c>
       <c r="AJ26" s="6" t="n">
-        <v>-0.8472148322555372</v>
+        <v>-0.8648133187564075</v>
       </c>
       <c r="AK26" s="5" t="n">
-        <v>32362.26263809778</v>
+        <v>32095.5463326576</v>
       </c>
       <c r="AL26" s="5" t="n">
-        <v>31711.82157572574</v>
+        <v>31520.02601308246</v>
       </c>
       <c r="AM26" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN26" s="9" t="n">
-        <v>2.026557922363281e-05</v>
+        <v>1.931190490722656e-05</v>
       </c>
       <c r="AO26" s="11" t="n">
-        <v>2.026557922363281e-05</v>
+        <v>1.931190490722656e-05</v>
       </c>
     </row>
     <row r="27">
@@ -4034,97 +4031,97 @@
         <v>22090.46845578296</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>690.5430743270822</v>
+        <v>935.7283722352939</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>-0.8377950816003498</v>
+        <v>-0.7802023510110949</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>32528.16508563419</v>
+        <v>32300.026424073</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>31837.62201130711</v>
+        <v>31364.29805183771</v>
       </c>
       <c r="O27" s="7" t="n">
-        <v>1.598303556442261</v>
+        <v>1.61205792427063</v>
       </c>
       <c r="P27" s="8" t="n">
-        <v>0.001490592956542969</v>
+        <v>0.001542568206787109</v>
       </c>
       <c r="Q27" s="13" t="n">
-        <v>0.05100345611572266</v>
+        <v>0.04916930198669434</v>
       </c>
       <c r="R27" s="9" t="n">
-        <v>5.602836608886719e-05</v>
+        <v>5.53131103515625e-05</v>
       </c>
       <c r="S27" s="10" t="n">
-        <v>1.649307012557983</v>
+        <v>1.661227226257324</v>
       </c>
       <c r="T27" s="11" t="n">
-        <v>0.001546621322631836</v>
+        <v>0.001597881317138672</v>
       </c>
       <c r="U27" s="5" t="n">
-        <v>-214903.0826529629</v>
+        <v>6621.072912527361</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>-51.47959827781311</v>
+        <v>0.5552550324846774</v>
       </c>
       <c r="W27" s="5" t="n">
-        <v>33726.91109620544</v>
+        <v>8802.792267699673</v>
       </c>
       <c r="X27" s="5" t="n">
-        <v>248629.9937491684</v>
+        <v>2181.719355172312</v>
       </c>
       <c r="Y27" s="8" t="n">
-        <v>8.463859558105469e-05</v>
+        <v>8.630752563476562e-05</v>
       </c>
       <c r="Z27" s="9" t="n">
-        <v>0.001853227615356445</v>
+        <v>0.0006961822509765625</v>
       </c>
       <c r="AA27" s="11" t="n">
-        <v>0.0019378662109375</v>
+        <v>0.0007824897766113281</v>
       </c>
       <c r="AB27" s="5" t="n">
-        <v>835.1784473622981</v>
+        <v>677.6826068832025</v>
       </c>
       <c r="AC27" s="6" t="n">
-        <v>-0.8038209969225156</v>
+        <v>-0.8408159374308838</v>
       </c>
       <c r="AD27" s="5" t="n">
-        <v>32413.55317763554</v>
+        <v>32573.71020461858</v>
       </c>
       <c r="AE27" s="5" t="n">
-        <v>31578.37473027325</v>
+        <v>31896.02759773538</v>
       </c>
       <c r="AF27" s="8" t="n">
-        <v>0.002013921737670898</v>
+        <v>0.001985311508178711</v>
       </c>
       <c r="AG27" s="9" t="n">
-        <v>8.916854858398438e-05</v>
+        <v>9.036064147949219e-05</v>
       </c>
       <c r="AH27" s="11" t="n">
-        <v>0.002103090286254883</v>
+        <v>0.002075672149658203</v>
       </c>
       <c r="AI27" s="5" t="n">
-        <v>176.5670604148813</v>
+        <v>1016.075029070023</v>
       </c>
       <c r="AJ27" s="6" t="n">
-        <v>-0.9585253307267313</v>
+        <v>-0.7613293459805804</v>
       </c>
       <c r="AK27" s="5" t="n">
-        <v>32218.7375433368</v>
+        <v>32105.67032516047</v>
       </c>
       <c r="AL27" s="5" t="n">
-        <v>32042.17048292193</v>
+        <v>31089.59529609045</v>
       </c>
       <c r="AM27" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN27" s="9" t="n">
-        <v>2.09808349609375e-05</v>
+        <v>2.074241638183594e-05</v>
       </c>
       <c r="AO27" s="11" t="n">
-        <v>2.09808349609375e-05</v>
+        <v>2.074241638183594e-05</v>
       </c>
     </row>
     <row r="28">
@@ -4163,97 +4160,97 @@
         <v>18730.41616626691</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1212.508666668322</v>
+        <v>612.4493536100279</v>
       </c>
       <c r="L28" s="6" t="n">
-        <v>-0.6889313761770988</v>
+        <v>-0.8428763580616854</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>26802.88139136015</v>
+        <v>27419.30665435052</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>25590.37272469183</v>
+        <v>26806.8573007405</v>
       </c>
       <c r="O28" s="7" t="n">
-        <v>1.616104125976562</v>
+        <v>1.611212253570557</v>
       </c>
       <c r="P28" s="8" t="n">
-        <v>0.001410007476806641</v>
+        <v>0.00140380859375</v>
       </c>
       <c r="Q28" s="13" t="n">
-        <v>0.05037951469421387</v>
+        <v>0.04996538162231445</v>
       </c>
       <c r="R28" s="9" t="n">
-        <v>5.14984130859375e-05</v>
+        <v>5.054473876953125e-05</v>
       </c>
       <c r="S28" s="10" t="n">
-        <v>1.666483640670776</v>
+        <v>1.661177635192871</v>
       </c>
       <c r="T28" s="11" t="n">
-        <v>0.001461505889892578</v>
+        <v>0.001454353332519531</v>
       </c>
       <c r="U28" s="5" t="n">
-        <v>-25848.18352460292</v>
+        <v>5614.330137932297</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>-7.631341365512474</v>
+        <v>0.4403541992758163</v>
       </c>
       <c r="W28" s="5" t="n">
-        <v>24445.97507694625</v>
+        <v>7480.302677188167</v>
       </c>
       <c r="X28" s="5" t="n">
-        <v>50294.15860154919</v>
+        <v>1865.972539255869</v>
       </c>
       <c r="Y28" s="8" t="n">
-        <v>7.987022399902344e-05</v>
+        <v>7.772445678710938e-05</v>
       </c>
       <c r="Z28" s="9" t="n">
-        <v>0.0019073486328125</v>
+        <v>0.000675201416015625</v>
       </c>
       <c r="AA28" s="11" t="n">
-        <v>0.001987218856811523</v>
+        <v>0.0007529258728027344</v>
       </c>
       <c r="AB28" s="5" t="n">
-        <v>581.5240656535279</v>
+        <v>664.2155358858972</v>
       </c>
       <c r="AC28" s="6" t="n">
-        <v>-0.8508102285818759</v>
+        <v>-0.8295957642615875</v>
       </c>
       <c r="AD28" s="5" t="n">
-        <v>27465.27842137616</v>
+        <v>27382.03747079162</v>
       </c>
       <c r="AE28" s="5" t="n">
-        <v>26883.75435572263</v>
+        <v>26717.82193490573</v>
       </c>
       <c r="AF28" s="8" t="n">
-        <v>0.001873254776000977</v>
+        <v>0.001839160919189453</v>
       </c>
       <c r="AG28" s="9" t="n">
-        <v>9.465217590332031e-05</v>
+        <v>9.179115295410156e-05</v>
       </c>
       <c r="AH28" s="11" t="n">
-        <v>0.001967906951904297</v>
+        <v>0.001930952072143555</v>
       </c>
       <c r="AI28" s="5" t="n">
-        <v>422.0759946570384</v>
+        <v>931.8135189510742</v>
       </c>
       <c r="AJ28" s="6" t="n">
-        <v>-0.8917165687834524</v>
+        <v>-0.7609436064517835</v>
       </c>
       <c r="AK28" s="5" t="n">
-        <v>27206.85702656815</v>
+        <v>26934.48571469105</v>
       </c>
       <c r="AL28" s="5" t="n">
-        <v>26784.78103191111</v>
+        <v>26002.67219573999</v>
       </c>
       <c r="AM28" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN28" s="9" t="n">
-        <v>2.09808349609375e-05</v>
+        <v>3.099441528320312e-05</v>
       </c>
       <c r="AO28" s="11" t="n">
-        <v>2.09808349609375e-05</v>
+        <v>3.099441528320312e-05</v>
       </c>
     </row>
     <row r="29">
@@ -4292,97 +4289,97 @@
         <v>18730.41616626691</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>934.1896080889029</v>
+        <v>563.923410336677</v>
       </c>
       <c r="L29" s="6" t="n">
-        <v>-0.7603340217135435</v>
+        <v>-0.8553256698140099</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27110.94126855598</v>
+        <v>27399.4389679513</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>26176.75166046709</v>
+        <v>26835.51555761464</v>
       </c>
       <c r="O29" s="7" t="n">
-        <v>1.616104125976562</v>
+        <v>1.611212253570557</v>
       </c>
       <c r="P29" s="8" t="n">
-        <v>0.001426935195922852</v>
+        <v>0.001443624496459961</v>
       </c>
       <c r="Q29" s="13" t="n">
-        <v>0.0507361888885498</v>
+        <v>0.04886484146118164</v>
       </c>
       <c r="R29" s="9" t="n">
-        <v>5.91278076171875e-05</v>
+        <v>5.888938903808594e-05</v>
       </c>
       <c r="S29" s="10" t="n">
-        <v>1.666840314865112</v>
+        <v>1.660077095031738</v>
       </c>
       <c r="T29" s="11" t="n">
-        <v>0.001486063003540039</v>
+        <v>0.001502513885498047</v>
       </c>
       <c r="U29" s="5" t="n">
-        <v>-32749.25456793839</v>
+        <v>6087.932967066714</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>-9.401808440401977</v>
+        <v>0.5618568197084466</v>
       </c>
       <c r="W29" s="5" t="n">
-        <v>25217.67395741622</v>
+        <v>8511.189854378443</v>
       </c>
       <c r="X29" s="5" t="n">
-        <v>57966.9285253546</v>
+        <v>2423.256887311731</v>
       </c>
       <c r="Y29" s="8" t="n">
-        <v>0.000209808349609375</v>
+        <v>0.0001893043518066406</v>
       </c>
       <c r="Z29" s="9" t="n">
-        <v>0.002344131469726562</v>
+        <v>0.0008835792541503906</v>
       </c>
       <c r="AA29" s="11" t="n">
-        <v>0.002553939819335938</v>
+        <v>0.001072883605957031</v>
       </c>
       <c r="AB29" s="5" t="n">
-        <v>836.0578815910767</v>
+        <v>567.5861737971759</v>
       </c>
       <c r="AC29" s="6" t="n">
-        <v>-0.7855096777349733</v>
+        <v>-0.8543859892819302</v>
       </c>
       <c r="AD29" s="5" t="n">
-        <v>27218.51174060419</v>
+        <v>27459.78024655691</v>
       </c>
       <c r="AE29" s="5" t="n">
-        <v>26382.45385901311</v>
+        <v>26892.19407275975</v>
       </c>
       <c r="AF29" s="8" t="n">
-        <v>0.001835823059082031</v>
+        <v>0.001887798309326172</v>
       </c>
       <c r="AG29" s="9" t="n">
-        <v>9.059906005859375e-05</v>
+        <v>9.34600830078125e-05</v>
       </c>
       <c r="AH29" s="11" t="n">
-        <v>0.001926422119140625</v>
+        <v>0.001981258392333984</v>
       </c>
       <c r="AI29" s="5" t="n">
-        <v>391.6732588518042</v>
+        <v>703.017278545587</v>
       </c>
       <c r="AJ29" s="6" t="n">
-        <v>-0.8995163787537777</v>
+        <v>-0.8196411923703651</v>
       </c>
       <c r="AK29" s="5" t="n">
-        <v>27499.60574195296</v>
+        <v>27217.90736056245</v>
       </c>
       <c r="AL29" s="5" t="n">
-        <v>27107.93248310116</v>
+        <v>26514.89008201687</v>
       </c>
       <c r="AM29" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN29" s="9" t="n">
-        <v>2.002716064453125e-05</v>
+        <v>2.121925354003906e-05</v>
       </c>
       <c r="AO29" s="11" t="n">
-        <v>2.002716064453125e-05</v>
+        <v>2.121925354003906e-05</v>
       </c>
     </row>
     <row r="30">
@@ -4421,97 +4418,97 @@
         <v>24851.42913381887</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1311.201162746798</v>
+        <v>893.5325431746604</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>-0.5959550886473448</v>
+        <v>-0.7246591236683984</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31405.96050543645</v>
+        <v>31821.51317144076</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>30094.75934268964</v>
+        <v>30927.9806282661</v>
       </c>
       <c r="O30" s="7" t="n">
-        <v>1.606784105300903</v>
+        <v>1.607111215591431</v>
       </c>
       <c r="P30" s="8" t="n">
-        <v>0.001440048217773438</v>
+        <v>0.001419782638549805</v>
       </c>
       <c r="Q30" s="13" t="n">
-        <v>0.04875922203063965</v>
+        <v>0.05222916603088379</v>
       </c>
       <c r="R30" s="9" t="n">
-        <v>4.9591064453125e-05</v>
+        <v>4.601478576660156e-05</v>
       </c>
       <c r="S30" s="10" t="n">
-        <v>1.655543327331543</v>
+        <v>1.659340381622314</v>
       </c>
       <c r="T30" s="11" t="n">
-        <v>0.001489639282226562</v>
-      </c>
-      <c r="U30" s="14" t="n">
-        <v>0</v>
+        <v>0.001465797424316406</v>
+      </c>
+      <c r="U30" s="5" t="n">
+        <v>2829.675064257353</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="16" t="n">
-        <v>0</v>
+        <v>-0.1280393558379846</v>
+      </c>
+      <c r="W30" s="5" t="n">
+        <v>3047.484096597102</v>
+      </c>
+      <c r="X30" s="5" t="n">
+        <v>217.8090323397487</v>
+      </c>
+      <c r="Y30" s="8" t="n">
+        <v>4.839897155761719e-05</v>
+      </c>
+      <c r="Z30" s="9" t="n">
+        <v>0.0004017353057861328</v>
+      </c>
+      <c r="AA30" s="11" t="n">
+        <v>0.00045013427734375</v>
       </c>
       <c r="AB30" s="5" t="n">
-        <v>869.6900412389775</v>
+        <v>872.6339008003309</v>
       </c>
       <c r="AC30" s="6" t="n">
-        <v>-0.7320061592375613</v>
+        <v>-0.7310990127910084</v>
       </c>
       <c r="AD30" s="5" t="n">
-        <v>31889.04147593102</v>
+        <v>31887.51262099384</v>
       </c>
       <c r="AE30" s="5" t="n">
-        <v>31019.35143469202</v>
+        <v>31014.87872019352</v>
       </c>
       <c r="AF30" s="8" t="n">
-        <v>0.002325773239135742</v>
+        <v>0.002270936965942383</v>
       </c>
       <c r="AG30" s="9" t="n">
-        <v>0.0001285076141357422</v>
+        <v>0.0001184940338134766</v>
       </c>
       <c r="AH30" s="11" t="n">
-        <v>0.002454280853271484</v>
+        <v>0.002389430999755859</v>
       </c>
       <c r="AI30" s="5" t="n">
-        <v>1300.84231754991</v>
+        <v>959.9342522178714</v>
       </c>
       <c r="AJ30" s="6" t="n">
-        <v>-0.5991471531514095</v>
+        <v>-0.7041975244826373</v>
       </c>
       <c r="AK30" s="5" t="n">
-        <v>31241.29335913512</v>
+        <v>31354.8735513087</v>
       </c>
       <c r="AL30" s="5" t="n">
-        <v>29940.45104158522</v>
+        <v>30394.93929909083</v>
       </c>
       <c r="AM30" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN30" s="9" t="n">
-        <v>3.647804260253906e-05</v>
+        <v>1.978874206542969e-05</v>
       </c>
       <c r="AO30" s="11" t="n">
-        <v>3.647804260253906e-05</v>
+        <v>1.978874206542969e-05</v>
       </c>
     </row>
     <row r="31">
@@ -4550,97 +4547,97 @@
         <v>24851.42913381887</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>912.4760874418803</v>
+        <v>798.4520667046097</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>-0.7188216954524871</v>
+        <v>-0.7539580472647073</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31837.53542872444</v>
+        <v>31930.82803494301</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>30925.05934128256</v>
+        <v>31132.37596823842</v>
       </c>
       <c r="O31" s="7" t="n">
-        <v>1.606784105300903</v>
+        <v>1.607111215591431</v>
       </c>
       <c r="P31" s="8" t="n">
         <v>0.001468420028686523</v>
       </c>
       <c r="Q31" s="13" t="n">
-        <v>0.0498044490814209</v>
+        <v>0.04803299903869629</v>
       </c>
       <c r="R31" s="9" t="n">
-        <v>5.745887756347656e-05</v>
+        <v>8.034706115722656e-05</v>
       </c>
       <c r="S31" s="10" t="n">
-        <v>1.656588554382324</v>
+        <v>1.655144214630127</v>
       </c>
       <c r="T31" s="11" t="n">
-        <v>0.00152587890625</v>
-      </c>
-      <c r="U31" s="14" t="n">
-        <v>0</v>
+        <v>0.00154876708984375</v>
+      </c>
+      <c r="U31" s="5" t="n">
+        <v>5490.631109723241</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="16" t="n">
-        <v>0</v>
+        <v>0.6919307448987205</v>
+      </c>
+      <c r="W31" s="5" t="n">
+        <v>6762.813286497811</v>
+      </c>
+      <c r="X31" s="5" t="n">
+        <v>1272.182176774571</v>
+      </c>
+      <c r="Y31" s="8" t="n">
+        <v>0.0001306533813476562</v>
+      </c>
+      <c r="Z31" s="9" t="n">
+        <v>0.0006394386291503906</v>
+      </c>
+      <c r="AA31" s="11" t="n">
+        <v>0.0007700920104980469</v>
       </c>
       <c r="AB31" s="5" t="n">
-        <v>801.4233095938426</v>
+        <v>889.3666221544649</v>
       </c>
       <c r="AC31" s="6" t="n">
-        <v>-0.7530424626817342</v>
+        <v>-0.7259428467439492</v>
       </c>
       <c r="AD31" s="5" t="n">
-        <v>31950.29973640421</v>
+        <v>31865.32409661751</v>
       </c>
       <c r="AE31" s="5" t="n">
-        <v>31148.87642681038</v>
+        <v>30975.95747446306</v>
       </c>
       <c r="AF31" s="8" t="n">
-        <v>0.002358913421630859</v>
+        <v>0.002216100692749023</v>
       </c>
       <c r="AG31" s="9" t="n">
-        <v>0.0001327991485595703</v>
+        <v>0.0001075267791748047</v>
       </c>
       <c r="AH31" s="11" t="n">
-        <v>0.00249171257019043</v>
+        <v>0.002323627471923828</v>
       </c>
       <c r="AI31" s="5" t="n">
-        <v>658.3248765298924</v>
+        <v>486.5038778491319</v>
       </c>
       <c r="AJ31" s="6" t="n">
-        <v>-0.7971380563592948</v>
+        <v>-0.850084470801957</v>
       </c>
       <c r="AK31" s="5" t="n">
-        <v>31772.35840555437</v>
+        <v>32148.38883099802</v>
       </c>
       <c r="AL31" s="5" t="n">
-        <v>31114.03352902447</v>
+        <v>31661.88495314889</v>
       </c>
       <c r="AM31" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN31" s="9" t="n">
-        <v>2.741813659667969e-05</v>
+        <v>2.002716064453125e-05</v>
       </c>
       <c r="AO31" s="11" t="n">
-        <v>2.741813659667969e-05</v>
+        <v>2.002716064453125e-05</v>
       </c>
     </row>
     <row r="32">
@@ -4679,88 +4676,88 @@
         <v>37348.20780449578</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>5849.222564093341</v>
+        <v>5245.526538685928</v>
       </c>
       <c r="L32" s="6" t="n">
-        <v>-0.4462804477526793</v>
+        <v>-0.5034296311217848</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55710.95595423519</v>
+        <v>56275.98443180747</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>49861.73339014185</v>
+        <v>51030.45789312154</v>
       </c>
       <c r="O32" s="7" t="n">
-        <v>43.82460927963257</v>
+        <v>43.54703116416931</v>
       </c>
       <c r="P32" s="8" t="n">
-        <v>0.006740331649780273</v>
+        <v>0.00770115852355957</v>
       </c>
       <c r="Q32" s="13" t="n">
-        <v>0.1201827526092529</v>
+        <v>0.1292169094085693</v>
       </c>
       <c r="R32" s="9" t="n">
-        <v>5.292892456054688e-05</v>
+        <v>5.745887756347656e-05</v>
       </c>
       <c r="S32" s="10" t="n">
-        <v>43.94479203224182</v>
+        <v>43.67624807357788</v>
       </c>
       <c r="T32" s="11" t="n">
-        <v>0.00679326057434082</v>
+        <v>0.007758617401123047</v>
       </c>
       <c r="U32" s="5" t="n">
-        <v>-80614.03554964924</v>
+        <v>16045.46954593921</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>-8.631367618564949</v>
+        <v>0.5189523248980101</v>
       </c>
       <c r="W32" s="5" t="n">
-        <v>61321.01639669525</v>
+        <v>26597.57398529533</v>
       </c>
       <c r="X32" s="5" t="n">
-        <v>141935.0519463445</v>
+        <v>10552.10443935612</v>
       </c>
       <c r="Y32" s="8" t="n">
-        <v>8.249282836914062e-05</v>
+        <v>8.20159912109375e-05</v>
       </c>
       <c r="Z32" s="9" t="n">
-        <v>0.001583099365234375</v>
+        <v>0.001429080963134766</v>
       </c>
       <c r="AA32" s="11" t="n">
-        <v>0.001665592193603516</v>
+        <v>0.001511096954345703</v>
       </c>
       <c r="AB32" s="5" t="n">
-        <v>4140.20047001923</v>
+        <v>3706.817690070161</v>
       </c>
       <c r="AC32" s="6" t="n">
-        <v>-0.6080658710875118</v>
+        <v>-0.6490922666871968</v>
       </c>
       <c r="AD32" s="5" t="n">
-        <v>55501.88903204591</v>
+        <v>56043.01586612856</v>
       </c>
       <c r="AE32" s="5" t="n">
-        <v>51361.68856202667</v>
+        <v>52336.19817605839</v>
       </c>
       <c r="AF32" s="7" t="n">
-        <v>0.01357340812683105</v>
+        <v>0.0134580135345459</v>
       </c>
       <c r="AG32" s="9" t="n">
-        <v>0.0002863407135009766</v>
+        <v>0.0002572536468505859</v>
       </c>
       <c r="AH32" s="10" t="n">
-        <v>0.01385974884033203</v>
+        <v>0.01371526718139648</v>
       </c>
       <c r="AI32" s="5" t="n">
-        <v>2044.377089196971</v>
+        <v>-68.44299625161398</v>
       </c>
       <c r="AJ32" s="6" t="n">
-        <v>-0.8064680298876103</v>
+        <v>-1.006479190152817</v>
       </c>
       <c r="AK32" s="5" t="n">
-        <v>58210.52951754999</v>
+        <v>54753.33582812877</v>
       </c>
       <c r="AL32" s="5" t="n">
-        <v>56166.152428353</v>
+        <v>54821.77882438039</v>
       </c>
       <c r="AM32" s="12" t="n">
         <v>0</v>
@@ -4808,97 +4805,97 @@
         <v>37348.20780449578</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>4579.784607669787</v>
+        <v>4373.527908745117</v>
       </c>
       <c r="L33" s="6" t="n">
-        <v>-0.5664524208883194</v>
+        <v>-0.585977813489666</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>57049.21075956045</v>
+        <v>57213.23278295226</v>
       </c>
       <c r="N33" s="5" t="n">
-        <v>52469.42615189066</v>
+        <v>52839.70487420714</v>
       </c>
       <c r="O33" s="7" t="n">
-        <v>43.82460927963257</v>
+        <v>43.54703116416931</v>
       </c>
       <c r="P33" s="8" t="n">
-        <v>0.006826400756835938</v>
+        <v>0.007787466049194336</v>
       </c>
       <c r="Q33" s="13" t="n">
-        <v>0.154069185256958</v>
+        <v>0.1261394023895264</v>
       </c>
       <c r="R33" s="9" t="n">
-        <v>5.7220458984375e-05</v>
+        <v>5.698204040527344e-05</v>
       </c>
       <c r="S33" s="10" t="n">
-        <v>43.97867846488953</v>
+        <v>43.67317056655884</v>
       </c>
       <c r="T33" s="11" t="n">
-        <v>0.006883621215820312</v>
+        <v>0.007844448089599609</v>
       </c>
       <c r="U33" s="5" t="n">
-        <v>-123558.3262964697</v>
+        <v>16066.03617675885</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>-12.69671018047755</v>
+        <v>0.5208992751950626</v>
       </c>
       <c r="W33" s="5" t="n">
-        <v>59703.25806323056</v>
+        <v>28730.4091152082</v>
       </c>
       <c r="X33" s="5" t="n">
-        <v>183261.5843597004</v>
+        <v>12664.37293844935</v>
       </c>
       <c r="Y33" s="8" t="n">
-        <v>0.0001833438873291016</v>
+        <v>0.0001795291900634766</v>
       </c>
       <c r="Z33" s="9" t="n">
-        <v>0.001616716384887695</v>
+        <v>0.001655340194702148</v>
       </c>
       <c r="AA33" s="11" t="n">
-        <v>0.001800060272216797</v>
+        <v>0.001834869384765625</v>
       </c>
       <c r="AB33" s="5" t="n">
-        <v>3877.128402197332</v>
+        <v>3828.765491171378</v>
       </c>
       <c r="AC33" s="6" t="n">
-        <v>-0.6329697187368271</v>
+        <v>-0.6375480176723232</v>
       </c>
       <c r="AD33" s="5" t="n">
-        <v>55815.43380204829</v>
+        <v>55991.19573255113</v>
       </c>
       <c r="AE33" s="5" t="n">
-        <v>51938.30539985096</v>
+        <v>52162.43024137974</v>
       </c>
       <c r="AF33" s="7" t="n">
-        <v>0.01304268836975098</v>
+        <v>0.01321721076965332</v>
       </c>
       <c r="AG33" s="9" t="n">
-        <v>0.0002532005310058594</v>
+        <v>0.000255584716796875</v>
       </c>
       <c r="AH33" s="10" t="n">
-        <v>0.01329588890075684</v>
+        <v>0.0134727954864502</v>
       </c>
       <c r="AI33" s="5" t="n">
-        <v>1996.233507243765</v>
+        <v>1544.025387839088</v>
       </c>
       <c r="AJ33" s="6" t="n">
-        <v>-0.8110255659277599</v>
+        <v>-0.853834071614733</v>
       </c>
       <c r="AK33" s="5" t="n">
-        <v>58913.85926291333</v>
+        <v>56955.69283490883</v>
       </c>
       <c r="AL33" s="5" t="n">
-        <v>56917.62575566956</v>
+        <v>55411.66744706973</v>
       </c>
       <c r="AM33" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN33" s="9" t="n">
-        <v>1.740455627441406e-05</v>
+        <v>1.597404479980469e-05</v>
       </c>
       <c r="AO33" s="11" t="n">
-        <v>1.740455627441406e-05</v>
+        <v>1.597404479980469e-05</v>
       </c>
     </row>
     <row r="34">
@@ -4937,97 +4934,97 @@
         <v>39521.91861016555</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4574.529941337522</v>
+        <v>3289.881781653571</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>-0.6093333938916615</v>
+        <v>-0.7190428379269789</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>62976.39481960715</v>
+        <v>64178.38807708657</v>
       </c>
       <c r="N34" s="5" t="n">
-        <v>58401.86487826961</v>
+        <v>60888.506295433</v>
       </c>
       <c r="O34" s="7" t="n">
-        <v>43.40562558174133</v>
+        <v>43.26518058776855</v>
       </c>
       <c r="P34" s="8" t="n">
-        <v>0.007002592086791992</v>
+        <v>0.007735729217529297</v>
       </c>
       <c r="Q34" s="13" t="n">
-        <v>0.1536545753479004</v>
+        <v>0.1235628128051758</v>
       </c>
       <c r="R34" s="9" t="n">
-        <v>6.151199340820312e-05</v>
+        <v>5.483627319335938e-05</v>
       </c>
       <c r="S34" s="10" t="n">
-        <v>43.55928015708923</v>
+        <v>43.38874340057373</v>
       </c>
       <c r="T34" s="11" t="n">
-        <v>0.007064104080200195</v>
+        <v>0.007790565490722656</v>
       </c>
       <c r="U34" s="5" t="n">
-        <v>-151336.0062160724</v>
+        <v>17117.96608327552</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>-13.9241527957159</v>
+        <v>0.4618808487404054</v>
       </c>
       <c r="W34" s="5" t="n">
-        <v>62965.95368241362</v>
+        <v>30412.78422646561</v>
       </c>
       <c r="X34" s="5" t="n">
-        <v>214301.9598984862</v>
+        <v>13294.8181431901</v>
       </c>
       <c r="Y34" s="8" t="n">
-        <v>8.654594421386719e-05</v>
+        <v>7.939338684082031e-05</v>
       </c>
       <c r="Z34" s="9" t="n">
-        <v>0.0017547607421875</v>
+        <v>0.001442670822143555</v>
       </c>
       <c r="AA34" s="11" t="n">
-        <v>0.001841306686401367</v>
+        <v>0.001522064208984375</v>
       </c>
       <c r="AB34" s="5" t="n">
-        <v>2504.868384509112</v>
+        <v>2262.455694952736</v>
       </c>
       <c r="AC34" s="6" t="n">
-        <v>-0.7860832822009832</v>
+        <v>-0.8067854185780585</v>
       </c>
       <c r="AD34" s="5" t="n">
-        <v>62988.08996463271</v>
+        <v>63268.05441007658</v>
       </c>
       <c r="AE34" s="5" t="n">
-        <v>60483.22158012359</v>
+        <v>61005.59871512385</v>
       </c>
       <c r="AF34" s="7" t="n">
-        <v>0.01296210289001465</v>
+        <v>0.01352930068969727</v>
       </c>
       <c r="AG34" s="9" t="n">
-        <v>0.0002336502075195312</v>
+        <v>0.0002496242523193359</v>
       </c>
       <c r="AH34" s="10" t="n">
-        <v>0.01319575309753418</v>
+        <v>0.0137789249420166</v>
       </c>
       <c r="AI34" s="5" t="n">
-        <v>2000.046715358991</v>
+        <v>-583.2206135577476</v>
       </c>
       <c r="AJ34" s="6" t="n">
-        <v>-0.8291952457701104</v>
+        <v>-1.049807263398173</v>
       </c>
       <c r="AK34" s="5" t="n">
-        <v>64077.53091708384</v>
+        <v>65355.98952586977</v>
       </c>
       <c r="AL34" s="5" t="n">
-        <v>62077.48420172484</v>
+        <v>65939.21013942751</v>
       </c>
       <c r="AM34" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN34" s="9" t="n">
-        <v>1.668930053710938e-05</v>
+        <v>1.52587890625e-05</v>
       </c>
       <c r="AO34" s="11" t="n">
-        <v>1.668930053710938e-05</v>
+        <v>1.52587890625e-05</v>
       </c>
     </row>
     <row r="35">
@@ -5066,97 +5063,97 @@
         <v>39521.91861016555</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>3381.499816212855</v>
+        <v>3865.530633522579</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>-0.7112186227445273</v>
+        <v>-0.6698822058721641</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>64329.97238903699</v>
+        <v>63924.83553018006</v>
       </c>
       <c r="N35" s="5" t="n">
-        <v>60948.47257282412</v>
+        <v>60059.30489665746</v>
       </c>
       <c r="O35" s="7" t="n">
-        <v>43.40562558174133</v>
+        <v>43.26518058776855</v>
       </c>
       <c r="P35" s="8" t="n">
-        <v>0.007212400436401367</v>
+        <v>0.008293390274047852</v>
       </c>
       <c r="Q35" s="13" t="n">
-        <v>0.1205720901489258</v>
+        <v>0.120866060256958</v>
       </c>
       <c r="R35" s="9" t="n">
-        <v>5.173683166503906e-05</v>
+        <v>7.557868957519531e-05</v>
       </c>
       <c r="S35" s="10" t="n">
-        <v>43.52619767189026</v>
+        <v>43.38604664802551</v>
       </c>
       <c r="T35" s="11" t="n">
-        <v>0.007264137268066406</v>
+        <v>0.008368968963623047</v>
       </c>
       <c r="U35" s="5" t="n">
-        <v>-2413.451522908934</v>
+        <v>15863.03433375192</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>-1.206109682864194</v>
+        <v>0.3547091974951541</v>
       </c>
       <c r="W35" s="5" t="n">
-        <v>59925.41107241494</v>
+        <v>44753.05812771772</v>
       </c>
       <c r="X35" s="5" t="n">
-        <v>62338.86259532386</v>
+        <v>28890.0237939658</v>
       </c>
       <c r="Y35" s="8" t="n">
-        <v>0.0001871585845947266</v>
+        <v>0.0002086162567138672</v>
       </c>
       <c r="Z35" s="9" t="n">
-        <v>0.001854419708251953</v>
+        <v>0.001715660095214844</v>
       </c>
       <c r="AA35" s="11" t="n">
-        <v>0.00204157829284668</v>
+        <v>0.001924276351928711</v>
       </c>
       <c r="AB35" s="5" t="n">
-        <v>2085.304312283352</v>
+        <v>2020.624148517435</v>
       </c>
       <c r="AC35" s="6" t="n">
-        <v>-0.8219142143936594</v>
+        <v>-0.8274379251103882</v>
       </c>
       <c r="AD35" s="5" t="n">
-        <v>63259.16493312625</v>
+        <v>63481.29044441192</v>
       </c>
       <c r="AE35" s="5" t="n">
-        <v>61173.8606208429</v>
+        <v>61460.66629589447</v>
       </c>
       <c r="AF35" s="7" t="n">
-        <v>0.01317524909973145</v>
+        <v>0.01287579536437988</v>
       </c>
       <c r="AG35" s="9" t="n">
-        <v>0.0002274513244628906</v>
+        <v>0.0001966953277587891</v>
       </c>
       <c r="AH35" s="10" t="n">
-        <v>0.01340270042419434</v>
+        <v>0.01307249069213867</v>
       </c>
       <c r="AI35" s="5" t="n">
-        <v>3738.531550608564</v>
+        <v>3059.730767236166</v>
       </c>
       <c r="AJ35" s="6" t="n">
-        <v>-0.6807279761124139</v>
+        <v>-0.7386978225588097</v>
       </c>
       <c r="AK35" s="5" t="n">
-        <v>63678.58762635449</v>
+        <v>63761.57155743441</v>
       </c>
       <c r="AL35" s="5" t="n">
-        <v>59940.05607574593</v>
+        <v>60701.84079019826</v>
       </c>
       <c r="AM35" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN35" s="9" t="n">
-        <v>1.597404479980469e-05</v>
+        <v>1.406669616699219e-05</v>
       </c>
       <c r="AO35" s="11" t="n">
-        <v>1.597404479980469e-05</v>
+        <v>1.406669616699219e-05</v>
       </c>
     </row>
     <row r="36">
@@ -5195,34 +5192,34 @@
         <v>38252.04988611244</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2630.411002505804</v>
+        <v>4391.853225284793</v>
       </c>
       <c r="L36" s="6" t="n">
-        <v>-0.7940850598688933</v>
+        <v>-0.6561950991356035</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>67043.51915705703</v>
+        <v>65379.88641465123</v>
       </c>
       <c r="N36" s="5" t="n">
-        <v>64413.10815455123</v>
+        <v>60988.03318936643</v>
       </c>
       <c r="O36" s="7" t="n">
-        <v>43.20264220237732</v>
+        <v>43.64160370826721</v>
       </c>
       <c r="P36" s="8" t="n">
-        <v>0.006932973861694336</v>
+        <v>0.006947755813598633</v>
       </c>
       <c r="Q36" s="13" t="n">
-        <v>0.1368517875671387</v>
+        <v>0.1341381072998047</v>
       </c>
       <c r="R36" s="9" t="n">
-        <v>6.318092346191406e-05</v>
+        <v>4.816055297851562e-05</v>
       </c>
       <c r="S36" s="10" t="n">
-        <v>43.33949398994446</v>
+        <v>43.77574181556702</v>
       </c>
       <c r="T36" s="11" t="n">
-        <v>0.00699615478515625</v>
+        <v>0.006995916366577148</v>
       </c>
       <c r="U36" s="5" t="n">
         <v>8848.354297176784</v>
@@ -5237,55 +5234,55 @@
         <v>49165.84182313616</v>
       </c>
       <c r="Y36" s="8" t="n">
-        <v>8.296966552734375e-05</v>
+        <v>8.273124694824219e-05</v>
       </c>
       <c r="Z36" s="9" t="n">
-        <v>0.001804113388061523</v>
+        <v>0.001978874206542969</v>
       </c>
       <c r="AA36" s="11" t="n">
-        <v>0.001887083053588867</v>
+        <v>0.002061605453491211</v>
       </c>
       <c r="AB36" s="5" t="n">
-        <v>2386.624193518422</v>
+        <v>2601.428463956627</v>
       </c>
       <c r="AC36" s="6" t="n">
-        <v>-0.8131692813573105</v>
+        <v>-0.7963538831381528</v>
       </c>
       <c r="AD36" s="5" t="n">
-        <v>67053.58318731537</v>
+        <v>66879.77126224001</v>
       </c>
       <c r="AE36" s="5" t="n">
-        <v>64666.95899379694</v>
+        <v>64278.34279828338</v>
       </c>
       <c r="AF36" s="7" t="n">
-        <v>0.01345419883728027</v>
+        <v>0.01369357109069824</v>
       </c>
       <c r="AG36" s="9" t="n">
-        <v>0.0002379417419433594</v>
+        <v>0.0002522468566894531</v>
       </c>
       <c r="AH36" s="10" t="n">
-        <v>0.01369214057922363</v>
+        <v>0.0139458179473877</v>
       </c>
       <c r="AI36" s="5" t="n">
-        <v>3176.742591904926</v>
+        <v>2582.906981670741</v>
       </c>
       <c r="AJ36" s="6" t="n">
-        <v>-0.7513169006665162</v>
+        <v>-0.7978037896023533</v>
       </c>
       <c r="AK36" s="5" t="n">
-        <v>65364.97056762819</v>
+        <v>64947.8540828211</v>
       </c>
       <c r="AL36" s="5" t="n">
-        <v>62188.22797572325</v>
+        <v>62364.94710115035</v>
       </c>
       <c r="AM36" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN36" s="9" t="n">
-        <v>1.621246337890625e-05</v>
+        <v>1.549720764160156e-05</v>
       </c>
       <c r="AO36" s="11" t="n">
-        <v>1.621246337890625e-05</v>
+        <v>1.549720764160156e-05</v>
       </c>
     </row>
     <row r="37">
@@ -5324,34 +5321,34 @@
         <v>38252.04988611244</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>4280.151024734958</v>
+        <v>3685.789660140172</v>
       </c>
       <c r="L37" s="6" t="n">
-        <v>-0.6649394177674904</v>
+        <v>-0.7114674640272529</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>65811.33706531386</v>
+        <v>66424.48816471091</v>
       </c>
       <c r="N37" s="5" t="n">
-        <v>61531.18604057889</v>
+        <v>62738.69850457074</v>
       </c>
       <c r="O37" s="7" t="n">
-        <v>43.20264220237732</v>
+        <v>43.64160370826721</v>
       </c>
       <c r="P37" s="8" t="n">
-        <v>0.008636951446533203</v>
+        <v>0.007535219192504883</v>
       </c>
       <c r="Q37" s="13" t="n">
-        <v>0.145524263381958</v>
+        <v>0.1312263011932373</v>
       </c>
       <c r="R37" s="9" t="n">
-        <v>5.698204040527344e-05</v>
+        <v>5.292892456054688e-05</v>
       </c>
       <c r="S37" s="10" t="n">
-        <v>43.34816646575928</v>
+        <v>43.77283000946045</v>
       </c>
       <c r="T37" s="11" t="n">
-        <v>0.008693933486938477</v>
+        <v>0.00758814811706543</v>
       </c>
       <c r="U37" s="5" t="n">
         <v>6080.294589192576</v>
@@ -5366,55 +5363,55 @@
         <v>56552.66794276873</v>
       </c>
       <c r="Y37" s="8" t="n">
-        <v>0.0001034736633300781</v>
+        <v>9.655952453613281e-05</v>
       </c>
       <c r="Z37" s="9" t="n">
-        <v>0.001839160919189453</v>
+        <v>0.00179743766784668</v>
       </c>
       <c r="AA37" s="11" t="n">
-        <v>0.001942634582519531</v>
+        <v>0.001893997192382812</v>
       </c>
       <c r="AB37" s="5" t="n">
-        <v>2691.130002693273</v>
+        <v>2932.728147336379</v>
       </c>
       <c r="AC37" s="6" t="n">
-        <v>-0.789331829565145</v>
+        <v>-0.7704189420192142</v>
       </c>
       <c r="AD37" s="5" t="n">
-        <v>66728.57534821812</v>
+        <v>66602.43839237597</v>
       </c>
       <c r="AE37" s="5" t="n">
-        <v>64037.44534552484</v>
+        <v>63669.71024503961</v>
       </c>
       <c r="AF37" s="7" t="n">
-        <v>0.01428079605102539</v>
+        <v>0.01385354995727539</v>
       </c>
       <c r="AG37" s="9" t="n">
-        <v>0.0002410411834716797</v>
+        <v>0.0002605915069580078</v>
       </c>
       <c r="AH37" s="10" t="n">
-        <v>0.01452183723449707</v>
+        <v>0.0141141414642334</v>
       </c>
       <c r="AI37" s="5" t="n">
-        <v>4170.36046124988</v>
+        <v>739.9684458456336</v>
       </c>
       <c r="AJ37" s="6" t="n">
-        <v>-0.6735340888228707</v>
+        <v>-0.9420734789810188</v>
       </c>
       <c r="AK37" s="5" t="n">
-        <v>60445.84238709765</v>
+        <v>65327.70103654209</v>
       </c>
       <c r="AL37" s="5" t="n">
-        <v>56275.48192584779</v>
+        <v>64587.73259069645</v>
       </c>
       <c r="AM37" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN37" s="9" t="n">
-        <v>1.668930053710938e-05</v>
+        <v>1.645088195800781e-05</v>
       </c>
       <c r="AO37" s="11" t="n">
-        <v>1.668930053710938e-05</v>
+        <v>1.645088195800781e-05</v>
       </c>
     </row>
     <row r="38">
@@ -5453,97 +5450,97 @@
         <v>33149.94744853495</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>3058.005584592102</v>
+        <v>5419.744077508262</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>-0.7321705698655085</v>
+        <v>-0.5253223293418402</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>56246.51831642995</v>
+        <v>53946.00023065936</v>
       </c>
       <c r="N38" s="5" t="n">
-        <v>53188.51273183784</v>
+        <v>48526.25615315109</v>
       </c>
       <c r="O38" s="7" t="n">
-        <v>45.90379786491394</v>
+        <v>43.19996809959412</v>
       </c>
       <c r="P38" s="8" t="n">
-        <v>0.007495641708374023</v>
+        <v>0.007325649261474609</v>
       </c>
       <c r="Q38" s="13" t="n">
-        <v>0.1985900402069092</v>
+        <v>0.1241858005523682</v>
       </c>
       <c r="R38" s="9" t="n">
-        <v>6.127357482910156e-05</v>
+        <v>6.842613220214844e-05</v>
       </c>
       <c r="S38" s="10" t="n">
-        <v>46.10238790512085</v>
+        <v>43.32415390014648</v>
       </c>
       <c r="T38" s="11" t="n">
-        <v>0.007556915283203125</v>
+        <v>0.007394075393676758</v>
       </c>
       <c r="U38" s="5" t="n">
-        <v>-33464.53667981914</v>
+        <v>14471.33400687745</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>-3.930925906031746</v>
+        <v>0.267443447414391</v>
       </c>
       <c r="W38" s="5" t="n">
-        <v>51336.39005033656</v>
+        <v>28671.67818906901</v>
       </c>
       <c r="X38" s="5" t="n">
-        <v>84800.92673015565</v>
+        <v>14200.34418219157</v>
       </c>
       <c r="Y38" s="8" t="n">
-        <v>7.987022399902344e-05</v>
+        <v>8.535385131835938e-05</v>
       </c>
       <c r="Z38" s="9" t="n">
-        <v>0.002023696899414062</v>
+        <v>0.001735687255859375</v>
       </c>
       <c r="AA38" s="11" t="n">
-        <v>0.002103567123413086</v>
+        <v>0.001821041107177734</v>
       </c>
       <c r="AB38" s="5" t="n">
-        <v>821.0929491969207</v>
+        <v>1428.889363961173</v>
       </c>
       <c r="AC38" s="6" t="n">
-        <v>-0.928086182125075</v>
+        <v>-0.8748535234849796</v>
       </c>
       <c r="AD38" s="5" t="n">
-        <v>57219.47607505459</v>
+        <v>56624.88544645154</v>
       </c>
       <c r="AE38" s="5" t="n">
-        <v>56398.38312585765</v>
+        <v>55195.99608249035</v>
       </c>
       <c r="AF38" s="7" t="n">
-        <v>0.01187419891357422</v>
+        <v>0.01166200637817383</v>
       </c>
       <c r="AG38" s="9" t="n">
-        <v>0.0001950263977050781</v>
+        <v>0.0002093315124511719</v>
       </c>
       <c r="AH38" s="10" t="n">
-        <v>0.0120692253112793</v>
+        <v>0.011871337890625</v>
       </c>
       <c r="AI38" s="5" t="n">
-        <v>1661.525243581679</v>
+        <v>653.2538608709692</v>
       </c>
       <c r="AJ38" s="6" t="n">
-        <v>-0.8544785655772729</v>
+        <v>-0.9427860399693921</v>
       </c>
       <c r="AK38" s="5" t="n">
-        <v>56453.03061397016</v>
+        <v>57458.52063222018</v>
       </c>
       <c r="AL38" s="5" t="n">
-        <v>54791.50537038848</v>
+        <v>56805.2667713492</v>
       </c>
       <c r="AM38" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN38" s="9" t="n">
-        <v>1.668930053710938e-05</v>
+        <v>1.835823059082031e-05</v>
       </c>
       <c r="AO38" s="11" t="n">
-        <v>1.668930053710938e-05</v>
+        <v>1.835823059082031e-05</v>
       </c>
     </row>
     <row r="39">
@@ -5582,97 +5579,97 @@
         <v>33149.94744853495</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>4183.597150168473</v>
+        <v>4567.248381966032</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>-0.6335878370243841</v>
+        <v>-0.5999864952542899</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>55236.96565069085</v>
+        <v>54658.45146182708</v>
       </c>
       <c r="N39" s="5" t="n">
-        <v>51053.36850052238</v>
+        <v>50091.20307986103</v>
       </c>
       <c r="O39" s="7" t="n">
-        <v>45.90379786491394</v>
+        <v>43.19996809959412</v>
       </c>
       <c r="P39" s="8" t="n">
-        <v>0.006919384002685547</v>
+        <v>0.007207870483398438</v>
       </c>
       <c r="Q39" s="13" t="n">
-        <v>0.1235690116882324</v>
+        <v>0.1231365203857422</v>
       </c>
       <c r="R39" s="9" t="n">
-        <v>5.602836608886719e-05</v>
+        <v>6.270408630371094e-05</v>
       </c>
       <c r="S39" s="10" t="n">
-        <v>46.02736687660217</v>
+        <v>43.32310461997986</v>
       </c>
       <c r="T39" s="11" t="n">
-        <v>0.006975412368774414</v>
+        <v>0.007270574569702148</v>
       </c>
       <c r="U39" s="5" t="n">
-        <v>4529.280274093275</v>
+        <v>15142.66657782887</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>-0.6033118576231759</v>
+        <v>0.3262407958609035</v>
       </c>
       <c r="W39" s="5" t="n">
-        <v>48924.02868305479</v>
+        <v>35089.14389768407</v>
       </c>
       <c r="X39" s="5" t="n">
-        <v>44394.7484089615</v>
+        <v>19946.47731985519</v>
       </c>
       <c r="Y39" s="8" t="n">
-        <v>0.0001766681671142578</v>
+        <v>0.0001797676086425781</v>
       </c>
       <c r="Z39" s="9" t="n">
-        <v>0.001997709274291992</v>
+        <v>0.001825094223022461</v>
       </c>
       <c r="AA39" s="11" t="n">
-        <v>0.00217437744140625</v>
+        <v>0.002004861831665039</v>
       </c>
       <c r="AB39" s="5" t="n">
-        <v>1064.873814220614</v>
+        <v>1609.680194514699</v>
       </c>
       <c r="AC39" s="6" t="n">
-        <v>-0.9067351124978759</v>
+        <v>-0.8590193126631732</v>
       </c>
       <c r="AD39" s="5" t="n">
-        <v>57078.15952962382</v>
+        <v>56537.11583473279</v>
       </c>
       <c r="AE39" s="5" t="n">
-        <v>56013.28571540321</v>
+        <v>54927.4356402181</v>
       </c>
       <c r="AF39" s="7" t="n">
-        <v>0.01161599159240723</v>
+        <v>0.01162362098693848</v>
       </c>
       <c r="AG39" s="9" t="n">
-        <v>0.0002284049987792969</v>
+        <v>0.0001630783081054688</v>
       </c>
       <c r="AH39" s="10" t="n">
-        <v>0.01184439659118652</v>
+        <v>0.01178669929504395</v>
       </c>
       <c r="AI39" s="5" t="n">
-        <v>-85.63646995286263</v>
+        <v>3288.911361699562</v>
       </c>
       <c r="AJ39" s="6" t="n">
-        <v>-1.00750030250493</v>
+        <v>-0.7119471395980644</v>
       </c>
       <c r="AK39" s="5" t="n">
-        <v>57875.32483588303</v>
+        <v>55549.14408488651</v>
       </c>
       <c r="AL39" s="5" t="n">
-        <v>57960.96130583587</v>
+        <v>52260.23272318695</v>
       </c>
       <c r="AM39" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN39" s="9" t="n">
-        <v>1.454353332519531e-05</v>
+        <v>1.406669616699219e-05</v>
       </c>
       <c r="AO39" s="11" t="n">
-        <v>1.454353332519531e-05</v>
+        <v>1.406669616699219e-05</v>
       </c>
     </row>
     <row r="40">
@@ -5711,97 +5708,97 @@
         <v>40529.95387732085</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>4276.205236470926</v>
+        <v>4777.428440491898</v>
       </c>
       <c r="L40" s="6" t="n">
-        <v>-0.6158887282558836</v>
+        <v>-0.5708662207573791</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>62738.74167090894</v>
+        <v>62336.08723290412</v>
       </c>
       <c r="N40" s="5" t="n">
-        <v>58462.53643443803</v>
+        <v>57558.65879241221</v>
       </c>
       <c r="O40" s="7" t="n">
-        <v>43.31607937812805</v>
+        <v>43.61086630821228</v>
       </c>
       <c r="P40" s="8" t="n">
-        <v>0.006807088851928711</v>
+        <v>0.007261753082275391</v>
       </c>
       <c r="Q40" s="13" t="n">
-        <v>0.1202235221862793</v>
+        <v>0.1196062564849854</v>
       </c>
       <c r="R40" s="9" t="n">
-        <v>4.625320434570312e-05</v>
+        <v>4.57763671875e-05</v>
       </c>
       <c r="S40" s="10" t="n">
-        <v>43.43630290031433</v>
+        <v>43.73047256469727</v>
       </c>
       <c r="T40" s="11" t="n">
-        <v>0.006853342056274414</v>
+        <v>0.007307529449462891</v>
       </c>
       <c r="U40" s="5" t="n">
-        <v>-21202.78355336643</v>
+        <v>15702.71700408355</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>-2.904545667204714</v>
+        <v>0.4105007278028256</v>
       </c>
       <c r="W40" s="5" t="n">
-        <v>60887.67554008271</v>
+        <v>35535.44441563981</v>
       </c>
       <c r="X40" s="5" t="n">
-        <v>82090.45909344916</v>
+        <v>19832.72741155626</v>
       </c>
       <c r="Y40" s="8" t="n">
-        <v>5.555152893066406e-05</v>
+        <v>5.650520324707031e-05</v>
       </c>
       <c r="Z40" s="9" t="n">
-        <v>0.001694679260253906</v>
+        <v>0.001285552978515625</v>
       </c>
       <c r="AA40" s="11" t="n">
-        <v>0.00175023078918457</v>
+        <v>0.001342058181762695</v>
       </c>
       <c r="AB40" s="5" t="n">
-        <v>5805.482732031576</v>
+        <v>5691.903646660712</v>
       </c>
       <c r="AC40" s="6" t="n">
-        <v>-0.4785209708200315</v>
+        <v>-0.4887232423464891</v>
       </c>
       <c r="AD40" s="5" t="n">
-        <v>59967.41315149458</v>
+        <v>60026.07784831399</v>
       </c>
       <c r="AE40" s="5" t="n">
-        <v>54161.93041946302</v>
+        <v>54334.17420165329</v>
       </c>
       <c r="AF40" s="7" t="n">
-        <v>0.01382684707641602</v>
+        <v>0.01305079460144043</v>
       </c>
       <c r="AG40" s="9" t="n">
-        <v>0.0002446174621582031</v>
+        <v>0.00025177001953125</v>
       </c>
       <c r="AH40" s="10" t="n">
-        <v>0.01407146453857422</v>
+        <v>0.01330256462097168</v>
       </c>
       <c r="AI40" s="5" t="n">
-        <v>2730.914798946064</v>
+        <v>2749.899268342737</v>
       </c>
       <c r="AJ40" s="6" t="n">
-        <v>-0.7546948524590227</v>
+        <v>-0.7529895674504478</v>
       </c>
       <c r="AK40" s="5" t="n">
-        <v>63544.31257938932</v>
+        <v>62436.9160960864</v>
       </c>
       <c r="AL40" s="5" t="n">
-        <v>60813.39778044326</v>
+        <v>59687.01682774368</v>
       </c>
       <c r="AM40" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN40" s="9" t="n">
-        <v>1.597404479980469e-05</v>
+        <v>1.382827758789062e-05</v>
       </c>
       <c r="AO40" s="11" t="n">
-        <v>1.597404479980469e-05</v>
+        <v>1.382827758789062e-05</v>
       </c>
     </row>
     <row r="41">
@@ -5840,97 +5837,97 @@
         <v>40529.95387732085</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4096.115723592641</v>
+        <v>4513.742011128963</v>
       </c>
       <c r="L41" s="6" t="n">
-        <v>-0.632065316607977</v>
+        <v>-0.5945519243481289</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>62944.33655758949</v>
+        <v>62566.97624789954</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>58848.22083399684</v>
+        <v>58053.23423677056</v>
       </c>
       <c r="O41" s="7" t="n">
-        <v>43.31607937812805</v>
+        <v>43.61086630821228</v>
       </c>
       <c r="P41" s="8" t="n">
-        <v>0.007404804229736328</v>
+        <v>0.007364273071289062</v>
       </c>
       <c r="Q41" s="13" t="n">
-        <v>0.1193606853485107</v>
+        <v>0.1198816299438477</v>
       </c>
       <c r="R41" s="9" t="n">
-        <v>5.364418029785156e-05</v>
+        <v>5.221366882324219e-05</v>
       </c>
       <c r="S41" s="10" t="n">
-        <v>43.43544006347656</v>
+        <v>43.73074793815613</v>
       </c>
       <c r="T41" s="11" t="n">
-        <v>0.00745844841003418</v>
+        <v>0.007416486740112305</v>
       </c>
       <c r="U41" s="5" t="n">
-        <v>-11305.65932078865</v>
+        <v>10837.54963647331</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>-2.01553385290687</v>
+        <v>-0.02651422388434015</v>
       </c>
       <c r="W41" s="5" t="n">
-        <v>58490.32376231284</v>
+        <v>49610.37651661086</v>
       </c>
       <c r="X41" s="5" t="n">
-        <v>69795.9830831015</v>
+        <v>38772.82688013755</v>
       </c>
       <c r="Y41" s="8" t="n">
-        <v>0.0001590251922607422</v>
+        <v>0.000164031982421875</v>
       </c>
       <c r="Z41" s="9" t="n">
-        <v>0.001852989196777344</v>
+        <v>0.001502513885498047</v>
       </c>
       <c r="AA41" s="11" t="n">
-        <v>0.002012014389038086</v>
+        <v>0.001666545867919922</v>
       </c>
       <c r="AB41" s="5" t="n">
-        <v>5528.19804364138</v>
+        <v>5603.705314168055</v>
       </c>
       <c r="AC41" s="6" t="n">
-        <v>-0.5034281416415678</v>
+        <v>-0.4966456810008656</v>
       </c>
       <c r="AD41" s="5" t="n">
-        <v>60221.16902038822</v>
+        <v>60114.03135925451</v>
       </c>
       <c r="AE41" s="5" t="n">
-        <v>54692.97097674684</v>
+        <v>54510.32604508645</v>
       </c>
       <c r="AF41" s="7" t="n">
-        <v>0.01368403434753418</v>
+        <v>0.01320266723632812</v>
       </c>
       <c r="AG41" s="9" t="n">
-        <v>0.0002233982086181641</v>
+        <v>0.0002009868621826172</v>
       </c>
       <c r="AH41" s="10" t="n">
-        <v>0.01390743255615234</v>
+        <v>0.01340365409851074</v>
       </c>
       <c r="AI41" s="5" t="n">
-        <v>3111.994673267788</v>
+        <v>1988.382430986397</v>
       </c>
       <c r="AJ41" s="6" t="n">
-        <v>-0.7204642514781848</v>
+        <v>-0.8213930197349086</v>
       </c>
       <c r="AK41" s="5" t="n">
-        <v>62437.17814486147</v>
+        <v>63987.2348458423</v>
       </c>
       <c r="AL41" s="5" t="n">
-        <v>59325.18347159369</v>
+        <v>61998.85241485589</v>
       </c>
       <c r="AM41" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN41" s="9" t="n">
-        <v>1.788139343261719e-05</v>
+        <v>1.478195190429688e-05</v>
       </c>
       <c r="AO41" s="11" t="n">
-        <v>1.788139343261719e-05</v>
+        <v>1.478195190429688e-05</v>
       </c>
     </row>
     <row r="42">
@@ -5969,97 +5966,97 @@
         <v>101512.7078587545</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4742.048384682723</v>
+        <v>4538.250923367446</v>
       </c>
       <c r="L42" s="6" t="n">
-        <v>-0.750598944916349</v>
+        <v>-0.7613173724295681</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>142461.6179125101</v>
+        <v>142659.8338564007</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>137719.5695278275</v>
+        <v>138121.5829330333</v>
       </c>
       <c r="O42" s="7" t="n">
-        <v>43.07153272628784</v>
-      </c>
-      <c r="P42" s="7" t="n">
-        <v>0.01097488403320312</v>
+        <v>43.51035165786743</v>
+      </c>
+      <c r="P42" s="8" t="n">
+        <v>0.007430315017700195</v>
       </c>
       <c r="Q42" s="13" t="n">
-        <v>0.3162755966186523</v>
+        <v>0.3121223449707031</v>
       </c>
       <c r="R42" s="9" t="n">
-        <v>7.557868957519531e-05</v>
+        <v>5.888938903808594e-05</v>
       </c>
       <c r="S42" s="10" t="n">
-        <v>43.38780832290649</v>
-      </c>
-      <c r="T42" s="10" t="n">
-        <v>0.01105046272277832</v>
+        <v>43.82247400283813</v>
+      </c>
+      <c r="T42" s="11" t="n">
+        <v>0.007489204406738281</v>
       </c>
       <c r="U42" s="5" t="n">
-        <v>-1167120.5598376</v>
+        <v>20683.99041316603</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>-62.38298798754121</v>
+        <v>0.08784403150472646</v>
       </c>
       <c r="W42" s="5" t="n">
-        <v>163994.7828699353</v>
+        <v>24018.72139457884</v>
       </c>
       <c r="X42" s="5" t="n">
-        <v>1331115.342707535</v>
+        <v>3334.730981412812</v>
       </c>
       <c r="Y42" s="8" t="n">
-        <v>7.987022399902344e-05</v>
+        <v>8.320808410644531e-05</v>
       </c>
       <c r="Z42" s="9" t="n">
-        <v>0.002833127975463867</v>
+        <v>0.001505374908447266</v>
       </c>
       <c r="AA42" s="11" t="n">
-        <v>0.002912998199462891</v>
+        <v>0.001588582992553711</v>
       </c>
       <c r="AB42" s="5" t="n">
-        <v>5613.996624935968</v>
+        <v>5504.209199846462</v>
       </c>
       <c r="AC42" s="6" t="n">
-        <v>-0.7047401106201987</v>
+        <v>-0.7105142186492698</v>
       </c>
       <c r="AD42" s="5" t="n">
-        <v>141237.6467649323</v>
+        <v>141369.2647567637</v>
       </c>
       <c r="AE42" s="5" t="n">
-        <v>135623.6501399964</v>
+        <v>135865.0555569172</v>
       </c>
       <c r="AF42" s="7" t="n">
-        <v>0.01316285133361816</v>
+        <v>0.01350116729736328</v>
       </c>
       <c r="AG42" s="9" t="n">
-        <v>0.0003283023834228516</v>
+        <v>0.0003197193145751953</v>
       </c>
       <c r="AH42" s="10" t="n">
-        <v>0.01349115371704102</v>
+        <v>0.01382088661193848</v>
       </c>
       <c r="AI42" s="5" t="n">
-        <v>231.0118282490462</v>
+        <v>3649.690527578291</v>
       </c>
       <c r="AJ42" s="6" t="n">
-        <v>-0.9878502729140816</v>
+        <v>-0.8080498985950912</v>
       </c>
       <c r="AK42" s="5" t="n">
-        <v>146158.4799603303</v>
+        <v>140266.9086897058</v>
       </c>
       <c r="AL42" s="5" t="n">
-        <v>145927.4681320812</v>
+        <v>136617.2181621276</v>
       </c>
       <c r="AM42" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN42" s="9" t="n">
-        <v>2.813339233398438e-05</v>
+        <v>2.789497375488281e-05</v>
       </c>
       <c r="AO42" s="11" t="n">
-        <v>2.813339233398438e-05</v>
+        <v>2.789497375488281e-05</v>
       </c>
     </row>
     <row r="43">
@@ -6098,88 +6095,88 @@
         <v>101512.7078587545</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>4552.87430853451</v>
+        <v>5696.872754756285</v>
       </c>
       <c r="L43" s="6" t="n">
-        <v>-0.7605482770105207</v>
+        <v>-0.7003813625557123</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>142494.1061085894</v>
+        <v>141430.9125225533</v>
       </c>
       <c r="N43" s="5" t="n">
-        <v>137941.2318000549</v>
+        <v>135734.039767797</v>
       </c>
       <c r="O43" s="7" t="n">
-        <v>43.07153272628784</v>
+        <v>43.51035165786743</v>
       </c>
       <c r="P43" s="8" t="n">
-        <v>0.00657200813293457</v>
+        <v>0.007568597793579102</v>
       </c>
       <c r="Q43" s="13" t="n">
-        <v>0.3148002624511719</v>
+        <v>0.331240177154541</v>
       </c>
       <c r="R43" s="9" t="n">
-        <v>6.4849853515625e-05</v>
+        <v>6.747245788574219e-05</v>
       </c>
       <c r="S43" s="10" t="n">
-        <v>43.38633298873901</v>
+        <v>43.84159183502197</v>
       </c>
       <c r="T43" s="11" t="n">
-        <v>0.006636857986450195</v>
-      </c>
-      <c r="U43" s="14" t="n">
-        <v>0</v>
+        <v>0.007636070251464844</v>
+      </c>
+      <c r="U43" s="5" t="n">
+        <v>21617.20403838777</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="16" t="n">
-        <v>0</v>
+        <v>0.1369250285482254</v>
+      </c>
+      <c r="W43" s="5" t="n">
+        <v>25633.12422040596</v>
+      </c>
+      <c r="X43" s="5" t="n">
+        <v>4015.920182018194</v>
+      </c>
+      <c r="Y43" s="8" t="n">
+        <v>0.0001885890960693359</v>
+      </c>
+      <c r="Z43" s="9" t="n">
+        <v>0.001622915267944336</v>
+      </c>
+      <c r="AA43" s="11" t="n">
+        <v>0.001811504364013672</v>
       </c>
       <c r="AB43" s="5" t="n">
-        <v>6186.03501172927</v>
+        <v>6004.449136696037</v>
       </c>
       <c r="AC43" s="6" t="n">
-        <v>-0.674654593636562</v>
+        <v>-0.684204835461985</v>
       </c>
       <c r="AD43" s="5" t="n">
-        <v>140605.3174382377</v>
+        <v>140795.80784819</v>
       </c>
       <c r="AE43" s="5" t="n">
-        <v>134419.2824265084</v>
+        <v>134791.3587114939</v>
       </c>
       <c r="AF43" s="7" t="n">
-        <v>0.01280951499938965</v>
+        <v>0.01260900497436523</v>
       </c>
       <c r="AG43" s="9" t="n">
-        <v>0.0002982616424560547</v>
+        <v>0.0003066062927246094</v>
       </c>
       <c r="AH43" s="10" t="n">
-        <v>0.0131077766418457</v>
+        <v>0.01291561126708984</v>
       </c>
       <c r="AI43" s="5" t="n">
-        <v>6074.414326864729</v>
+        <v>2075.032701435428</v>
       </c>
       <c r="AJ43" s="6" t="n">
-        <v>-0.6805251192651693</v>
+        <v>-0.890866709259505</v>
       </c>
       <c r="AK43" s="5" t="n">
-        <v>140135.7031096905</v>
+        <v>143413.1874607749</v>
       </c>
       <c r="AL43" s="5" t="n">
-        <v>134061.2887828258</v>
+        <v>141338.1547593394</v>
       </c>
       <c r="AM43" s="12" t="n">
         <v>0</v>
@@ -6227,97 +6224,97 @@
         <v>109134.5453545698</v>
       </c>
       <c r="K44" s="5" t="n">
-        <v>5244.103213785442</v>
+        <v>2537.510708616659</v>
       </c>
       <c r="L44" s="6" t="n">
-        <v>-0.7492880659267561</v>
+        <v>-0.8786857940140309</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>157131.7642657283</v>
+        <v>159423.388873682</v>
       </c>
       <c r="N44" s="5" t="n">
-        <v>151887.6610519429</v>
+        <v>156885.8781650654</v>
       </c>
       <c r="O44" s="7" t="n">
-        <v>43.55886244773865</v>
+        <v>43.90859270095825</v>
       </c>
       <c r="P44" s="8" t="n">
-        <v>0.006747007369995117</v>
+        <v>0.007248640060424805</v>
       </c>
       <c r="Q44" s="13" t="n">
-        <v>0.312598705291748</v>
+        <v>0.3274545669555664</v>
       </c>
       <c r="R44" s="9" t="n">
-        <v>9.107589721679688e-05</v>
+        <v>6.628036499023438e-05</v>
       </c>
       <c r="S44" s="10" t="n">
-        <v>43.8714611530304</v>
+        <v>44.23604726791382</v>
       </c>
       <c r="T44" s="11" t="n">
-        <v>0.006838083267211914</v>
+        <v>0.007314920425415039</v>
       </c>
       <c r="U44" s="5" t="n">
-        <v>-908484.1077273533</v>
+        <v>25094.85696918958</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>-44.43312830387952</v>
+        <v>0.1997437635281365</v>
       </c>
       <c r="W44" s="5" t="n">
-        <v>160625.4620502577</v>
+        <v>30412.78422646561</v>
       </c>
       <c r="X44" s="5" t="n">
-        <v>1069109.569777612</v>
+        <v>5317.92725727604</v>
       </c>
       <c r="Y44" s="8" t="n">
-        <v>8.177757263183594e-05</v>
+        <v>8.225440979003906e-05</v>
       </c>
       <c r="Z44" s="9" t="n">
-        <v>0.002676248550415039</v>
+        <v>0.001510858535766602</v>
       </c>
       <c r="AA44" s="11" t="n">
-        <v>0.002758026123046875</v>
+        <v>0.001593112945556641</v>
       </c>
       <c r="AB44" s="5" t="n">
-        <v>2983.821285497044</v>
+        <v>2820.274691620569</v>
       </c>
       <c r="AC44" s="6" t="n">
-        <v>-0.8573484207081657</v>
+        <v>-0.8651673138897636</v>
       </c>
       <c r="AD44" s="5" t="n">
-        <v>157865.807283061</v>
+        <v>158108.6417431063</v>
       </c>
       <c r="AE44" s="5" t="n">
-        <v>154881.985997564</v>
+        <v>155288.3670514858</v>
       </c>
       <c r="AF44" s="7" t="n">
-        <v>0.01324677467346191</v>
+        <v>0.01300835609436035</v>
       </c>
       <c r="AG44" s="9" t="n">
-        <v>0.0002684593200683594</v>
+        <v>0.0003321170806884766</v>
       </c>
       <c r="AH44" s="10" t="n">
-        <v>0.01351523399353027</v>
+        <v>0.01334047317504883</v>
       </c>
       <c r="AI44" s="5" t="n">
-        <v>4421.77434166403</v>
+        <v>1071.899626508796</v>
       </c>
       <c r="AJ44" s="6" t="n">
-        <v>-0.7886022543721446</v>
+        <v>-0.948754244998847</v>
       </c>
       <c r="AK44" s="5" t="n">
-        <v>157746.9622155736</v>
+        <v>159719.6644554053</v>
       </c>
       <c r="AL44" s="5" t="n">
-        <v>153325.1878739096</v>
+        <v>158647.7648288964</v>
       </c>
       <c r="AM44" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN44" s="9" t="n">
-        <v>2.765655517578125e-05</v>
+        <v>3.385543823242188e-05</v>
       </c>
       <c r="AO44" s="11" t="n">
-        <v>2.765655517578125e-05</v>
+        <v>3.385543823242188e-05</v>
       </c>
     </row>
     <row r="45">
@@ -6356,97 +6353,97 @@
         <v>109134.5453545698</v>
       </c>
       <c r="K45" s="5" t="n">
-        <v>3584.263017756346</v>
+        <v>4211.456742706261</v>
       </c>
       <c r="L45" s="6" t="n">
-        <v>-0.8286422908216884</v>
+        <v>-0.7986571922432627</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>158580.0075391987</v>
+        <v>158226.985537944</v>
       </c>
       <c r="N45" s="5" t="n">
-        <v>154995.7445214424</v>
+        <v>154015.5287952377</v>
       </c>
       <c r="O45" s="7" t="n">
-        <v>43.55886244773865</v>
+        <v>43.90859270095825</v>
       </c>
       <c r="P45" s="8" t="n">
-        <v>0.007670164108276367</v>
+        <v>0.007085561752319336</v>
       </c>
       <c r="Q45" s="13" t="n">
-        <v>0.3156416416168213</v>
+        <v>0.3338711261749268</v>
       </c>
       <c r="R45" s="9" t="n">
-        <v>8.559226989746094e-05</v>
+        <v>7.343292236328125e-05</v>
       </c>
       <c r="S45" s="10" t="n">
-        <v>43.87450408935547</v>
+        <v>44.24246382713318</v>
       </c>
       <c r="T45" s="11" t="n">
-        <v>0.007755756378173828</v>
-      </c>
-      <c r="U45" s="14" t="n">
-        <v>0</v>
+        <v>0.007158994674682617</v>
+      </c>
+      <c r="U45" s="5" t="n">
+        <v>31735.17864620582</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="16" t="n">
-        <v>0</v>
+        <v>0.5172066018141684</v>
+      </c>
+      <c r="W45" s="5" t="n">
+        <v>41799.06238931635</v>
+      </c>
+      <c r="X45" s="5" t="n">
+        <v>10063.88374311054</v>
+      </c>
+      <c r="Y45" s="8" t="n">
+        <v>0.0001959800720214844</v>
+      </c>
+      <c r="Z45" s="9" t="n">
+        <v>0.001781463623046875</v>
+      </c>
+      <c r="AA45" s="11" t="n">
+        <v>0.001977443695068359</v>
       </c>
       <c r="AB45" s="5" t="n">
-        <v>2569.772687083431</v>
+        <v>3255.496291631459</v>
       </c>
       <c r="AC45" s="6" t="n">
-        <v>-0.8771434019807903</v>
+        <v>-0.8443600862969991</v>
       </c>
       <c r="AD45" s="5" t="n">
-        <v>158394.3037256203</v>
+        <v>157646.3028689311</v>
       </c>
       <c r="AE45" s="5" t="n">
-        <v>155824.5310385369</v>
+        <v>154390.8065772997</v>
       </c>
       <c r="AF45" s="7" t="n">
-        <v>0.0134432315826416</v>
+        <v>0.01424407958984375</v>
       </c>
       <c r="AG45" s="9" t="n">
-        <v>0.0002448558807373047</v>
+        <v>0.0002593994140625</v>
       </c>
       <c r="AH45" s="10" t="n">
-        <v>0.01368808746337891</v>
+        <v>0.01450347900390625</v>
       </c>
       <c r="AI45" s="5" t="n">
-        <v>4823.622130680225</v>
+        <v>699.5320735311916</v>
       </c>
       <c r="AJ45" s="6" t="n">
-        <v>-0.7693905736938419</v>
+        <v>-0.966556524165993</v>
       </c>
       <c r="AK45" s="5" t="n">
-        <v>157507.8293826929</v>
+        <v>161181.6109542669</v>
       </c>
       <c r="AL45" s="5" t="n">
-        <v>152684.2072520127</v>
+        <v>160482.0788807358</v>
       </c>
       <c r="AM45" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN45" s="9" t="n">
-        <v>2.384185791015625e-05</v>
+        <v>2.336502075195312e-05</v>
       </c>
       <c r="AO45" s="11" t="n">
-        <v>2.384185791015625e-05</v>
+        <v>2.336502075195312e-05</v>
       </c>
     </row>
     <row r="46">
@@ -6485,97 +6482,97 @@
         <v>103235.028032197</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>3059.715480132168</v>
+        <v>4396.541110206687</v>
       </c>
       <c r="L46" s="6" t="n">
-        <v>-0.8737486220955321</v>
+        <v>-0.8185879122482144</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>164980.7201366051</v>
+        <v>163766.8056122524</v>
       </c>
       <c r="N46" s="5" t="n">
-        <v>161921.0046564729</v>
+        <v>159370.2645020457</v>
       </c>
       <c r="O46" s="7" t="n">
-        <v>41.52110552787781</v>
+        <v>43.82726979255676</v>
       </c>
       <c r="P46" s="8" t="n">
-        <v>0.006538629531860352</v>
+        <v>0.006998300552368164</v>
       </c>
       <c r="Q46" s="13" t="n">
-        <v>0.2969846725463867</v>
+        <v>0.3250524997711182</v>
       </c>
       <c r="R46" s="9" t="n">
-        <v>6.246566772460938e-05</v>
+        <v>7.009506225585938e-05</v>
       </c>
       <c r="S46" s="10" t="n">
-        <v>41.81809020042419</v>
+        <v>44.15232229232788</v>
       </c>
       <c r="T46" s="11" t="n">
-        <v>0.006601095199584961</v>
+        <v>0.007068395614624023</v>
       </c>
       <c r="U46" s="5" t="n">
-        <v>-159825.5177001348</v>
+        <v>41559.77880048105</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>-7.594793524091117</v>
+        <v>0.7148585785299824</v>
       </c>
       <c r="W46" s="5" t="n">
-        <v>157632.7323605516</v>
+        <v>72242.89476727208</v>
       </c>
       <c r="X46" s="5" t="n">
-        <v>317458.2500606863</v>
+        <v>30683.11596679103</v>
       </c>
       <c r="Y46" s="8" t="n">
-        <v>7.963180541992188e-05</v>
+        <v>8.416175842285156e-05</v>
       </c>
       <c r="Z46" s="9" t="n">
-        <v>0.002853155136108398</v>
+        <v>0.00211787223815918</v>
       </c>
       <c r="AA46" s="11" t="n">
-        <v>0.00293278694152832</v>
+        <v>0.002202033996582031</v>
       </c>
       <c r="AB46" s="5" t="n">
-        <v>-2132.025293011403</v>
+        <v>-2588.094167687312</v>
       </c>
       <c r="AC46" s="6" t="n">
-        <v>-1.087972601608774</v>
+        <v>-1.106791123860617</v>
       </c>
       <c r="AD46" s="5" t="n">
-        <v>169134.3058997021</v>
+        <v>169451.9890419719</v>
       </c>
       <c r="AE46" s="5" t="n">
-        <v>171266.3311927136</v>
+        <v>172040.0832096593</v>
       </c>
       <c r="AF46" s="7" t="n">
-        <v>0.01371979713439941</v>
+        <v>0.01355075836181641</v>
       </c>
       <c r="AG46" s="9" t="n">
-        <v>0.0002641677856445312</v>
+        <v>0.000316619873046875</v>
       </c>
       <c r="AH46" s="10" t="n">
-        <v>0.01398396492004395</v>
+        <v>0.01386737823486328</v>
       </c>
       <c r="AI46" s="5" t="n">
-        <v>6553.822961138951</v>
+        <v>2787.757232407286</v>
       </c>
       <c r="AJ46" s="6" t="n">
-        <v>-0.7295731630086103</v>
+        <v>-0.8849702875512585</v>
       </c>
       <c r="AK46" s="5" t="n">
-        <v>159123.3847705672</v>
+        <v>163018.7668700631</v>
       </c>
       <c r="AL46" s="5" t="n">
-        <v>152569.5618094282</v>
+        <v>160231.0096376558</v>
       </c>
       <c r="AM46" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN46" s="9" t="n">
-        <v>2.336502075195312e-05</v>
+        <v>2.598762512207031e-05</v>
       </c>
       <c r="AO46" s="11" t="n">
-        <v>2.336502075195312e-05</v>
+        <v>2.598762512207031e-05</v>
       </c>
     </row>
     <row r="47">
@@ -6614,97 +6611,97 @@
         <v>103235.028032197</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>5513.205566038597</v>
+        <v>3692.84235582607</v>
       </c>
       <c r="L47" s="6" t="n">
-        <v>-0.7725115933482519</v>
+        <v>-0.8476242517206587</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>162606.9615279238</v>
+        <v>164573.2007998904</v>
       </c>
       <c r="N47" s="5" t="n">
-        <v>157093.7559618853</v>
+        <v>160880.3584440643</v>
       </c>
       <c r="O47" s="7" t="n">
-        <v>41.52110552787781</v>
+        <v>43.82726979255676</v>
       </c>
       <c r="P47" s="8" t="n">
-        <v>0.007008790969848633</v>
+        <v>0.007226705551147461</v>
       </c>
       <c r="Q47" s="13" t="n">
-        <v>0.2847011089324951</v>
+        <v>0.3316648006439209</v>
       </c>
       <c r="R47" s="9" t="n">
-        <v>7.081031799316406e-05</v>
+        <v>7.963180541992188e-05</v>
       </c>
       <c r="S47" s="10" t="n">
-        <v>41.8058066368103</v>
+        <v>44.15893459320068</v>
       </c>
       <c r="T47" s="11" t="n">
-        <v>0.007079601287841797</v>
+        <v>0.007306337356567383</v>
       </c>
       <c r="U47" s="5" t="n">
-        <v>-1198734.50820721</v>
+        <v>38154.97185732441</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>-50.46273089295797</v>
+        <v>0.5743678790308063</v>
       </c>
       <c r="W47" s="5" t="n">
-        <v>176810.1038618136</v>
+        <v>56552.51228359889</v>
       </c>
       <c r="X47" s="5" t="n">
-        <v>1375544.612069024</v>
+        <v>18397.54042627449</v>
       </c>
       <c r="Y47" s="8" t="n">
-        <v>9.369850158691406e-05</v>
+        <v>9.679794311523438e-05</v>
       </c>
       <c r="Z47" s="9" t="n">
-        <v>0.002737045288085938</v>
+        <v>0.001744508743286133</v>
       </c>
       <c r="AA47" s="11" t="n">
-        <v>0.002830743789672852</v>
+        <v>0.001841306686401367</v>
       </c>
       <c r="AB47" s="5" t="n">
-        <v>-2976.449272116612</v>
+        <v>-2086.819823179124</v>
       </c>
       <c r="AC47" s="6" t="n">
-        <v>-1.122815609591007</v>
+        <v>-1.086107312861437</v>
       </c>
       <c r="AD47" s="5" t="n">
-        <v>169726.9565136268</v>
+        <v>169019.9044660019</v>
       </c>
       <c r="AE47" s="5" t="n">
-        <v>172703.4057857434</v>
+        <v>171106.724289181</v>
       </c>
       <c r="AF47" s="7" t="n">
-        <v>0.01522064208984375</v>
+        <v>0.01350522041320801</v>
       </c>
       <c r="AG47" s="9" t="n">
-        <v>0.0002803802490234375</v>
+        <v>0.0002958774566650391</v>
       </c>
       <c r="AH47" s="10" t="n">
-        <v>0.01550102233886719</v>
+        <v>0.01380109786987305</v>
       </c>
       <c r="AI47" s="5" t="n">
-        <v>3509.112706562022</v>
+        <v>3280.488031343149</v>
       </c>
       <c r="AJ47" s="6" t="n">
-        <v>-0.855205388441413</v>
+        <v>-0.8646390042324138</v>
       </c>
       <c r="AK47" s="5" t="n">
-        <v>164192.01219063</v>
+        <v>164548.3228408175</v>
       </c>
       <c r="AL47" s="5" t="n">
-        <v>160682.899484068</v>
+        <v>161267.8348094743</v>
       </c>
       <c r="AM47" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN47" s="9" t="n">
-        <v>3.0517578125e-05</v>
+        <v>2.789497375488281e-05</v>
       </c>
       <c r="AO47" s="11" t="n">
-        <v>3.0517578125e-05</v>
+        <v>2.789497375488281e-05</v>
       </c>
     </row>
     <row r="48">
@@ -6743,88 +6740,88 @@
         <v>88767.7090343421</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4664.977648264704</v>
+        <v>7525.757907528654</v>
       </c>
       <c r="L48" s="6" t="n">
-        <v>-0.7869160044812922</v>
+        <v>-0.6562430336961558</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>137451.2456588095</v>
+        <v>133992.149304204</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>132786.2680105448</v>
+        <v>126466.3913966753</v>
       </c>
       <c r="O48" s="7" t="n">
-        <v>41.30453681945801</v>
+        <v>43.43123292922974</v>
       </c>
       <c r="P48" s="8" t="n">
-        <v>0.006699800491333008</v>
+        <v>0.006981849670410156</v>
       </c>
       <c r="Q48" s="13" t="n">
-        <v>0.2786495685577393</v>
+        <v>0.3074660301208496</v>
       </c>
       <c r="R48" s="9" t="n">
-        <v>5.841255187988281e-05</v>
+        <v>5.674362182617188e-05</v>
       </c>
       <c r="S48" s="10" t="n">
-        <v>41.58318638801575</v>
+        <v>43.73869895935059</v>
       </c>
       <c r="T48" s="11" t="n">
-        <v>0.006758213043212891</v>
+        <v>0.007038593292236328</v>
       </c>
       <c r="U48" s="5" t="n">
-        <v>-783012.8670135554</v>
+        <v>21531.71218052003</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>-36.765982781905</v>
+        <v>-0.01648762165222278</v>
       </c>
       <c r="W48" s="5" t="n">
-        <v>119643.8504753009</v>
+        <v>26052.92048109865</v>
       </c>
       <c r="X48" s="5" t="n">
-        <v>902656.7174888562</v>
+        <v>4521.208300578613</v>
       </c>
       <c r="Y48" s="8" t="n">
-        <v>0.0001089572906494141</v>
+        <v>8.296966552734375e-05</v>
       </c>
       <c r="Z48" s="9" t="n">
-        <v>0.002972126007080078</v>
+        <v>0.001574516296386719</v>
       </c>
       <c r="AA48" s="11" t="n">
-        <v>0.003081083297729492</v>
+        <v>0.001657485961914062</v>
       </c>
       <c r="AB48" s="5" t="n">
-        <v>365.7675341216964</v>
+        <v>70.49151479719512</v>
       </c>
       <c r="AC48" s="6" t="n">
-        <v>-0.9832926943110503</v>
+        <v>-0.9967801317057243</v>
       </c>
       <c r="AD48" s="5" t="n">
-        <v>140008.0425981056</v>
+        <v>140093.9245396896</v>
       </c>
       <c r="AE48" s="5" t="n">
-        <v>139642.275063984</v>
+        <v>140023.4330248924</v>
       </c>
       <c r="AF48" s="7" t="n">
-        <v>0.01142072677612305</v>
+        <v>0.01216244697570801</v>
       </c>
       <c r="AG48" s="9" t="n">
-        <v>0.0002155303955078125</v>
+        <v>0.0002317428588867188</v>
       </c>
       <c r="AH48" s="10" t="n">
-        <v>0.01163625717163086</v>
+        <v>0.01239418983459473</v>
       </c>
       <c r="AI48" s="5" t="n">
-        <v>4405.238098221514</v>
+        <v>4832.024326815888</v>
       </c>
       <c r="AJ48" s="6" t="n">
-        <v>-0.7987802287692739</v>
+        <v>-0.7792857484784458</v>
       </c>
       <c r="AK48" s="5" t="n">
-        <v>135042.5165953626</v>
+        <v>136752.3738009733</v>
       </c>
       <c r="AL48" s="5" t="n">
-        <v>130637.2784971411</v>
+        <v>131920.3494741574</v>
       </c>
       <c r="AM48" s="12" t="n">
         <v>0</v>
@@ -6872,97 +6869,97 @@
         <v>88767.7090343421</v>
       </c>
       <c r="K49" s="5" t="n">
-        <v>3237.809852960345</v>
+        <v>2747.151111901712</v>
       </c>
       <c r="L49" s="6" t="n">
-        <v>-0.8521053020574982</v>
+        <v>-0.8745173119027853</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>138696.241617591</v>
+        <v>139164.5782519676</v>
       </c>
       <c r="N49" s="5" t="n">
-        <v>135458.4317646306</v>
+        <v>136417.4271400659</v>
       </c>
       <c r="O49" s="7" t="n">
-        <v>41.30453681945801</v>
+        <v>43.43123292922974</v>
       </c>
       <c r="P49" s="8" t="n">
-        <v>0.006685018539428711</v>
+        <v>0.007552146911621094</v>
       </c>
       <c r="Q49" s="13" t="n">
-        <v>0.293212890625</v>
+        <v>0.3116509914398193</v>
       </c>
       <c r="R49" s="9" t="n">
-        <v>6.461143493652344e-05</v>
+        <v>7.414817810058594e-05</v>
       </c>
       <c r="S49" s="10" t="n">
-        <v>41.59774971008301</v>
+        <v>43.74288392066956</v>
       </c>
       <c r="T49" s="11" t="n">
-        <v>0.006749629974365234</v>
+        <v>0.00762629508972168</v>
       </c>
       <c r="U49" s="5" t="n">
-        <v>-50495.41756625116</v>
+        <v>27110.55296974198</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>-3.306498796281437</v>
+        <v>0.2383392554223877</v>
       </c>
       <c r="W49" s="5" t="n">
-        <v>122568.5774598104</v>
+        <v>35089.14389768407</v>
       </c>
       <c r="X49" s="5" t="n">
-        <v>173063.9950260615</v>
+        <v>7978.590927942076</v>
       </c>
       <c r="Y49" s="8" t="n">
-        <v>0.0001769065856933594</v>
+        <v>0.0002880096435546875</v>
       </c>
       <c r="Z49" s="9" t="n">
-        <v>0.003403425216674805</v>
+        <v>0.001877784729003906</v>
       </c>
       <c r="AA49" s="11" t="n">
-        <v>0.003580331802368164</v>
+        <v>0.002165794372558594</v>
       </c>
       <c r="AB49" s="5" t="n">
-        <v>1245.457343159132</v>
+        <v>852.5669034173616</v>
       </c>
       <c r="AC49" s="6" t="n">
-        <v>-0.9431107613072526</v>
+        <v>-0.9610569704884306</v>
       </c>
       <c r="AD49" s="5" t="n">
-        <v>139091.1452598622</v>
+        <v>139605.0699963704</v>
       </c>
       <c r="AE49" s="5" t="n">
-        <v>137845.6879167031</v>
+        <v>138752.5030929531</v>
       </c>
       <c r="AF49" s="7" t="n">
-        <v>0.01172971725463867</v>
+        <v>0.01152324676513672</v>
       </c>
       <c r="AG49" s="9" t="n">
-        <v>0.0001928806304931641</v>
+        <v>0.0001971721649169922</v>
       </c>
       <c r="AH49" s="10" t="n">
-        <v>0.01192259788513184</v>
+        <v>0.01172041893005371</v>
       </c>
       <c r="AI49" s="5" t="n">
-        <v>2645.967558268212</v>
+        <v>2291.289559957721</v>
       </c>
       <c r="AJ49" s="6" t="n">
-        <v>-0.8791391123731538</v>
+        <v>-0.8953398770286264</v>
       </c>
       <c r="AK49" s="5" t="n">
-        <v>139222.4572314529</v>
+        <v>139039.9507943767</v>
       </c>
       <c r="AL49" s="5" t="n">
-        <v>136576.4896731847</v>
+        <v>136748.661234419</v>
       </c>
       <c r="AM49" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN49" s="9" t="n">
-        <v>2.288818359375e-05</v>
+        <v>3.504753112792969e-05</v>
       </c>
       <c r="AO49" s="11" t="n">
-        <v>2.288818359375e-05</v>
+        <v>3.504753112792969e-05</v>
       </c>
     </row>
     <row r="50">
@@ -7001,97 +6998,97 @@
         <v>111081.0112903734</v>
       </c>
       <c r="K50" s="5" t="n">
-        <v>4635.712593180473</v>
+        <v>5483.386590532451</v>
       </c>
       <c r="L50" s="6" t="n">
-        <v>-0.7646796346322223</v>
+        <v>-0.7216495824536044</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>155859.7114482068</v>
+        <v>154924.5395022997</v>
       </c>
       <c r="N50" s="5" t="n">
-        <v>151223.9988550263</v>
+        <v>149441.1529117672</v>
       </c>
       <c r="O50" s="7" t="n">
-        <v>41.70192170143127</v>
+        <v>43.72924947738647</v>
       </c>
       <c r="P50" s="8" t="n">
-        <v>0.006458759307861328</v>
+        <v>0.00751042366027832</v>
       </c>
       <c r="Q50" s="13" t="n">
-        <v>0.287571907043457</v>
+        <v>0.3125386238098145</v>
       </c>
       <c r="R50" s="9" t="n">
-        <v>5.388259887695312e-05</v>
+        <v>5.936622619628906e-05</v>
       </c>
       <c r="S50" s="10" t="n">
-        <v>41.98949360847473</v>
+        <v>44.04178810119629</v>
       </c>
       <c r="T50" s="11" t="n">
-        <v>0.006512641906738281</v>
+        <v>0.007569789886474609</v>
       </c>
       <c r="U50" s="5" t="n">
-        <v>-334733.6534446139</v>
+        <v>26348.44601498133</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>-17.99191743365506</v>
+        <v>0.3375130184385846</v>
       </c>
       <c r="W50" s="5" t="n">
-        <v>147979.1403662924</v>
+        <v>32925.2656131587</v>
       </c>
       <c r="X50" s="5" t="n">
-        <v>482712.7938109063</v>
+        <v>6576.819598177372</v>
       </c>
       <c r="Y50" s="8" t="n">
-        <v>5.91278076171875e-05</v>
+        <v>6.151199340820312e-05</v>
       </c>
       <c r="Z50" s="9" t="n">
-        <v>0.002648115158081055</v>
+        <v>0.001523256301879883</v>
       </c>
       <c r="AA50" s="11" t="n">
-        <v>0.002707242965698242</v>
+        <v>0.001584768295288086</v>
       </c>
       <c r="AB50" s="5" t="n">
-        <v>4938.942773120804</v>
+        <v>4927.576098462954</v>
       </c>
       <c r="AC50" s="6" t="n">
-        <v>-0.749286912305332</v>
+        <v>-0.749863913139559</v>
       </c>
       <c r="AD50" s="5" t="n">
-        <v>155625.7715996863</v>
+        <v>155706.8966185958</v>
       </c>
       <c r="AE50" s="5" t="n">
-        <v>150686.8288265655</v>
+        <v>150779.3205201328</v>
       </c>
       <c r="AF50" s="7" t="n">
-        <v>0.01305603981018066</v>
+        <v>0.0136408805847168</v>
       </c>
       <c r="AG50" s="9" t="n">
-        <v>0.0002527236938476562</v>
+        <v>0.0002880096435546875</v>
       </c>
       <c r="AH50" s="10" t="n">
-        <v>0.01330876350402832</v>
+        <v>0.01392889022827148</v>
       </c>
       <c r="AI50" s="5" t="n">
-        <v>3182.893858220277</v>
+        <v>7424.428949520483</v>
       </c>
       <c r="AJ50" s="6" t="n">
-        <v>-0.8384283471876378</v>
+        <v>-0.6231174176720043</v>
       </c>
       <c r="AK50" s="5" t="n">
-        <v>155905.7394442703</v>
+        <v>152274.8012982645</v>
       </c>
       <c r="AL50" s="5" t="n">
-        <v>152722.8455860501</v>
+        <v>144850.372348744</v>
       </c>
       <c r="AM50" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN50" s="9" t="n">
-        <v>2.193450927734375e-05</v>
+        <v>2.956390380859375e-05</v>
       </c>
       <c r="AO50" s="11" t="n">
-        <v>2.193450927734375e-05</v>
+        <v>2.956390380859375e-05</v>
       </c>
     </row>
     <row r="51">
@@ -7130,97 +7127,97 @@
         <v>111081.0112903734</v>
       </c>
       <c r="K51" s="5" t="n">
-        <v>4675.213709886565</v>
+        <v>2687.808949154098</v>
       </c>
       <c r="L51" s="6" t="n">
-        <v>-0.7626744591540473</v>
+        <v>-0.8635600954027692</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>155950.7351257073</v>
+        <v>157884.4408709811</v>
       </c>
       <c r="N51" s="5" t="n">
-        <v>151275.5214158207</v>
+        <v>155196.631921827</v>
       </c>
       <c r="O51" s="7" t="n">
-        <v>41.70192170143127</v>
+        <v>43.72924947738647</v>
       </c>
       <c r="P51" s="8" t="n">
-        <v>0.006605863571166992</v>
+        <v>0.007356166839599609</v>
       </c>
       <c r="Q51" s="13" t="n">
-        <v>0.2849702835083008</v>
+        <v>0.3147351741790771</v>
       </c>
       <c r="R51" s="9" t="n">
-        <v>7.843971252441406e-05</v>
+        <v>6.604194641113281e-05</v>
       </c>
       <c r="S51" s="10" t="n">
-        <v>41.98689198493958</v>
+        <v>44.04398465156555</v>
       </c>
       <c r="T51" s="11" t="n">
-        <v>0.006684303283691406</v>
-      </c>
-      <c r="U51" s="14" t="n">
-        <v>0</v>
+        <v>0.007422208786010742</v>
+      </c>
+      <c r="U51" s="5" t="n">
+        <v>31666.32467238223</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="16" t="n">
-        <v>0</v>
+        <v>0.6074618393560007</v>
+      </c>
+      <c r="W51" s="5" t="n">
+        <v>43544.45236230474</v>
+      </c>
+      <c r="X51" s="5" t="n">
+        <v>11878.1276899225</v>
+      </c>
+      <c r="Y51" s="8" t="n">
+        <v>0.0001621246337890625</v>
+      </c>
+      <c r="Z51" s="9" t="n">
+        <v>0.001718282699584961</v>
+      </c>
+      <c r="AA51" s="11" t="n">
+        <v>0.001880407333374023</v>
       </c>
       <c r="AB51" s="5" t="n">
-        <v>5012.039655943087</v>
+        <v>5494.888611972247</v>
       </c>
       <c r="AC51" s="6" t="n">
-        <v>-0.7455763317144882</v>
+        <v>-0.721065711078217</v>
       </c>
       <c r="AD51" s="5" t="n">
-        <v>155632.3550930627</v>
+        <v>155091.0792379112</v>
       </c>
       <c r="AE51" s="5" t="n">
-        <v>150620.3154371195</v>
+        <v>149596.1906259389</v>
       </c>
       <c r="AF51" s="7" t="n">
-        <v>0.0126335620880127</v>
+        <v>0.01367330551147461</v>
       </c>
       <c r="AG51" s="9" t="n">
-        <v>0.0002131462097167969</v>
+        <v>0.0002398490905761719</v>
       </c>
       <c r="AH51" s="10" t="n">
-        <v>0.01284670829772949</v>
+        <v>0.01391315460205078</v>
       </c>
       <c r="AI51" s="5" t="n">
-        <v>788.8108774709576</v>
+        <v>3824.527585937416</v>
       </c>
       <c r="AJ51" s="6" t="n">
-        <v>-0.9599579870060083</v>
+        <v>-0.8058574144122097</v>
       </c>
       <c r="AK51" s="5" t="n">
-        <v>158230.8639763349</v>
+        <v>153582.9890950903</v>
       </c>
       <c r="AL51" s="5" t="n">
-        <v>157442.0530988641</v>
+        <v>149758.4615091529</v>
       </c>
       <c r="AM51" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN51" s="9" t="n">
-        <v>2.026557922363281e-05</v>
+        <v>2.694129943847656e-05</v>
       </c>
       <c r="AO51" s="11" t="n">
-        <v>2.026557922363281e-05</v>
+        <v>2.694129943847656e-05</v>
       </c>
     </row>
     <row r="52">
@@ -7259,97 +7256,97 @@
         <v>211327.2539570781</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>3256.377308594249</v>
+        <v>5488.318945216586</v>
       </c>
       <c r="L52" s="6" t="n">
-        <v>-0.8973125560237981</v>
+        <v>-0.8269299313924561</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>286592.8628137633</v>
+        <v>284143.2222855175</v>
       </c>
       <c r="N52" s="5" t="n">
-        <v>283336.485505169</v>
+        <v>278654.9033403009</v>
       </c>
       <c r="O52" s="7" t="n">
-        <v>41.50322127342224</v>
+        <v>43.67556595802307</v>
       </c>
       <c r="P52" s="8" t="n">
-        <v>0.007524013519287109</v>
+        <v>0.006824493408203125</v>
       </c>
       <c r="Q52" s="13" t="n">
-        <v>0.5809652805328369</v>
+        <v>0.6291978359222412</v>
       </c>
       <c r="R52" s="9" t="n">
-        <v>8.893013000488281e-05</v>
+        <v>8.058547973632812e-05</v>
       </c>
       <c r="S52" s="10" t="n">
-        <v>42.08418655395508</v>
+        <v>44.30476379394531</v>
       </c>
       <c r="T52" s="11" t="n">
-        <v>0.007612943649291992</v>
+        <v>0.006905078887939453</v>
       </c>
       <c r="U52" s="5" t="n">
-        <v>-3153015.526622866</v>
+        <v>22351.35590387243</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>-100.4280068196248</v>
+        <v>-0.2951665640484792</v>
       </c>
       <c r="W52" s="5" t="n">
-        <v>266665.1962834807</v>
+        <v>24018.72139457884</v>
       </c>
       <c r="X52" s="5" t="n">
-        <v>3419680.722906344</v>
+        <v>1667.365490706406</v>
       </c>
       <c r="Y52" s="8" t="n">
-        <v>8.416175842285156e-05</v>
+        <v>8.869171142578125e-05</v>
       </c>
       <c r="Z52" s="9" t="n">
-        <v>0.005431175231933594</v>
+        <v>0.001521825790405273</v>
       </c>
       <c r="AA52" s="11" t="n">
-        <v>0.005515336990356445</v>
+        <v>0.001610517501831055</v>
       </c>
       <c r="AB52" s="5" t="n">
-        <v>8777.394924824051</v>
+        <v>8797.684653751501</v>
       </c>
       <c r="AC52" s="6" t="n">
-        <v>-0.7232113590703761</v>
+        <v>-0.7225715375125268</v>
       </c>
       <c r="AD52" s="5" t="n">
-        <v>279630.8908380576</v>
+        <v>279691.7718840718</v>
       </c>
       <c r="AE52" s="5" t="n">
-        <v>270853.4959132337</v>
+        <v>270894.0872303204</v>
       </c>
       <c r="AF52" s="7" t="n">
-        <v>0.01422762870788574</v>
+        <v>0.0127720832824707</v>
       </c>
       <c r="AG52" s="9" t="n">
-        <v>0.0006067752838134766</v>
+        <v>0.0003676414489746094</v>
       </c>
       <c r="AH52" s="10" t="n">
-        <v>0.01483440399169922</v>
+        <v>0.01313972473144531</v>
       </c>
       <c r="AI52" s="5" t="n">
-        <v>6509.597176604811</v>
+        <v>2545.285249668617</v>
       </c>
       <c r="AJ52" s="6" t="n">
-        <v>-0.7947246795953092</v>
+        <v>-0.9197363168607664</v>
       </c>
       <c r="AK52" s="5" t="n">
-        <v>282323.3171284289</v>
+        <v>285359.9586853901</v>
       </c>
       <c r="AL52" s="5" t="n">
-        <v>275813.719951824</v>
+        <v>282814.6734357214</v>
       </c>
       <c r="AM52" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN52" s="9" t="n">
-        <v>5.7220458984375e-05</v>
+        <v>4.291534423828125e-05</v>
       </c>
       <c r="AO52" s="11" t="n">
-        <v>5.7220458984375e-05</v>
+        <v>4.291534423828125e-05</v>
       </c>
     </row>
     <row r="53">
@@ -7388,97 +7385,97 @@
         <v>211327.2539570781</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>6802.911016445783</v>
+        <v>4276.558515236186</v>
       </c>
       <c r="L53" s="6" t="n">
-        <v>-0.7854752451343141</v>
+        <v>-0.8651418980886334</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>283045.0016769362</v>
+        <v>285531.1431217352</v>
       </c>
       <c r="N53" s="5" t="n">
-        <v>276242.0906604903</v>
+        <v>281254.584606499</v>
       </c>
       <c r="O53" s="7" t="n">
-        <v>41.50322127342224</v>
+        <v>43.67556595802307</v>
       </c>
       <c r="P53" s="8" t="n">
-        <v>0.006695747375488281</v>
+        <v>0.007370710372924805</v>
       </c>
       <c r="Q53" s="13" t="n">
-        <v>0.5769414901733398</v>
+        <v>0.6383709907531738</v>
       </c>
       <c r="R53" s="9" t="n">
-        <v>8.249282836914062e-05</v>
+        <v>8.130073547363281e-05</v>
       </c>
       <c r="S53" s="10" t="n">
-        <v>42.08016276359558</v>
+        <v>44.31393694877625</v>
       </c>
       <c r="T53" s="11" t="n">
-        <v>0.006778240203857422</v>
-      </c>
-      <c r="U53" s="14" t="n">
-        <v>0</v>
+        <v>0.007452011108398438</v>
+      </c>
+      <c r="U53" s="5" t="n">
+        <v>23625.16412939687</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="16" t="n">
-        <v>0</v>
+        <v>-0.2549979661253373</v>
+      </c>
+      <c r="W53" s="5" t="n">
+        <v>25633.12422040596</v>
+      </c>
+      <c r="X53" s="5" t="n">
+        <v>2007.960091009097</v>
+      </c>
+      <c r="Y53" s="8" t="n">
+        <v>0.0001761913299560547</v>
+      </c>
+      <c r="Z53" s="9" t="n">
+        <v>0.001699924468994141</v>
+      </c>
+      <c r="AA53" s="11" t="n">
+        <v>0.001876115798950195</v>
       </c>
       <c r="AB53" s="5" t="n">
-        <v>9073.244123533806</v>
+        <v>8741.390632445149</v>
       </c>
       <c r="AC53" s="6" t="n">
-        <v>-0.7138819739473029</v>
+        <v>-0.7243467277350587</v>
       </c>
       <c r="AD53" s="5" t="n">
-        <v>279504.0927396276</v>
+        <v>279723.649471785</v>
       </c>
       <c r="AE53" s="5" t="n">
-        <v>270430.8486160937</v>
+        <v>270982.2588393399</v>
       </c>
       <c r="AF53" s="7" t="n">
-        <v>0.01266360282897949</v>
+        <v>0.01308703422546387</v>
       </c>
       <c r="AG53" s="9" t="n">
-        <v>0.0003149509429931641</v>
+        <v>0.0003337860107421875</v>
       </c>
       <c r="AH53" s="10" t="n">
-        <v>0.01297855377197266</v>
+        <v>0.01342082023620605</v>
       </c>
       <c r="AI53" s="5" t="n">
-        <v>-1063.424875476393</v>
+        <v>927.9519566392119</v>
       </c>
       <c r="AJ53" s="6" t="n">
-        <v>-1.033534314968717</v>
+        <v>-0.9707377230800286</v>
       </c>
       <c r="AK53" s="5" t="n">
-        <v>288598.9682329684</v>
+        <v>286109.6815301934</v>
       </c>
       <c r="AL53" s="5" t="n">
-        <v>289662.3931084447</v>
+        <v>285181.7295735542</v>
       </c>
       <c r="AM53" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN53" s="9" t="n">
-        <v>4.148483276367188e-05</v>
+        <v>4.887580871582031e-05</v>
       </c>
       <c r="AO53" s="11" t="n">
-        <v>4.148483276367188e-05</v>
+        <v>4.887580871582031e-05</v>
       </c>
     </row>
     <row r="54">
@@ -7517,97 +7514,97 @@
         <v>232088.2474685888</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>4484.398381473265</v>
+        <v>7128.082022345197</v>
       </c>
       <c r="L54" s="6" t="n">
-        <v>-0.8685907689285817</v>
+        <v>-0.7911211944415497</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>315658.1372953936</v>
+        <v>313106.5968069442</v>
       </c>
       <c r="N54" s="5" t="n">
-        <v>311173.7389139202</v>
+        <v>305978.5147845989</v>
       </c>
       <c r="O54" s="7" t="n">
-        <v>41.3620069026947</v>
+        <v>43.70818591117859</v>
       </c>
       <c r="P54" s="8" t="n">
-        <v>0.007154226303100586</v>
+        <v>0.007115840911865234</v>
       </c>
       <c r="Q54" s="13" t="n">
-        <v>0.5918524265289307</v>
+        <v>0.6437890529632568</v>
       </c>
       <c r="R54" s="9" t="n">
-        <v>8.487701416015625e-05</v>
+        <v>8.606910705566406e-05</v>
       </c>
       <c r="S54" s="10" t="n">
-        <v>41.95385932922363</v>
+        <v>44.35197496414185</v>
       </c>
       <c r="T54" s="11" t="n">
-        <v>0.007239103317260742</v>
+        <v>0.007201910018920898</v>
       </c>
       <c r="U54" s="5" t="n">
-        <v>-2785242.529853485</v>
+        <v>25116.98716532601</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>-82.61776632236094</v>
+        <v>-0.2639806525971886</v>
       </c>
       <c r="W54" s="5" t="n">
-        <v>304515.7779400652</v>
+        <v>27157.46728087081</v>
       </c>
       <c r="X54" s="5" t="n">
-        <v>3089758.307793556</v>
+        <v>2040.480115544801</v>
       </c>
       <c r="Y54" s="8" t="n">
-        <v>7.843971252441406e-05</v>
+        <v>8.463859558105469e-05</v>
       </c>
       <c r="Z54" s="9" t="n">
-        <v>0.005791902542114258</v>
+        <v>0.001564741134643555</v>
       </c>
       <c r="AA54" s="11" t="n">
-        <v>0.005870342254638672</v>
+        <v>0.001649379730224609</v>
       </c>
       <c r="AB54" s="5" t="n">
-        <v>2863.227893256061</v>
+        <v>2632.790039477415</v>
       </c>
       <c r="AC54" s="6" t="n">
-        <v>-0.9160969780496163</v>
+        <v>-0.9228496477722495</v>
       </c>
       <c r="AD54" s="5" t="n">
-        <v>317229.5832941732</v>
+        <v>317465.2683353819</v>
       </c>
       <c r="AE54" s="5" t="n">
-        <v>314366.3554009171</v>
+        <v>314832.4782959044</v>
       </c>
       <c r="AF54" s="7" t="n">
-        <v>0.01284670829772949</v>
+        <v>0.01416277885437012</v>
       </c>
       <c r="AG54" s="9" t="n">
-        <v>0.0003218650817871094</v>
+        <v>0.0003874301910400391</v>
       </c>
       <c r="AH54" s="10" t="n">
-        <v>0.0131685733795166</v>
+        <v>0.01455020904541016</v>
       </c>
       <c r="AI54" s="5" t="n">
-        <v>1058.757446396005</v>
+        <v>5079.098768466552</v>
       </c>
       <c r="AJ54" s="6" t="n">
-        <v>-0.9689745446129768</v>
+        <v>-0.851163878201048</v>
       </c>
       <c r="AK54" s="5" t="n">
-        <v>317673.3596490337</v>
+        <v>314772.682351362</v>
       </c>
       <c r="AL54" s="5" t="n">
-        <v>316614.6022026377</v>
+        <v>309693.5835828956</v>
       </c>
       <c r="AM54" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN54" s="9" t="n">
-        <v>4.744529724121094e-05</v>
+        <v>5.078315734863281e-05</v>
       </c>
       <c r="AO54" s="11" t="n">
-        <v>4.744529724121094e-05</v>
+        <v>5.078315734863281e-05</v>
       </c>
     </row>
     <row r="55">
@@ -7646,97 +7643,97 @@
         <v>232088.2474685888</v>
       </c>
       <c r="K55" s="5" t="n">
-        <v>3509.740123865465</v>
+        <v>5648.085819828987</v>
       </c>
       <c r="L55" s="6" t="n">
-        <v>-0.8971518113013539</v>
+        <v>-0.8344904820063579</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>316838.3819152577</v>
+        <v>314670.2210473966</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>313328.641791392</v>
+        <v>309022.1352275676</v>
       </c>
       <c r="O55" s="7" t="n">
-        <v>41.3620069026947</v>
+        <v>43.70818591117859</v>
       </c>
       <c r="P55" s="8" t="n">
-        <v>0.007236242294311523</v>
+        <v>0.007897615432739258</v>
       </c>
       <c r="Q55" s="13" t="n">
-        <v>0.5828464031219482</v>
+        <v>0.6280603408813477</v>
       </c>
       <c r="R55" s="9" t="n">
-        <v>9.655952453613281e-05</v>
+        <v>0.0001218318939208984</v>
       </c>
       <c r="S55" s="10" t="n">
-        <v>41.94485330581665</v>
+        <v>44.33624625205994</v>
       </c>
       <c r="T55" s="11" t="n">
-        <v>0.007332801818847656</v>
-      </c>
-      <c r="U55" s="14" t="n">
-        <v>0</v>
+        <v>0.008019447326660156</v>
+      </c>
+      <c r="U55" s="5" t="n">
+        <v>34646.30618749332</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="16" t="n">
-        <v>0</v>
+        <v>0.01526315645214183</v>
+      </c>
+      <c r="W55" s="5" t="n">
+        <v>39027.10370662175</v>
+      </c>
+      <c r="X55" s="5" t="n">
+        <v>4380.797519128428</v>
+      </c>
+      <c r="Y55" s="8" t="n">
+        <v>0.0001940727233886719</v>
+      </c>
+      <c r="Z55" s="9" t="n">
+        <v>0.001900196075439453</v>
+      </c>
+      <c r="AA55" s="11" t="n">
+        <v>0.002094268798828125</v>
       </c>
       <c r="AB55" s="5" t="n">
-        <v>2989.443188412636</v>
+        <v>3252.846435075778</v>
       </c>
       <c r="AC55" s="6" t="n">
-        <v>-0.9123984094847671</v>
+        <v>-0.9046797334972098</v>
       </c>
       <c r="AD55" s="5" t="n">
-        <v>317123.8367604367</v>
+        <v>316849.1979298367</v>
       </c>
       <c r="AE55" s="5" t="n">
-        <v>314134.393572024</v>
+        <v>313596.3514947611</v>
       </c>
       <c r="AF55" s="7" t="n">
-        <v>0.01334595680236816</v>
+        <v>0.01341676712036133</v>
       </c>
       <c r="AG55" s="9" t="n">
-        <v>0.0003619194030761719</v>
+        <v>0.0003685951232910156</v>
       </c>
       <c r="AH55" s="10" t="n">
-        <v>0.01370787620544434</v>
+        <v>0.01378536224365234</v>
       </c>
       <c r="AI55" s="5" t="n">
-        <v>2489.205493052108</v>
+        <v>4766.961946679231</v>
       </c>
       <c r="AJ55" s="6" t="n">
-        <v>-0.9270571987600119</v>
+        <v>-0.8603106257134028</v>
       </c>
       <c r="AK55" s="5" t="n">
-        <v>314507.2359475839</v>
+        <v>315357.806600944</v>
       </c>
       <c r="AL55" s="5" t="n">
-        <v>312018.0304545318</v>
+        <v>310590.8446542647</v>
       </c>
       <c r="AM55" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN55" s="9" t="n">
-        <v>4.839897155761719e-05</v>
+        <v>5.650520324707031e-05</v>
       </c>
       <c r="AO55" s="11" t="n">
-        <v>4.839897155761719e-05</v>
+        <v>5.650520324707031e-05</v>
       </c>
     </row>
     <row r="56">
@@ -7775,97 +7772,97 @@
         <v>216139.7108841981</v>
       </c>
       <c r="K56" s="5" t="n">
-        <v>2863.475597753448</v>
+        <v>5248.946199707602</v>
       </c>
       <c r="L56" s="6" t="n">
-        <v>-0.932113923145517</v>
+        <v>-0.8755601879764727</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>328936.1932540367</v>
+        <v>326778.3609220034</v>
       </c>
       <c r="N56" s="5" t="n">
-        <v>326072.7176562834</v>
+        <v>321529.4147222958</v>
       </c>
       <c r="O56" s="7" t="n">
-        <v>41.14728403091431</v>
+        <v>43.0689332485199</v>
       </c>
       <c r="P56" s="8" t="n">
-        <v>0.006725549697875977</v>
+        <v>0.006850242614746094</v>
       </c>
       <c r="Q56" s="13" t="n">
-        <v>0.585040807723999</v>
+        <v>0.6320157051086426</v>
       </c>
       <c r="R56" s="9" t="n">
-        <v>7.510185241699219e-05</v>
+        <v>7.748603820800781e-05</v>
       </c>
       <c r="S56" s="10" t="n">
-        <v>41.73232483863831</v>
+        <v>43.70094895362854</v>
       </c>
       <c r="T56" s="11" t="n">
-        <v>0.006800651550292969</v>
+        <v>0.006927728652954102</v>
       </c>
       <c r="U56" s="5" t="n">
-        <v>-1432884.983195473</v>
+        <v>56901.33678387655</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>-34.97023539127008</v>
+        <v>0.3489929947591116</v>
       </c>
       <c r="W56" s="5" t="n">
-        <v>314291.2327666258</v>
+        <v>72242.89476727208</v>
       </c>
       <c r="X56" s="5" t="n">
-        <v>1747176.215962101</v>
+        <v>15341.55798339551</v>
       </c>
       <c r="Y56" s="8" t="n">
-        <v>7.867813110351562e-05</v>
+        <v>8.273124694824219e-05</v>
       </c>
       <c r="Z56" s="9" t="n">
-        <v>0.006114006042480469</v>
+        <v>0.002076625823974609</v>
       </c>
       <c r="AA56" s="11" t="n">
-        <v>0.006192684173583984</v>
+        <v>0.002159357070922852</v>
       </c>
       <c r="AB56" s="5" t="n">
-        <v>-8957.814767216898</v>
+        <v>-8829.302024853629</v>
       </c>
       <c r="AC56" s="6" t="n">
-        <v>-1.21236811035254</v>
+        <v>-1.209321384230027</v>
       </c>
       <c r="AD56" s="5" t="n">
-        <v>339546.5527630366</v>
+        <v>339422.0077486138</v>
       </c>
       <c r="AE56" s="5" t="n">
-        <v>348504.3675302535</v>
+        <v>348251.3097734676</v>
       </c>
       <c r="AF56" s="7" t="n">
-        <v>0.01324462890625</v>
+        <v>0.01434183120727539</v>
       </c>
       <c r="AG56" s="9" t="n">
-        <v>0.0002870559692382812</v>
+        <v>0.0003514289855957031</v>
       </c>
       <c r="AH56" s="10" t="n">
-        <v>0.01353168487548828</v>
+        <v>0.01469326019287109</v>
       </c>
       <c r="AI56" s="5" t="n">
-        <v>3430.299468641783</v>
+        <v>2760.231691909104</v>
       </c>
       <c r="AJ56" s="6" t="n">
-        <v>-0.9186759008720707</v>
+        <v>-0.9345615863043737</v>
       </c>
       <c r="AK56" s="5" t="n">
-        <v>326650.4344798209</v>
+        <v>328345.523634174</v>
       </c>
       <c r="AL56" s="5" t="n">
-        <v>323220.135011179</v>
+        <v>325585.2919422648</v>
       </c>
       <c r="AM56" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN56" s="9" t="n">
-        <v>4.315376281738281e-05</v>
+        <v>4.935264587402344e-05</v>
       </c>
       <c r="AO56" s="11" t="n">
-        <v>4.315376281738281e-05</v>
+        <v>4.935264587402344e-05</v>
       </c>
     </row>
     <row r="57">
@@ -7904,97 +7901,97 @@
         <v>216139.7108841981</v>
       </c>
       <c r="K57" s="5" t="n">
-        <v>7764.174803000045</v>
+        <v>3724.62013057359</v>
       </c>
       <c r="L57" s="6" t="n">
-        <v>-0.815930204608126</v>
+        <v>-0.9116982702292811</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>324238.5636672949</v>
+        <v>328176.754314185</v>
       </c>
       <c r="N57" s="5" t="n">
-        <v>316474.3888642949</v>
+        <v>324452.1341836115</v>
       </c>
       <c r="O57" s="7" t="n">
-        <v>41.14728403091431</v>
+        <v>43.0689332485199</v>
       </c>
       <c r="P57" s="8" t="n">
-        <v>0.006582736968994141</v>
+        <v>0.007012605667114258</v>
       </c>
       <c r="Q57" s="13" t="n">
-        <v>0.5743527412414551</v>
+        <v>0.632136344909668</v>
       </c>
       <c r="R57" s="9" t="n">
-        <v>8.535385131835938e-05</v>
+        <v>7.963180541992188e-05</v>
       </c>
       <c r="S57" s="10" t="n">
-        <v>41.72163677215576</v>
+        <v>43.70106959342957</v>
       </c>
       <c r="T57" s="11" t="n">
-        <v>0.0066680908203125</v>
+        <v>0.00709223747253418</v>
       </c>
       <c r="U57" s="5" t="n">
-        <v>-3620116.271470141</v>
+        <v>44807.43079046631</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>-86.82419616915708</v>
+        <v>0.06227575072753533</v>
       </c>
       <c r="W57" s="5" t="n">
-        <v>365362.164461291</v>
+        <v>52794.46254677967</v>
       </c>
       <c r="X57" s="5" t="n">
-        <v>3985478.435931433</v>
+        <v>7987.031756313366</v>
       </c>
       <c r="Y57" s="8" t="n">
-        <v>8.893013000488281e-05</v>
+        <v>9.107589721679688e-05</v>
       </c>
       <c r="Z57" s="9" t="n">
-        <v>0.00522303581237793</v>
+        <v>0.001770973205566406</v>
       </c>
       <c r="AA57" s="11" t="n">
-        <v>0.005311965942382812</v>
+        <v>0.001862049102783203</v>
       </c>
       <c r="AB57" s="5" t="n">
-        <v>-9881.829878626444</v>
+        <v>-9527.016998167941</v>
       </c>
       <c r="AC57" s="6" t="n">
-        <v>-1.234274272541268</v>
+        <v>-1.225862517787477</v>
       </c>
       <c r="AD57" s="5" t="n">
-        <v>340301.30829258</v>
+        <v>340029.0727324575</v>
       </c>
       <c r="AE57" s="5" t="n">
-        <v>350183.1381712065</v>
+        <v>349556.0897306253</v>
       </c>
       <c r="AF57" s="7" t="n">
-        <v>0.01331496238708496</v>
+        <v>0.01363348960876465</v>
       </c>
       <c r="AG57" s="9" t="n">
-        <v>0.000308990478515625</v>
+        <v>0.0003342628479003906</v>
       </c>
       <c r="AH57" s="10" t="n">
-        <v>0.01362395286560059</v>
+        <v>0.01396775245666504</v>
       </c>
       <c r="AI57" s="5" t="n">
-        <v>6399.584421167804</v>
+        <v>7491.297317980667</v>
       </c>
       <c r="AJ57" s="6" t="n">
-        <v>-0.8482813402729908</v>
+        <v>-0.8223994694184905</v>
       </c>
       <c r="AK57" s="5" t="n">
-        <v>325088.2362372954</v>
+        <v>323836.0105111131</v>
       </c>
       <c r="AL57" s="5" t="n">
-        <v>318688.6518161277</v>
+        <v>316344.7131931323</v>
       </c>
       <c r="AM57" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN57" s="9" t="n">
-        <v>4.1961669921875e-05</v>
+        <v>5.054473876953125e-05</v>
       </c>
       <c r="AO57" s="11" t="n">
-        <v>4.1961669921875e-05</v>
+        <v>5.054473876953125e-05</v>
       </c>
     </row>
     <row r="58">
@@ -8033,97 +8030,97 @@
         <v>183555.5512803978</v>
       </c>
       <c r="K58" s="5" t="n">
-        <v>3556.180438185202</v>
+        <v>5705.012938999447</v>
       </c>
       <c r="L58" s="6" t="n">
-        <v>-0.9076246996163724</v>
+        <v>-0.8518066523639344</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>276198.0952695254</v>
+        <v>273817.8660941894</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>272641.9148313401</v>
+        <v>268112.85315519</v>
       </c>
       <c r="O58" s="7" t="n">
-        <v>41.33517718315125</v>
+        <v>43.6417338848114</v>
       </c>
       <c r="P58" s="8" t="n">
-        <v>0.006755590438842773</v>
+        <v>0.007161617279052734</v>
       </c>
       <c r="Q58" s="13" t="n">
-        <v>0.5922496318817139</v>
+        <v>0.6242718696594238</v>
       </c>
       <c r="R58" s="9" t="n">
-        <v>7.700920104980469e-05</v>
+        <v>8.058547973632812e-05</v>
       </c>
       <c r="S58" s="10" t="n">
-        <v>41.92742681503296</v>
+        <v>44.26600575447083</v>
       </c>
       <c r="T58" s="11" t="n">
-        <v>0.006832599639892578</v>
+        <v>0.007242202758789062</v>
       </c>
       <c r="U58" s="5" t="n">
-        <v>-1854343.518926068</v>
+        <v>23792.31633080934</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>-49.1684049931517</v>
+        <v>-0.3819710765288395</v>
       </c>
       <c r="W58" s="5" t="n">
-        <v>253794.7759997683</v>
+        <v>26052.92048109865</v>
       </c>
       <c r="X58" s="5" t="n">
-        <v>2108138.294925835</v>
+        <v>2260.604150289306</v>
       </c>
       <c r="Y58" s="8" t="n">
-        <v>7.82012939453125e-05</v>
+        <v>7.724761962890625e-05</v>
       </c>
       <c r="Z58" s="9" t="n">
-        <v>0.005695343017578125</v>
+        <v>0.0016937255859375</v>
       </c>
       <c r="AA58" s="11" t="n">
-        <v>0.005773544311523438</v>
+        <v>0.001770973205566406</v>
       </c>
       <c r="AB58" s="5" t="n">
-        <v>-864.9097267510588</v>
+        <v>-430.0793728810268</v>
       </c>
       <c r="AC58" s="6" t="n">
-        <v>-1.022466884682073</v>
+        <v>-1.01117173662846</v>
       </c>
       <c r="AD58" s="5" t="n">
-        <v>278213.7962841886</v>
+        <v>277826.9746207134</v>
       </c>
       <c r="AE58" s="5" t="n">
-        <v>279078.7060109396</v>
+        <v>278257.0539935944</v>
       </c>
       <c r="AF58" s="7" t="n">
-        <v>0.01141905784606934</v>
+        <v>0.01182913780212402</v>
       </c>
       <c r="AG58" s="9" t="n">
-        <v>0.00026702880859375</v>
+        <v>0.0003387928009033203</v>
       </c>
       <c r="AH58" s="10" t="n">
-        <v>0.01168608665466309</v>
+        <v>0.01216793060302734</v>
       </c>
       <c r="AI58" s="5" t="n">
-        <v>3879.899099940426</v>
+        <v>3481.521311572044</v>
       </c>
       <c r="AJ58" s="6" t="n">
-        <v>-0.8992157875436528</v>
+        <v>-0.9095640441932716</v>
       </c>
       <c r="AK58" s="5" t="n">
-        <v>273322.7519346894</v>
+        <v>275840.4928221112</v>
       </c>
       <c r="AL58" s="5" t="n">
-        <v>269442.8528347489</v>
+        <v>272358.971510539</v>
       </c>
       <c r="AM58" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN58" s="9" t="n">
-        <v>3.933906555175781e-05</v>
+        <v>5.125999450683594e-05</v>
       </c>
       <c r="AO58" s="11" t="n">
-        <v>3.933906555175781e-05</v>
+        <v>5.125999450683594e-05</v>
       </c>
     </row>
     <row r="59">
@@ -8162,97 +8159,97 @@
         <v>183555.5512803978</v>
       </c>
       <c r="K59" s="5" t="n">
-        <v>3006.905549827325</v>
+        <v>3317.548900299299</v>
       </c>
       <c r="L59" s="6" t="n">
-        <v>-0.9218926575243621</v>
+        <v>-0.9138233895806158</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>276530.181518801</v>
+        <v>276247.2191496548</v>
       </c>
       <c r="N59" s="5" t="n">
-        <v>273523.2759689736</v>
+        <v>272929.6702493555</v>
       </c>
       <c r="O59" s="7" t="n">
-        <v>41.33517718315125</v>
+        <v>43.6417338848114</v>
       </c>
       <c r="P59" s="8" t="n">
-        <v>0.00697636604309082</v>
+        <v>0.007659196853637695</v>
       </c>
       <c r="Q59" s="13" t="n">
-        <v>0.5714664459228516</v>
+        <v>0.628016471862793</v>
       </c>
       <c r="R59" s="9" t="n">
-        <v>8.034706115722656e-05</v>
+        <v>9.131431579589844e-05</v>
       </c>
       <c r="S59" s="10" t="n">
-        <v>41.9066436290741</v>
+        <v>44.26975035667419</v>
       </c>
       <c r="T59" s="11" t="n">
-        <v>0.007056713104248047</v>
-      </c>
-      <c r="U59" s="14" t="n">
-        <v>0</v>
+        <v>0.007750511169433594</v>
+      </c>
+      <c r="U59" s="5" t="n">
+        <v>31099.84843371302</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="16" t="n">
-        <v>0</v>
+        <v>-0.192150710323458</v>
+      </c>
+      <c r="W59" s="5" t="n">
+        <v>35089.14389768407</v>
+      </c>
+      <c r="X59" s="5" t="n">
+        <v>3989.295463971038</v>
+      </c>
+      <c r="Y59" s="8" t="n">
+        <v>0.0002119541168212891</v>
+      </c>
+      <c r="Z59" s="9" t="n">
+        <v>0.00197148323059082</v>
+      </c>
+      <c r="AA59" s="11" t="n">
+        <v>0.002183437347412109</v>
       </c>
       <c r="AB59" s="5" t="n">
-        <v>-686.6182955490926</v>
+        <v>-801.52205848775</v>
       </c>
       <c r="AC59" s="6" t="n">
-        <v>-1.017835588604894</v>
+        <v>-1.020820327371998</v>
       </c>
       <c r="AD59" s="5" t="n">
-        <v>277719.000320819</v>
+        <v>278297.7237189441</v>
       </c>
       <c r="AE59" s="5" t="n">
-        <v>278405.6186163682</v>
+        <v>279099.2457774319</v>
       </c>
       <c r="AF59" s="7" t="n">
-        <v>0.01145434379577637</v>
+        <v>0.0121302604675293</v>
       </c>
       <c r="AG59" s="9" t="n">
-        <v>0.0002369880676269531</v>
+        <v>0.0002655982971191406</v>
       </c>
       <c r="AH59" s="10" t="n">
-        <v>0.01169133186340332</v>
+        <v>0.01239585876464844</v>
       </c>
       <c r="AI59" s="5" t="n">
-        <v>4244.659493467427</v>
+        <v>-6612.3080522858</v>
       </c>
       <c r="AJ59" s="6" t="n">
-        <v>-0.8897407759389824</v>
+        <v>-1.171761234610101</v>
       </c>
       <c r="AK59" s="5" t="n">
-        <v>274908.0575618639</v>
+        <v>282980.9413127792</v>
       </c>
       <c r="AL59" s="5" t="n">
-        <v>270663.3980683963</v>
+        <v>289593.2493650652</v>
       </c>
       <c r="AM59" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN59" s="9" t="n">
-        <v>3.743171691894531e-05</v>
+        <v>4.57763671875e-05</v>
       </c>
       <c r="AO59" s="11" t="n">
-        <v>3.743171691894531e-05</v>
+        <v>4.57763671875e-05</v>
       </c>
     </row>
     <row r="60">
@@ -8291,97 +8288,97 @@
         <v>234146.8137813146</v>
       </c>
       <c r="K60" s="5" t="n">
-        <v>4603.915004510494</v>
+        <v>4889.415695777749</v>
       </c>
       <c r="L60" s="6" t="n">
-        <v>-0.8572420216778589</v>
+        <v>-0.8483892297703288</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>312095.7814185016</v>
+        <v>311760.1798712491</v>
       </c>
       <c r="N60" s="5" t="n">
-        <v>307491.8664139911</v>
+        <v>306870.7641754713</v>
       </c>
       <c r="O60" s="7" t="n">
-        <v>41.27535533905029</v>
+        <v>43.21438455581665</v>
       </c>
       <c r="P60" s="8" t="n">
-        <v>0.008689403533935547</v>
+        <v>0.006918191909790039</v>
       </c>
       <c r="Q60" s="13" t="n">
-        <v>0.5786921977996826</v>
+        <v>0.6285319328308105</v>
       </c>
       <c r="R60" s="9" t="n">
-        <v>8.916854858398438e-05</v>
+        <v>7.605552673339844e-05</v>
       </c>
       <c r="S60" s="10" t="n">
-        <v>41.85404753684998</v>
+        <v>43.84291648864746</v>
       </c>
       <c r="T60" s="11" t="n">
-        <v>0.008778572082519531</v>
+        <v>0.006994247436523438</v>
       </c>
       <c r="U60" s="5" t="n">
-        <v>-3026944.397818713</v>
+        <v>29636.85581407002</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>-94.85934846815768</v>
+        <v>-0.08102177913875847</v>
       </c>
       <c r="W60" s="5" t="n">
-        <v>311223.3602694367</v>
+        <v>32925.2656131587</v>
       </c>
       <c r="X60" s="5" t="n">
-        <v>3338167.758088145</v>
+        <v>3288.409799088686</v>
       </c>
       <c r="Y60" s="8" t="n">
-        <v>5.769729614257812e-05</v>
+        <v>5.793571472167969e-05</v>
       </c>
       <c r="Z60" s="9" t="n">
-        <v>0.005578279495239258</v>
+        <v>0.001587867736816406</v>
       </c>
       <c r="AA60" s="11" t="n">
-        <v>0.005635976791381836</v>
+        <v>0.001645803451538086</v>
       </c>
       <c r="AB60" s="5" t="n">
-        <v>6873.011091901773</v>
+        <v>7074.547571733123</v>
       </c>
       <c r="AC60" s="6" t="n">
-        <v>-0.7868819977118863</v>
+        <v>-0.7806327640942593</v>
       </c>
       <c r="AD60" s="5" t="n">
-        <v>309325.6748438846</v>
+        <v>309147.9299007119</v>
       </c>
       <c r="AE60" s="5" t="n">
-        <v>302452.663751983</v>
+        <v>302073.3823289786</v>
       </c>
       <c r="AF60" s="7" t="n">
-        <v>0.01463031768798828</v>
+        <v>0.01378679275512695</v>
       </c>
       <c r="AG60" s="9" t="n">
-        <v>0.0003435611724853516</v>
+        <v>0.0003423690795898438</v>
       </c>
       <c r="AH60" s="10" t="n">
-        <v>0.01497387886047363</v>
+        <v>0.0141291618347168</v>
       </c>
       <c r="AI60" s="5" t="n">
-        <v>5555.150210811595</v>
+        <v>6219.409022751242</v>
       </c>
       <c r="AJ60" s="6" t="n">
-        <v>-0.8277461654712719</v>
+        <v>-0.8071488597038398</v>
       </c>
       <c r="AK60" s="5" t="n">
-        <v>309166.5759222558</v>
+        <v>309848.8072916258</v>
       </c>
       <c r="AL60" s="5" t="n">
-        <v>303611.4257114442</v>
+        <v>303629.3982688744</v>
       </c>
       <c r="AM60" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN60" s="9" t="n">
-        <v>5.340576171875e-05</v>
+        <v>4.720687866210938e-05</v>
       </c>
       <c r="AO60" s="11" t="n">
-        <v>5.340576171875e-05</v>
+        <v>4.720687866210938e-05</v>
       </c>
     </row>
     <row r="61">
@@ -8420,97 +8417,97 @@
         <v>234146.8137813146</v>
       </c>
       <c r="K61" s="5" t="n">
-        <v>4360.422768588059</v>
+        <v>4357.807210444407</v>
       </c>
       <c r="L61" s="6" t="n">
-        <v>-0.8647922173924562</v>
+        <v>-0.8648733204954469</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>312284.6459530249</v>
+        <v>312434.289007651</v>
       </c>
       <c r="N61" s="5" t="n">
-        <v>307924.2231844368</v>
+        <v>308076.4817972067</v>
       </c>
       <c r="O61" s="7" t="n">
-        <v>41.27535533905029</v>
+        <v>43.21438455581665</v>
       </c>
       <c r="P61" s="8" t="n">
-        <v>0.00662994384765625</v>
+        <v>0.007938146591186523</v>
       </c>
       <c r="Q61" s="13" t="n">
-        <v>0.591867208480835</v>
+        <v>0.6422197818756104</v>
       </c>
       <c r="R61" s="9" t="n">
-        <v>9.036064147949219e-05</v>
+        <v>8.606910705566406e-05</v>
       </c>
       <c r="S61" s="10" t="n">
-        <v>41.86722254753113</v>
+        <v>43.85660433769226</v>
       </c>
       <c r="T61" s="11" t="n">
-        <v>0.006720304489135742</v>
-      </c>
-      <c r="U61" s="14" t="n">
-        <v>0</v>
+        <v>0.008024215698242188</v>
+      </c>
+      <c r="U61" s="5" t="n">
+        <v>35721.56814962091</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="16" t="n">
-        <v>0</v>
+        <v>0.107652692662746</v>
+      </c>
+      <c r="W61" s="5" t="n">
+        <v>40777.29884685106</v>
+      </c>
+      <c r="X61" s="5" t="n">
+        <v>5055.730697230128</v>
+      </c>
+      <c r="Y61" s="8" t="n">
+        <v>0.000156402587890625</v>
+      </c>
+      <c r="Z61" s="9" t="n">
+        <v>0.001712799072265625</v>
+      </c>
+      <c r="AA61" s="11" t="n">
+        <v>0.00186920166015625</v>
       </c>
       <c r="AB61" s="5" t="n">
-        <v>6613.877749211828</v>
+        <v>6625.5362682738</v>
       </c>
       <c r="AC61" s="6" t="n">
-        <v>-0.7949171921240404</v>
+        <v>-0.7945556853173581</v>
       </c>
       <c r="AD61" s="5" t="n">
-        <v>309667.7144346366</v>
+        <v>309583.99295994</v>
       </c>
       <c r="AE61" s="5" t="n">
-        <v>303053.8366854248</v>
+        <v>302958.4566916663</v>
       </c>
       <c r="AF61" s="7" t="n">
-        <v>0.01269221305847168</v>
+        <v>0.01339221000671387</v>
       </c>
       <c r="AG61" s="9" t="n">
-        <v>0.0003073215484619141</v>
+        <v>0.0004215240478515625</v>
       </c>
       <c r="AH61" s="10" t="n">
-        <v>0.01299953460693359</v>
+        <v>0.01381373405456543</v>
       </c>
       <c r="AI61" s="5" t="n">
-        <v>5194.909066212515</v>
+        <v>-1883.133442537101</v>
       </c>
       <c r="AJ61" s="6" t="n">
-        <v>-0.838916505814444</v>
+        <v>-1.058392112561599</v>
       </c>
       <c r="AK61" s="5" t="n">
-        <v>310029.2223901841</v>
+        <v>317157.5621294752</v>
       </c>
       <c r="AL61" s="5" t="n">
-        <v>304834.3133239714</v>
+        <v>319040.6955720122</v>
       </c>
       <c r="AM61" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AN61" s="9" t="n">
-        <v>4.100799560546875e-05</v>
+        <v>4.887580871582031e-05</v>
       </c>
       <c r="AO61" s="11" t="n">
-        <v>4.100799560546875e-05</v>
+        <v>4.887580871582031e-05</v>
       </c>
     </row>
   </sheetData>
